--- a/Performance Testing/steady_state_processed_data.xlsx
+++ b/Performance Testing/steady_state_processed_data.xlsx
@@ -987,16 +987,16 @@
         <v>9.989654971904422</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>0.799865169398009</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>0.6523618593234914</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.3246108055631362</v>
+        <v>0.2935867499554838</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.4098483614512835</v>
+        <v>0.4410900600300014</v>
       </c>
       <c r="BE2" t="n">
         <v>615</v>
@@ -1017,16 +1017,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK2" t="n">
-        <v>251.2593158695157</v>
+        <v>227.2456883072612</v>
       </c>
       <c r="BL2" t="n">
-        <v>317.2359550072415</v>
+        <v>341.4180453041818</v>
       </c>
       <c r="BM2" t="n">
-        <v>856.7942671150487</v>
+        <v>774.9077971277609</v>
       </c>
       <c r="BN2" t="n">
-        <v>1081.774606574694</v>
+        <v>1164.23553448726</v>
       </c>
       <c r="BO2" t="n">
         <v>2264.823684210527</v>
@@ -1035,40 +1035,40 @@
         <v>7723.048763157896</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>397.6472340724775</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>324.317021041935</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>1355.977068187148</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>1105.921041752998</v>
       </c>
       <c r="BU2" t="n">
-        <v>7723.048763157896</v>
+        <v>9079.025831345045</v>
       </c>
       <c r="BV2" t="n">
-        <v>8804.82336973259</v>
+        <v>8887.284297645156</v>
       </c>
       <c r="BW2" t="n">
-        <v>10.38044188596492</v>
+        <v>12.2029917087971</v>
       </c>
       <c r="BX2" t="n">
-        <v>11.83444001308144</v>
+        <v>11.94527459360908</v>
       </c>
       <c r="BY2" t="n">
-        <v>684.0689655172414</v>
+        <v>728</v>
       </c>
       <c r="BZ2" t="n">
-        <v>6672.882355638515</v>
+        <v>9860.87330850137</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.769039220961179</v>
+        <v>13.55514040563661</v>
       </c>
       <c r="CB2" t="n">
-        <v>761.8881165159272</v>
+        <v>2386.51298168248</v>
       </c>
     </row>
     <row r="3">
@@ -1231,16 +1231,16 @@
         <v>10.0059266280758</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>0.6690812949625844</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>0.4989235334852893</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.2856846979889768</v>
+        <v>0.2546606423813245</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.3935767052799017</v>
+        <v>0.4248184038586196</v>
       </c>
       <c r="BE3" t="n">
         <v>615</v>
@@ -1261,16 +1261,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK3" t="n">
-        <v>221.1292432073346</v>
+        <v>197.1156156450801</v>
       </c>
       <c r="BL3" t="n">
-        <v>304.6411641758248</v>
+        <v>328.8232544727651</v>
       </c>
       <c r="BM3" t="n">
-        <v>754.0507193370108</v>
+        <v>672.1642493497233</v>
       </c>
       <c r="BN3" t="n">
-        <v>1038.826369839562</v>
+        <v>1121.287297752129</v>
       </c>
       <c r="BO3" t="n">
         <v>2276.308591331269</v>
@@ -1279,40 +1279,40 @@
         <v>7762.212296439628</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>332.628968594473</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>248.0362574775046</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>1134.264782907153</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>845.8036379982907</v>
       </c>
       <c r="BU3" t="n">
-        <v>7762.212296439628</v>
+        <v>8896.47707934678</v>
       </c>
       <c r="BV3" t="n">
-        <v>8801.03866627919</v>
+        <v>8883.499594191757</v>
       </c>
       <c r="BW3" t="n">
-        <v>10.4051103169432</v>
+        <v>11.92557249242196</v>
       </c>
       <c r="BX3" t="n">
-        <v>11.79763896284074</v>
+        <v>11.90817639972085</v>
       </c>
       <c r="BY3" t="n">
-        <v>684.0689655172414</v>
+        <v>730.8</v>
       </c>
       <c r="BZ3" t="n">
-        <v>6672.882355638515</v>
+        <v>9581.90049821432</v>
       </c>
       <c r="CA3" t="n">
-        <v>9.769039220961179</v>
+        <v>13.12841306510952</v>
       </c>
       <c r="CB3" t="n">
-        <v>761.8881165159272</v>
+        <v>1961.068556921747</v>
       </c>
     </row>
     <row r="4">
@@ -1475,16 +1475,16 @@
         <v>10.01143177836761</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>0.769795223237109</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>0.4901507845019299</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1706928704392877</v>
+        <v>0.1396688148316354</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.3880715549880966</v>
+        <v>0.4193132535668145</v>
       </c>
       <c r="BE4" t="n">
         <v>615</v>
@@ -1505,16 +1505,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK4" t="n">
-        <v>132.1218305594502</v>
+        <v>108.1082029971958</v>
       </c>
       <c r="BL4" t="n">
-        <v>300.3799988899737</v>
+        <v>324.5620891869139</v>
       </c>
       <c r="BM4" t="n">
-        <v>450.5354422077253</v>
+        <v>368.6489722204377</v>
       </c>
       <c r="BN4" t="n">
-        <v>1024.29579621481</v>
+        <v>1106.756724127376</v>
       </c>
       <c r="BO4" t="n">
         <v>2238.982643188854</v>
@@ -1523,40 +1523,40 @@
         <v>7634.930813273992</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>382.6981759348548</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>243.6749482195075</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>1305.000779937855</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>830.9315734285204</v>
       </c>
       <c r="BU4" t="n">
-        <v>7634.930813273992</v>
+        <v>8939.931593211846</v>
       </c>
       <c r="BV4" t="n">
-        <v>8659.226609488802</v>
+        <v>8741.687537401369</v>
       </c>
       <c r="BW4" t="n">
-        <v>10.2344917068016</v>
+        <v>11.98382251100784</v>
       </c>
       <c r="BX4" t="n">
-        <v>11.6075423719689</v>
+        <v>11.71807980884902</v>
       </c>
       <c r="BY4" t="n">
-        <v>684.0689655172414</v>
+        <v>736.4</v>
       </c>
       <c r="BZ4" t="n">
-        <v>6672.882355638515</v>
+        <v>9321.650238245873</v>
       </c>
       <c r="CA4" t="n">
-        <v>9.769039220961179</v>
+        <v>12.67248038261635</v>
       </c>
       <c r="CB4" t="n">
-        <v>761.8881165159272</v>
+        <v>1648.730797688594</v>
       </c>
     </row>
     <row r="5">
@@ -1719,16 +1719,16 @@
         <v>9.937931073430505</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>0.6152866084318944</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>0.2453259396371852</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1538773453168611</v>
+        <v>0.1228532897092087</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.4615722599252001</v>
+        <v>0.492813958503918</v>
       </c>
       <c r="BE5" t="n">
         <v>615</v>
@@ -1749,16 +1749,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK5" t="n">
-        <v>119.1060674799744</v>
+        <v>95.09243991771993</v>
       </c>
       <c r="BL5" t="n">
-        <v>357.2719338530931</v>
+        <v>381.4540241500334</v>
       </c>
       <c r="BM5" t="n">
-        <v>406.1516901067126</v>
+        <v>324.265220119425</v>
       </c>
       <c r="BN5" t="n">
-        <v>1218.297294439047</v>
+        <v>1300.758222351614</v>
       </c>
       <c r="BO5" t="n">
         <v>2267.120665634674</v>
@@ -1767,40 +1767,40 @@
         <v>7730.881469814239</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>305.8853258842593</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>121.962031946432</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>1043.068961265324</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>415.8905289373333</v>
       </c>
       <c r="BU5" t="n">
-        <v>7730.881469814239</v>
+        <v>8773.950431079564</v>
       </c>
       <c r="BV5" t="n">
-        <v>8949.178764253285</v>
+        <v>9031.639692165852</v>
       </c>
       <c r="BW5" t="n">
-        <v>10.34923891541397</v>
+        <v>11.74558290639835</v>
       </c>
       <c r="BX5" t="n">
-        <v>11.98015898829088</v>
+        <v>12.09054845002122</v>
       </c>
       <c r="BY5" t="n">
-        <v>684.0689655172414</v>
+        <v>742</v>
       </c>
       <c r="BZ5" t="n">
-        <v>6672.882355638515</v>
+        <v>8956.390387029596</v>
       </c>
       <c r="CA5" t="n">
-        <v>9.769039220961179</v>
+        <v>12.07298787150077</v>
       </c>
       <c r="CB5" t="n">
-        <v>761.8881165159272</v>
+        <v>1256.839743840741</v>
       </c>
     </row>
     <row r="6">
@@ -1963,16 +1963,16 @@
         <v>9.915805264223234</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>0.5679773809129181</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>0.1954913608418671</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1734778032477903</v>
+        <v>0.142453747640138</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.483698069132471</v>
+        <v>0.5149397677111889</v>
       </c>
       <c r="BE6" t="n">
         <v>615</v>
@@ -1993,16 +1993,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK6" t="n">
-        <v>134.2774590851027</v>
+        <v>110.2638315228483</v>
       </c>
       <c r="BL6" t="n">
-        <v>374.3980294395724</v>
+        <v>398.5801197365126</v>
       </c>
       <c r="BM6" t="n">
-        <v>457.8861354802002</v>
+        <v>375.9996654929126</v>
       </c>
       <c r="BN6" t="n">
-        <v>1276.697280388942</v>
+        <v>1359.158208301508</v>
       </c>
       <c r="BO6" t="n">
         <v>2301.575386996905</v>
@@ -2011,40 +2011,40 @@
         <v>7848.372069659446</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>282.3658826221094</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>97.18712840357691</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>962.867659741393</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>331.4081078561973</v>
       </c>
       <c r="BU6" t="n">
-        <v>7848.372069659446</v>
+        <v>8811.239729400839</v>
       </c>
       <c r="BV6" t="n">
-        <v>9125.069350048387</v>
+        <v>9207.530277960954</v>
       </c>
       <c r="BW6" t="n">
-        <v>10.5206059915006</v>
+        <v>11.81131331018879</v>
       </c>
       <c r="BX6" t="n">
-        <v>12.23199644778604</v>
+        <v>12.34253388466616</v>
       </c>
       <c r="BY6" t="n">
-        <v>684.0689655172414</v>
+        <v>745.8</v>
       </c>
       <c r="BZ6" t="n">
-        <v>6672.882355638515</v>
+        <v>8900.124932876817</v>
       </c>
       <c r="CA6" t="n">
-        <v>9.769039220961179</v>
+        <v>11.93385658576281</v>
       </c>
       <c r="CB6" t="n">
-        <v>761.8881165159272</v>
+        <v>1160.235850407774</v>
       </c>
     </row>
     <row r="7">
@@ -2207,16 +2207,16 @@
         <v>9.950528890745767</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>0.4381910233446469</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>0.1716776008627949</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.2447267743144562</v>
+        <v>0.2137027187068039</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.448974442609938</v>
+        <v>0.4802161411886559</v>
       </c>
       <c r="BE7" t="n">
         <v>615</v>
@@ -2237,16 +2237,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK7" t="n">
-        <v>189.4264788337244</v>
+        <v>165.41285127147</v>
       </c>
       <c r="BL7" t="n">
-        <v>347.5208137245112</v>
+        <v>371.7029040214514</v>
       </c>
       <c r="BM7" t="n">
-        <v>645.9442928230004</v>
+        <v>564.0578228357127</v>
       </c>
       <c r="BN7" t="n">
-        <v>1185.045974800583</v>
+        <v>1267.506902713149</v>
       </c>
       <c r="BO7" t="n">
         <v>2335.455863003097</v>
@@ -2255,40 +2255,40 @@
         <v>7963.904492840559</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>217.8435255025882</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>85.34828837048633</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>742.8464219638259</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>291.0376633433584</v>
       </c>
       <c r="BU7" t="n">
-        <v>7963.904492840559</v>
+        <v>8706.750914804385</v>
       </c>
       <c r="BV7" t="n">
-        <v>9148.950467641142</v>
+        <v>9231.411395553709</v>
       </c>
       <c r="BW7" t="n">
-        <v>10.64693114016118</v>
+        <v>11.64004132995239</v>
       </c>
       <c r="BX7" t="n">
-        <v>12.2312172027288</v>
+        <v>12.34145908496485</v>
       </c>
       <c r="BY7" t="n">
-        <v>684.0689655172414</v>
+        <v>746.6</v>
       </c>
       <c r="BZ7" t="n">
-        <v>6672.882355638515</v>
+        <v>8825.669949568684</v>
       </c>
       <c r="CA7" t="n">
-        <v>9.769039220961179</v>
+        <v>11.82126650999386</v>
       </c>
       <c r="CB7" t="n">
-        <v>761.8881165159272</v>
+        <v>1037.60972116311</v>
       </c>
     </row>
     <row r="8">
@@ -2451,16 +2451,16 @@
         <v>9.986655426235904</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.507520248747003</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.1151943030968443</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.08278771565601253</v>
+        <v>0.05176366004836019</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.412847907119801</v>
+        <v>0.4440896056985189</v>
       </c>
       <c r="BE8" t="n">
         <v>615</v>
@@ -2481,16 +2481,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK8" t="n">
-        <v>64.08038315928431</v>
+        <v>40.06675559702988</v>
       </c>
       <c r="BL8" t="n">
-        <v>319.5577008631246</v>
+        <v>343.7397911600648</v>
       </c>
       <c r="BM8" t="n">
-        <v>218.5141065731595</v>
+        <v>136.6276365858719</v>
       </c>
       <c r="BN8" t="n">
-        <v>1089.691759943255</v>
+        <v>1172.152687855821</v>
       </c>
       <c r="BO8" t="n">
         <v>2250.467550309597</v>
@@ -2499,40 +2499,40 @@
         <v>7674.094346555727</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>252.3100528329166</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>57.26802186153648</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>860.3772801602457</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>195.2839545478394</v>
       </c>
       <c r="BU8" t="n">
-        <v>7674.094346555727</v>
+        <v>8534.471626715973</v>
       </c>
       <c r="BV8" t="n">
-        <v>8763.786106498983</v>
+        <v>8846.247034411548</v>
       </c>
       <c r="BW8" t="n">
-        <v>10.52687839033707</v>
+        <v>11.70709413815634</v>
       </c>
       <c r="BX8" t="n">
-        <v>12.02165446707679</v>
+        <v>12.13476959452887</v>
       </c>
       <c r="BY8" t="n">
-        <v>684.0689655172414</v>
+        <v>743.2</v>
       </c>
       <c r="BZ8" t="n">
-        <v>6672.882355638515</v>
+        <v>8753.26885904252</v>
       </c>
       <c r="CA8" t="n">
-        <v>9.769039220961179</v>
+        <v>11.77757083914074</v>
       </c>
       <c r="CB8" t="n">
-        <v>761.8881165159272</v>
+        <v>982.8322206137284</v>
       </c>
     </row>
     <row r="9">
@@ -2695,16 +2695,16 @@
         <v>10.01140214413794</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>0.3123471526722987</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>0.1022652147865895</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.2402850055184215</v>
+        <v>0.2092609499107692</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.3881011892177605</v>
+        <v>0.4193428877964784</v>
       </c>
       <c r="BE9" t="n">
         <v>615</v>
@@ -2725,16 +2725,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK9" t="n">
-        <v>185.9884053937286</v>
+        <v>161.9747778314742</v>
       </c>
       <c r="BL9" t="n">
-        <v>300.4029367470754</v>
+        <v>324.5850270440156</v>
       </c>
       <c r="BM9" t="n">
-        <v>634.2204623926146</v>
+        <v>552.3339924053271</v>
       </c>
       <c r="BN9" t="n">
-        <v>1024.374014307527</v>
+        <v>1106.834942220093</v>
       </c>
       <c r="BO9" t="n">
         <v>2368.187848297214</v>
@@ -2743,40 +2743,40 @@
         <v>8075.520562693499</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>155.2811474764319</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>50.84041830740123</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>529.5087128946328</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>173.3658264282382</v>
       </c>
       <c r="BU9" t="n">
-        <v>8075.520562693499</v>
+        <v>8605.029275588133</v>
       </c>
       <c r="BV9" t="n">
-        <v>9099.894577001027</v>
+        <v>9182.355504913592</v>
       </c>
       <c r="BW9" t="n">
-        <v>11.06235693519657</v>
+        <v>11.7877113364221</v>
       </c>
       <c r="BX9" t="n">
-        <v>12.46560900959045</v>
+        <v>12.57856918481314</v>
       </c>
       <c r="BY9" t="n">
-        <v>684.0689655172414</v>
+        <v>740</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6672.882355638515</v>
+        <v>8686.28839551778</v>
       </c>
       <c r="CA9" t="n">
-        <v>9.769039220961179</v>
+        <v>11.73834860422359</v>
       </c>
       <c r="CB9" t="n">
-        <v>761.8881165159272</v>
+        <v>827.7338072050837</v>
       </c>
     </row>
     <row r="10">
@@ -2939,16 +2939,16 @@
         <v>10.01404004959349</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>0.2273135135737796</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>0.05715575209648449</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.2775712764712923</v>
+        <v>0.2465472208636399</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.3854632837622171</v>
+        <v>0.416704982340935</v>
       </c>
       <c r="BE10" t="n">
         <v>615</v>
@@ -2969,16 +2969,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK10" t="n">
-        <v>214.84919120365</v>
+        <v>190.8355636413955</v>
       </c>
       <c r="BL10" t="n">
-        <v>298.3611121721402</v>
+        <v>322.5432024690805</v>
       </c>
       <c r="BM10" t="n">
-        <v>732.6357420044465</v>
+        <v>650.7492720171588</v>
       </c>
       <c r="BN10" t="n">
-        <v>1017.411392506998</v>
+        <v>1099.872320419564</v>
       </c>
       <c r="BO10" t="n">
         <v>2339.475580495356</v>
@@ -2987,40 +2987,40 @@
         <v>7977.611729489163</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>113.0072834749629</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>28.41457235799451</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>385.3548366496235</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>96.89369174076128</v>
       </c>
       <c r="BU10" t="n">
-        <v>7977.611729489163</v>
+        <v>8362.966566138786</v>
       </c>
       <c r="BV10" t="n">
-        <v>8995.023121996161</v>
+        <v>9077.484049908728</v>
       </c>
       <c r="BW10" t="n">
-        <v>10.89837667963</v>
+        <v>11.42481771330435</v>
       </c>
       <c r="BX10" t="n">
-        <v>12.28828295354667</v>
+        <v>12.40093449441083</v>
       </c>
       <c r="BY10" t="n">
-        <v>684.0689655172414</v>
+        <v>737</v>
       </c>
       <c r="BZ10" t="n">
-        <v>6672.882355638515</v>
+        <v>8604.091622529624</v>
       </c>
       <c r="CA10" t="n">
-        <v>9.769039220961179</v>
+        <v>11.67419556560479</v>
       </c>
       <c r="CB10" t="n">
-        <v>761.8881165159272</v>
+        <v>696.1909822819437</v>
       </c>
     </row>
     <row r="11">
@@ -3183,16 +3183,16 @@
         <v>10.06394777917379</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>0.1233064996576658</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0.02531677041742064</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.2491980382931961</v>
+        <v>0.2181739826855438</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3355555541819124</v>
+        <v>0.3667972527606302</v>
       </c>
       <c r="BE11" t="n">
         <v>615</v>
@@ -3213,16 +3213,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK11" t="n">
-        <v>192.8873825039556</v>
+        <v>168.8737549417013</v>
       </c>
       <c r="BL11" t="n">
-        <v>259.7309070894902</v>
+        <v>283.9129973864305</v>
       </c>
       <c r="BM11" t="n">
-        <v>657.7459743384887</v>
+        <v>575.8595043512013</v>
       </c>
       <c r="BN11" t="n">
-        <v>885.6823931751618</v>
+        <v>968.1433210877281</v>
       </c>
       <c r="BO11" t="n">
         <v>2391.731907894737</v>
@@ -3231,40 +3231,40 @@
         <v>8155.805805921053</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>61.30094221871459</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-12.58605089619283</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>209.0362129658168</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-42.91843355601755</v>
       </c>
       <c r="BU11" t="n">
-        <v>8155.805805921053</v>
+        <v>8364.842018886869</v>
       </c>
       <c r="BV11" t="n">
-        <v>9041.488199096215</v>
+        <v>9123.94912700878</v>
       </c>
       <c r="BW11" t="n">
-        <v>11.02135919719061</v>
+        <v>11.30384056606334</v>
       </c>
       <c r="BX11" t="n">
-        <v>12.21822729607597</v>
+        <v>12.3296609824443</v>
       </c>
       <c r="BY11" t="n">
-        <v>684.0689655172414</v>
+        <v>735.8</v>
       </c>
       <c r="BZ11" t="n">
-        <v>6672.882355638515</v>
+        <v>8514.812080426829</v>
       </c>
       <c r="CA11" t="n">
-        <v>9.769039220961179</v>
+        <v>11.5727010167797</v>
       </c>
       <c r="CB11" t="n">
-        <v>761.8881165159272</v>
+        <v>545.4246929268285</v>
       </c>
     </row>
     <row r="12">
@@ -3427,16 +3427,16 @@
         <v>10.06754640936241</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>0.3222092523885891</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>0.05688187957118451</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.1288953053622618</v>
+        <v>0.09787124975460948</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.3319569239932962</v>
+        <v>0.3631986225720141</v>
       </c>
       <c r="BE12" t="n">
         <v>615</v>
@@ -3457,16 +3457,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK12" t="n">
-        <v>99.76915644545659</v>
+        <v>75.75552888320216</v>
       </c>
       <c r="BL12" t="n">
-        <v>256.945450340167</v>
+        <v>281.1275406371072</v>
       </c>
       <c r="BM12" t="n">
-        <v>340.212823479007</v>
+        <v>258.3263534917194</v>
       </c>
       <c r="BN12" t="n">
-        <v>876.1839856599696</v>
+        <v>958.6449135725358</v>
       </c>
       <c r="BO12" t="n">
         <v>2321.673974458204</v>
@@ -3475,40 +3475,40 @@
         <v>7916.908252902476</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>160.1840196408509</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>28.27841859565986</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>546.2275069753017</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>96.42940741120013</v>
       </c>
       <c r="BU12" t="n">
-        <v>7916.908252902476</v>
+        <v>8463.135759877778</v>
       </c>
       <c r="BV12" t="n">
-        <v>8793.092238562445</v>
+        <v>8875.553166475012</v>
       </c>
       <c r="BW12" t="n">
-        <v>10.47210086362761</v>
+        <v>11.19462402100235</v>
       </c>
       <c r="BX12" t="n">
-        <v>11.63107438963286</v>
+        <v>11.74014969110451</v>
       </c>
       <c r="BY12" t="n">
-        <v>684.0689655172414</v>
+        <v>737.4</v>
       </c>
       <c r="BZ12" t="n">
-        <v>6672.882355638515</v>
+        <v>8466.089049441509</v>
       </c>
       <c r="CA12" t="n">
-        <v>9.769039220961179</v>
+        <v>11.4836175549897</v>
       </c>
       <c r="CB12" t="n">
-        <v>761.8881165159272</v>
+        <v>506.1009099291235</v>
       </c>
     </row>
     <row r="13">
@@ -3671,16 +3671,16 @@
         <v>10.06854747526953</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.1340571280890561</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0.00704061228187669</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.2521238719016169</v>
+        <v>0.2210998162939646</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.3309558580861795</v>
+        <v>0.3621975566648974</v>
       </c>
       <c r="BE13" t="n">
         <v>615</v>
@@ -3701,16 +3701,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK13" t="n">
-        <v>195.1520728291115</v>
+        <v>171.138445266857</v>
       </c>
       <c r="BL13" t="n">
-        <v>256.1705927856685</v>
+        <v>280.3526830826088</v>
       </c>
       <c r="BM13" t="n">
-        <v>665.4685683472701</v>
+        <v>583.5820983599824</v>
       </c>
       <c r="BN13" t="n">
-        <v>873.5417213991298</v>
+        <v>956.002649311696</v>
       </c>
       <c r="BO13" t="n">
         <v>2362.445394736842</v>
@@ -3719,40 +3719,40 @@
         <v>8055.93879605263</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>66.64554006324967</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-3.500189915973042</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>227.2612916156814</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-11.93564761346807</v>
       </c>
       <c r="BU13" t="n">
-        <v>8055.93879605263</v>
+        <v>8283.200087668312</v>
       </c>
       <c r="BV13" t="n">
-        <v>8929.480517451761</v>
+        <v>9011.941445364326</v>
       </c>
       <c r="BW13" t="n">
-        <v>10.62788759373698</v>
+        <v>10.92770460114553</v>
       </c>
       <c r="BX13" t="n">
-        <v>11.78031730534533</v>
+        <v>11.88910480918777</v>
       </c>
       <c r="BY13" t="n">
-        <v>768.1481481481482</v>
+        <v>743.2</v>
       </c>
       <c r="BZ13" t="n">
-        <v>8087.197097616387</v>
+        <v>8415.834741631978</v>
       </c>
       <c r="CA13" t="n">
-        <v>10.52946483971142</v>
+        <v>11.32773964758753</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>379.4777122202107</v>
       </c>
     </row>
     <row r="14">
@@ -3915,16 +3915,16 @@
         <v>10.06689540705689</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>0.2320795269511002</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>0.05979608447051987</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.2225902380046067</v>
+        <v>0.1915661823969543</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.3326079262988168</v>
+        <v>0.3638496248775347</v>
       </c>
       <c r="BE14" t="n">
         <v>615</v>
@@ -3945,16 +3945,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK14" t="n">
-        <v>172.2920801211353</v>
+        <v>148.278452558881</v>
       </c>
       <c r="BL14" t="n">
-        <v>257.4493472872537</v>
+        <v>281.631437584194</v>
       </c>
       <c r="BM14" t="n">
-        <v>587.5159932130715</v>
+        <v>505.6295232257841</v>
       </c>
       <c r="BN14" t="n">
-        <v>877.902274249535</v>
+        <v>960.3632021621015</v>
       </c>
       <c r="BO14" t="n">
         <v>2349.237751547987</v>
@@ -3963,40 +3963,40 @@
         <v>8010.900732778636</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>115.3766728540133</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>29.72719466702364</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>393.4344544321853</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>101.3697338145506</v>
       </c>
       <c r="BU14" t="n">
-        <v>8010.900732778636</v>
+        <v>8404.335187210821</v>
       </c>
       <c r="BV14" t="n">
-        <v>8888.803007028171</v>
+        <v>8971.263934940736</v>
       </c>
       <c r="BW14" t="n">
-        <v>10.54065885891926</v>
+        <v>11.05833577264582</v>
       </c>
       <c r="BX14" t="n">
-        <v>11.69579343030023</v>
+        <v>11.80429465123781</v>
       </c>
       <c r="BY14" t="n">
-        <v>768.1481481481482</v>
+        <v>749.2</v>
       </c>
       <c r="BZ14" t="n">
-        <v>8087.197097616387</v>
+        <v>8375.695923956515</v>
       </c>
       <c r="CA14" t="n">
-        <v>10.52946483971142</v>
+        <v>11.18186453483228</v>
       </c>
       <c r="CB14" t="n">
-        <v>0</v>
+        <v>352.2628605277212</v>
       </c>
     </row>
     <row r="15">
@@ -4159,16 +4159,16 @@
         <v>10.07555366682628</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>0.2287553739169574</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0.02645471656664888</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.1310053302321884</v>
+        <v>0.0999812746245361</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.3239496665294245</v>
+        <v>0.3551913651081424</v>
       </c>
       <c r="BE15" t="n">
         <v>615</v>
@@ -4189,16 +4189,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK15" t="n">
-        <v>101.4023842869195</v>
+        <v>77.38875672466511</v>
       </c>
       <c r="BL15" t="n">
-        <v>250.7475727652871</v>
+        <v>274.9296630622274</v>
       </c>
       <c r="BM15" t="n">
-        <v>345.7821304183956</v>
+        <v>263.8956604311081</v>
       </c>
       <c r="BN15" t="n">
-        <v>855.049223129629</v>
+        <v>937.5101510421955</v>
       </c>
       <c r="BO15" t="n">
         <v>2323.970955882353</v>
@@ -4207,40 +4207,40 @@
         <v>7924.740959558825</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>113.7240940066866</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-13.15177266540625</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>387.7991605628014</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-44.84754478903532</v>
       </c>
       <c r="BU15" t="n">
-        <v>7924.740959558825</v>
+        <v>8312.540120121626</v>
       </c>
       <c r="BV15" t="n">
-        <v>8779.790182688454</v>
+        <v>8862.251110601021</v>
       </c>
       <c r="BW15" t="n">
-        <v>10.42729073626161</v>
+        <v>10.93755278963372</v>
       </c>
       <c r="BX15" t="n">
-        <v>11.55235550353744</v>
+        <v>11.66085672447503</v>
       </c>
       <c r="BY15" t="n">
-        <v>768.1481481481482</v>
+        <v>754.8</v>
       </c>
       <c r="BZ15" t="n">
-        <v>8087.197097616387</v>
+        <v>8365.610634753084</v>
       </c>
       <c r="CA15" t="n">
-        <v>10.52946483971142</v>
+        <v>11.08441155009815</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>352.7517253103568</v>
       </c>
     </row>
     <row r="16">
@@ -4403,16 +4403,16 @@
         <v>10.09347125623127</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>0.2058565605363221</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>0.006409694929393694</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.1688509657038734</v>
+        <v>0.1378269100962211</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.3060320771244315</v>
+        <v>0.3372737757031494</v>
       </c>
       <c r="BE16" t="n">
         <v>615</v>
@@ -4433,16 +4433,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK16" t="n">
-        <v>130.6961364180794</v>
+        <v>106.682508855825</v>
       </c>
       <c r="BL16" t="n">
-        <v>236.8787761054859</v>
+        <v>261.0608664024261</v>
       </c>
       <c r="BM16" t="n">
-        <v>445.6738251856507</v>
+        <v>363.7873551983631</v>
       </c>
       <c r="BN16" t="n">
-        <v>807.7566265197067</v>
+        <v>890.217554432273</v>
       </c>
       <c r="BO16" t="n">
         <v>2349.237751547988</v>
@@ -4451,40 +4451,40 @@
         <v>8010.900732778639</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>102.3401131150014</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>3.186533877753486</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>348.9797857221548</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>10.86608052313939</v>
       </c>
       <c r="BU16" t="n">
-        <v>8010.900732778639</v>
+        <v>8359.880518500795</v>
       </c>
       <c r="BV16" t="n">
-        <v>8818.657359298346</v>
+        <v>8901.118287210913</v>
       </c>
       <c r="BW16" t="n">
-        <v>10.81093216299412</v>
+        <v>11.28189003846261</v>
       </c>
       <c r="BX16" t="n">
-        <v>11.9010220773257</v>
+        <v>12.01230538085144</v>
       </c>
       <c r="BY16" t="n">
-        <v>768.1481481481482</v>
+        <v>755</v>
       </c>
       <c r="BZ16" t="n">
-        <v>8087.197097616387</v>
+        <v>8364.618334675868</v>
       </c>
       <c r="CA16" t="n">
-        <v>10.52946483971142</v>
+        <v>11.080021444578</v>
       </c>
       <c r="CB16" t="n">
-        <v>0</v>
+        <v>380.7404398616244</v>
       </c>
     </row>
     <row r="17">
@@ -4647,16 +4647,16 @@
         <v>10.10315933995675</v>
       </c>
       <c r="BA17" t="n">
-        <v>0</v>
+        <v>0.1165204367895374</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0.1201320659510632</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.1219572448447225</v>
+        <v>0.09093318923707017</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.2963439933989528</v>
+        <v>0.3275856919776707</v>
       </c>
       <c r="BE17" t="n">
         <v>615</v>
@@ -4677,16 +4677,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK17" t="n">
-        <v>94.3988720642142</v>
+        <v>70.38524450195976</v>
       </c>
       <c r="BL17" t="n">
-        <v>229.3798843642591</v>
+        <v>253.5619746611993</v>
       </c>
       <c r="BM17" t="n">
-        <v>321.9001537389705</v>
+        <v>240.0136837516828</v>
       </c>
       <c r="BN17" t="n">
-        <v>782.1854056821236</v>
+        <v>864.6463335946898</v>
       </c>
       <c r="BO17" t="n">
         <v>2323.396710526315</v>
@@ -4695,40 +4695,40 @@
         <v>7922.782782894736</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>57.92729971871159</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>-59.72279526161304</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>197.5320920408066</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-203.6547318421005</v>
       </c>
       <c r="BU17" t="n">
-        <v>7922.782782894736</v>
+        <v>8120.314874935542</v>
       </c>
       <c r="BV17" t="n">
-        <v>8704.968188576859</v>
+        <v>8787.429116489426</v>
       </c>
       <c r="BW17" t="n">
-        <v>10.6776048286991</v>
+        <v>10.9438205861665</v>
       </c>
       <c r="BX17" t="n">
-        <v>11.73176305738121</v>
+        <v>11.84289638340893</v>
       </c>
       <c r="BY17" t="n">
-        <v>768.1481481481482</v>
+        <v>752.2</v>
       </c>
       <c r="BZ17" t="n">
-        <v>8087.197097616387</v>
+        <v>8296.05415768742</v>
       </c>
       <c r="CA17" t="n">
-        <v>10.52946483971142</v>
+        <v>11.02986075761084</v>
       </c>
       <c r="CB17" t="n">
-        <v>0</v>
+        <v>311.0013568747253</v>
       </c>
     </row>
     <row r="18">
@@ -4891,16 +4891,16 @@
         <v>10.09454729948271</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>0.02047218802606743</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>-0.08543086001895261</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.2613187400143497</v>
+        <v>0.2302946844066973</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.3049560338729995</v>
+        <v>0.3361977324517174</v>
       </c>
       <c r="BE18" t="n">
         <v>615</v>
@@ -4921,16 +4921,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK18" t="n">
-        <v>202.2691996527479</v>
+        <v>178.2555720904935</v>
       </c>
       <c r="BL18" t="n">
-        <v>236.0458836491433</v>
+        <v>260.2279739460835</v>
       </c>
       <c r="BM18" t="n">
-        <v>689.7379708158705</v>
+        <v>607.8515008285829</v>
       </c>
       <c r="BN18" t="n">
-        <v>804.9164632435786</v>
+        <v>887.3773911561449</v>
       </c>
       <c r="BO18" t="n">
         <v>2400.345588235293</v>
@@ -4939,40 +4939,40 @@
         <v>8185.17845588235</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0</v>
+        <v>10.17760149514227</v>
       </c>
       <c r="BR18" t="n">
-        <v>0</v>
+        <v>-42.47133953405781</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>34.70562109843516</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>-144.8272678111371</v>
       </c>
       <c r="BU18" t="n">
-        <v>8185.17845588235</v>
+        <v>8219.884076980785</v>
       </c>
       <c r="BV18" t="n">
-        <v>8990.094919125928</v>
+        <v>9072.555847038495</v>
       </c>
       <c r="BW18" t="n">
-        <v>10.71358436633816</v>
+        <v>10.75901057196438</v>
       </c>
       <c r="BX18" t="n">
-        <v>11.76713994649991</v>
+        <v>11.87507309821792</v>
       </c>
       <c r="BY18" t="n">
-        <v>768.1481481481482</v>
+        <v>753.4</v>
       </c>
       <c r="BZ18" t="n">
-        <v>8087.197097616387</v>
+        <v>8283.390955549916</v>
       </c>
       <c r="CA18" t="n">
-        <v>10.52946483971142</v>
+        <v>10.9961219517746</v>
       </c>
       <c r="CB18" t="n">
-        <v>0</v>
+        <v>272.4902227712761</v>
       </c>
     </row>
     <row r="19">
@@ -5135,16 +5135,16 @@
         <v>10.15006630500173</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>0.03039280685293733</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>-0.05863712068311955</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.222672855004289</v>
+        <v>0.1916487993966367</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.2494370283539757</v>
+        <v>0.2806787269326936</v>
       </c>
       <c r="BE19" t="n">
         <v>615</v>
@@ -5165,16 +5165,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK19" t="n">
-        <v>172.3560283645814</v>
+        <v>148.342400802327</v>
       </c>
       <c r="BL19" t="n">
-        <v>193.0723685800258</v>
+        <v>217.2544588769661</v>
       </c>
       <c r="BM19" t="n">
-        <v>587.7340567232228</v>
+        <v>505.8475867359352</v>
       </c>
       <c r="BN19" t="n">
-        <v>658.376776857888</v>
+        <v>740.8377047704544</v>
       </c>
       <c r="BO19" t="n">
         <v>2375.07879256966</v>
@@ -5183,40 +5183,40 @@
         <v>8099.01868266254</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0</v>
+        <v>15.10956601581413</v>
       </c>
       <c r="BR19" t="n">
-        <v>0</v>
+        <v>-29.15102412968576</v>
       </c>
       <c r="BS19" t="n">
-        <v>0</v>
+        <v>51.52362011392617</v>
       </c>
       <c r="BT19" t="n">
-        <v>0</v>
+        <v>-99.40499228222843</v>
       </c>
       <c r="BU19" t="n">
-        <v>8099.01868266254</v>
+        <v>8150.542302776465</v>
       </c>
       <c r="BV19" t="n">
-        <v>8757.395459520427</v>
+        <v>8839.856387432994</v>
       </c>
       <c r="BW19" t="n">
-        <v>10.60080979406091</v>
+        <v>10.66824908740375</v>
       </c>
       <c r="BX19" t="n">
-        <v>11.46255950199009</v>
+        <v>11.57049265370811</v>
       </c>
       <c r="BY19" t="n">
-        <v>768.1481481481482</v>
+        <v>754.2</v>
       </c>
       <c r="BZ19" t="n">
-        <v>8087.197097616387</v>
+        <v>8232.632378663044</v>
       </c>
       <c r="CA19" t="n">
-        <v>10.52946483971142</v>
+        <v>10.91810461472619</v>
       </c>
       <c r="CB19" t="n">
-        <v>0</v>
+        <v>204.1080559076242</v>
       </c>
     </row>
     <row r="20">
@@ -5379,16 +5379,16 @@
         <v>10.16127138437653</v>
       </c>
       <c r="BA20" t="n">
-        <v>0</v>
+        <v>0.09455255643929128</v>
       </c>
       <c r="BB20" t="n">
-        <v>0</v>
+        <v>-0.05310759657655062</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.1528375501497</v>
+        <v>0.1218134945420477</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.2382319489791717</v>
+        <v>0.2694736475578896</v>
       </c>
       <c r="BE20" t="n">
         <v>615</v>
@@ -5409,16 +5409,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK20" t="n">
-        <v>118.3012322192008</v>
+        <v>94.28760465694643</v>
       </c>
       <c r="BL20" t="n">
-        <v>184.3992728921212</v>
+        <v>208.5813631890615</v>
       </c>
       <c r="BM20" t="n">
-        <v>403.4072018674749</v>
+        <v>321.5207318801873</v>
       </c>
       <c r="BN20" t="n">
-        <v>628.8015205621334</v>
+        <v>711.2624484746997</v>
       </c>
       <c r="BO20" t="n">
         <v>2354.980205108359</v>
@@ -5427,40 +5427,40 @@
         <v>8030.482499419506</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0</v>
+        <v>47.00612550845696</v>
       </c>
       <c r="BR20" t="n">
-        <v>0</v>
+        <v>-26.40206086582834</v>
       </c>
       <c r="BS20" t="n">
-        <v>0</v>
+        <v>160.2908879838382</v>
       </c>
       <c r="BT20" t="n">
-        <v>0</v>
+        <v>-90.03102755247464</v>
       </c>
       <c r="BU20" t="n">
-        <v>8030.482499419506</v>
+        <v>8190.773387403344</v>
       </c>
       <c r="BV20" t="n">
-        <v>8659.28401998164</v>
+        <v>8741.744947894205</v>
       </c>
       <c r="BW20" t="n">
-        <v>10.75031124420282</v>
+        <v>10.96489074618922</v>
       </c>
       <c r="BX20" t="n">
-        <v>11.59208034803432</v>
+        <v>11.70246980976466</v>
       </c>
       <c r="BY20" t="n">
-        <v>768.1481481481482</v>
+        <v>751.6</v>
       </c>
       <c r="BZ20" t="n">
-        <v>8087.197097616387</v>
+        <v>8208.279032119386</v>
       </c>
       <c r="CA20" t="n">
-        <v>10.52946483971142</v>
+        <v>10.92357220603729</v>
       </c>
       <c r="CB20" t="n">
-        <v>0</v>
+        <v>158.6064013918316</v>
       </c>
     </row>
     <row r="21">
@@ -5623,16 +5623,16 @@
         <v>10.14569450946426</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>0.1439514856815656</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>-0.103282669407049</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.0688404229892027</v>
+        <v>0.03781636738155036</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.253808823891447</v>
+        <v>0.2850505224701649</v>
       </c>
       <c r="BE21" t="n">
         <v>615</v>
@@ -5653,16 +5653,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK21" t="n">
-        <v>53.28472524021064</v>
+        <v>29.27109767795622</v>
       </c>
       <c r="BL21" t="n">
-        <v>196.456280443221</v>
+        <v>220.6383707401613</v>
       </c>
       <c r="BM21" t="n">
-        <v>181.7009130691183</v>
+        <v>99.81444308183072</v>
       </c>
       <c r="BN21" t="n">
-        <v>669.9159163113837</v>
+        <v>752.37684422395</v>
       </c>
       <c r="BO21" t="n">
         <v>2332.58463622291</v>
@@ -5671,40 +5671,40 @@
         <v>7954.113609520123</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0</v>
+        <v>71.56444899954769</v>
       </c>
       <c r="BR21" t="n">
-        <v>0</v>
+        <v>-51.34623857699054</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
+        <v>244.0347710884576</v>
       </c>
       <c r="BT21" t="n">
-        <v>0</v>
+        <v>-175.0906735475377</v>
       </c>
       <c r="BU21" t="n">
-        <v>7954.113609520123</v>
+        <v>8198.14838060858</v>
       </c>
       <c r="BV21" t="n">
-        <v>8624.029525831507</v>
+        <v>8706.490453744073</v>
       </c>
       <c r="BW21" t="n">
-        <v>10.64807712117821</v>
+        <v>10.97476356172501</v>
       </c>
       <c r="BX21" t="n">
-        <v>11.544885576749</v>
+        <v>11.65527503847935</v>
       </c>
       <c r="BY21" t="n">
-        <v>768.1481481481482</v>
+        <v>752.8</v>
       </c>
       <c r="BZ21" t="n">
-        <v>8087.197097616387</v>
+        <v>8175.932604540944</v>
       </c>
       <c r="CA21" t="n">
-        <v>10.52946483971142</v>
+        <v>10.86214691068977</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>137.6173984650922</v>
       </c>
     </row>
     <row r="22">
@@ -5867,16 +5867,16 @@
         <v>10.1359667476445</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>0.002329737657758457</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>-0.1367828223772172</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.1866897798625972</v>
+        <v>0.1556657242549448</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.2635365857112026</v>
+        <v>0.2947782842899205</v>
       </c>
       <c r="BE22" t="n">
         <v>615</v>
@@ -5897,16 +5897,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK22" t="n">
-        <v>144.5039584764631</v>
+        <v>120.4903309142086</v>
       </c>
       <c r="BL22" t="n">
-        <v>203.9858843192632</v>
+        <v>228.1679746162035</v>
       </c>
       <c r="BM22" t="n">
-        <v>492.7584984047392</v>
+        <v>410.8720284174515</v>
       </c>
       <c r="BN22" t="n">
-        <v>695.5918655286877</v>
+        <v>778.052793441254</v>
       </c>
       <c r="BO22" t="n">
         <v>2351.534732972136</v>
@@ -5915,40 +5915,40 @@
         <v>8018.733439434984</v>
       </c>
       <c r="BQ22" t="n">
-        <v>0</v>
+        <v>1.158212372741991</v>
       </c>
       <c r="BR22" t="n">
-        <v>0</v>
+        <v>-68.00059943585633</v>
       </c>
       <c r="BS22" t="n">
-        <v>0</v>
+        <v>3.94950419105019</v>
       </c>
       <c r="BT22" t="n">
-        <v>0</v>
+        <v>-231.8820440762701</v>
       </c>
       <c r="BU22" t="n">
-        <v>8018.733439434984</v>
+        <v>8022.682943626034</v>
       </c>
       <c r="BV22" t="n">
-        <v>8714.325304963671</v>
+        <v>8796.786232876239</v>
       </c>
       <c r="BW22" t="n">
-        <v>10.44105916593097</v>
+        <v>10.44620174951307</v>
       </c>
       <c r="BX22" t="n">
-        <v>11.34677774083811</v>
+        <v>11.45414874072427</v>
       </c>
       <c r="BY22" t="n">
-        <v>768.1481481481482</v>
+        <v>758</v>
       </c>
       <c r="BZ22" t="n">
-        <v>8087.197097616387</v>
+        <v>8156.406218279042</v>
       </c>
       <c r="CA22" t="n">
-        <v>10.52946483971142</v>
+        <v>10.76262314335908</v>
       </c>
       <c r="CB22" t="n">
-        <v>0</v>
+        <v>98.90088089514094</v>
       </c>
     </row>
     <row r="23">
@@ -6111,16 +6111,16 @@
         <v>10.1124310299606</v>
       </c>
       <c r="BA23" t="n">
-        <v>0</v>
+        <v>-0.05041235870142557</v>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>-0.1908002278680492</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.2089501884148498</v>
+        <v>0.1779261328071975</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.2870723033951032</v>
+        <v>0.3183140019738211</v>
       </c>
       <c r="BE23" t="n">
         <v>615</v>
@@ -6141,16 +6141,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK23" t="n">
-        <v>161.7342383314788</v>
+        <v>137.7206107692243</v>
       </c>
       <c r="BL23" t="n">
-        <v>222.203294899592</v>
+        <v>246.3853851965323</v>
       </c>
       <c r="BM23" t="n">
-        <v>551.5137527103426</v>
+        <v>469.627282723055</v>
       </c>
       <c r="BN23" t="n">
-        <v>757.7132356076089</v>
+        <v>840.1741635201752</v>
       </c>
       <c r="BO23" t="n">
         <v>2384.266718266254</v>
@@ -6159,40 +6159,40 @@
         <v>8130.349509287928</v>
       </c>
       <c r="BQ23" t="n">
-        <v>0</v>
+        <v>-25.06214268059535</v>
       </c>
       <c r="BR23" t="n">
-        <v>0</v>
+        <v>-94.85496528024845</v>
       </c>
       <c r="BS23" t="n">
-        <v>0</v>
+        <v>-85.46190654083014</v>
       </c>
       <c r="BT23" t="n">
-        <v>0</v>
+        <v>-323.4554316056472</v>
       </c>
       <c r="BU23" t="n">
-        <v>8130.349509287928</v>
+        <v>8044.887602747097</v>
       </c>
       <c r="BV23" t="n">
-        <v>8888.062744895537</v>
+        <v>8970.523672808104</v>
       </c>
       <c r="BW23" t="n">
-        <v>10.57262614991928</v>
+        <v>10.46149233127061</v>
       </c>
       <c r="BX23" t="n">
-        <v>11.55794895305011</v>
+        <v>11.66518032874916</v>
       </c>
       <c r="BY23" t="n">
-        <v>768.1481481481482</v>
+        <v>759</v>
       </c>
       <c r="BZ23" t="n">
-        <v>8087.197097616387</v>
+        <v>8121.406923432305</v>
       </c>
       <c r="CA23" t="n">
-        <v>10.52946483971142</v>
+        <v>10.70311949522033</v>
       </c>
       <c r="CB23" t="n">
-        <v>0</v>
+        <v>74.86737536728786</v>
       </c>
     </row>
     <row r="24">
@@ -6355,16 +6355,16 @@
         <v>10.14245099470367</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>0.04819516446779026</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>-0.169869611131185</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.1012533172394258</v>
+        <v>0.07022926163177345</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.2570523386520309</v>
+        <v>0.2882940372307488</v>
       </c>
       <c r="BE24" t="n">
         <v>615</v>
@@ -6385,16 +6385,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK24" t="n">
-        <v>78.37335905982025</v>
+        <v>54.35973149756582</v>
       </c>
       <c r="BL24" t="n">
-        <v>198.9668663072472</v>
+        <v>223.1489566041875</v>
       </c>
       <c r="BM24" t="n">
-        <v>267.2531543939871</v>
+        <v>185.3666844066994</v>
       </c>
       <c r="BN24" t="n">
-        <v>678.4770141077131</v>
+        <v>760.9379420202794</v>
       </c>
       <c r="BO24" t="n">
         <v>2327.416428018576</v>
@@ -6403,40 +6403,40 @@
         <v>7936.490019543346</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0</v>
+        <v>23.95988046423946</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>-84.44945923838748</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
+        <v>81.70319238305657</v>
       </c>
       <c r="BT24" t="n">
-        <v>0</v>
+        <v>-287.9726560029013</v>
       </c>
       <c r="BU24" t="n">
-        <v>7936.490019543346</v>
+        <v>8018.193211926402</v>
       </c>
       <c r="BV24" t="n">
-        <v>8614.967033651059</v>
+        <v>8697.427961563624</v>
       </c>
       <c r="BW24" t="n">
-        <v>10.30712989551084</v>
+        <v>10.41323793756676</v>
       </c>
       <c r="BX24" t="n">
-        <v>11.18826887487151</v>
+        <v>11.29536098904367</v>
       </c>
       <c r="BY24" t="n">
-        <v>768.1481481481482</v>
+        <v>760.2</v>
       </c>
       <c r="BZ24" t="n">
-        <v>8087.197097616387</v>
+        <v>8094.937105262293</v>
       </c>
       <c r="CA24" t="n">
-        <v>10.52946483971142</v>
+        <v>10.65211726525293</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>80.90328982111396</v>
       </c>
     </row>
     <row r="25">
@@ -6599,16 +6599,16 @@
         <v>10.16544748890869</v>
       </c>
       <c r="BA25" t="n">
-        <v>0</v>
+        <v>-0.007709285515467457</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>-0.1354581393489767</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.1685727447998727</v>
+        <v>0.1375486891922204</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.2340558444470117</v>
+        <v>0.2652975430257296</v>
       </c>
       <c r="BE25" t="n">
         <v>615</v>
@@ -6629,16 +6629,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK25" t="n">
-        <v>130.4807843940501</v>
+        <v>106.4671568317957</v>
       </c>
       <c r="BL25" t="n">
-        <v>181.1668322285093</v>
+        <v>205.3489225254496</v>
       </c>
       <c r="BM25" t="n">
-        <v>444.9394747837108</v>
+        <v>363.0530047964232</v>
       </c>
       <c r="BN25" t="n">
-        <v>617.7788978992166</v>
+        <v>700.239825811783</v>
       </c>
       <c r="BO25" t="n">
         <v>2357.277186532508</v>
@@ -6647,40 +6647,40 @@
         <v>8038.315206075853</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0</v>
+        <v>-3.832616019782244</v>
       </c>
       <c r="BR25" t="n">
-        <v>0</v>
+        <v>-67.34204276611281</v>
       </c>
       <c r="BS25" t="n">
-        <v>0</v>
+        <v>-13.06922062745745</v>
       </c>
       <c r="BT25" t="n">
-        <v>0</v>
+        <v>-229.6363658324447</v>
       </c>
       <c r="BU25" t="n">
-        <v>8038.315206075853</v>
+        <v>8025.245985448396</v>
       </c>
       <c r="BV25" t="n">
-        <v>8656.094103975069</v>
+        <v>8738.555031887636</v>
       </c>
       <c r="BW25" t="n">
-        <v>10.41232539647131</v>
+        <v>10.39539635420777</v>
       </c>
       <c r="BX25" t="n">
-        <v>11.21255712950138</v>
+        <v>11.31937180296326</v>
       </c>
       <c r="BY25" t="n">
-        <v>768.1481481481482</v>
+        <v>765.2</v>
       </c>
       <c r="BZ25" t="n">
-        <v>8087.197097616387</v>
+        <v>8061.831624871304</v>
       </c>
       <c r="CA25" t="n">
-        <v>10.52946483971142</v>
+        <v>10.53821838685664</v>
       </c>
       <c r="CB25" t="n">
-        <v>0</v>
+        <v>46.23126809885481</v>
       </c>
     </row>
     <row r="26">
@@ -6843,16 +6843,16 @@
         <v>10.14413611488401</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>-0.1094950118384652</v>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>-0.2622225727458591</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.1649054117506756</v>
+        <v>0.1338813561430232</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.2553672184716992</v>
+        <v>0.2866089170504171</v>
       </c>
       <c r="BE26" t="n">
         <v>615</v>
@@ -6873,16 +6873,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK26" t="n">
-        <v>127.6421493972624</v>
+        <v>103.628521835008</v>
       </c>
       <c r="BL26" t="n">
-        <v>197.662528508222</v>
+        <v>221.8446188051623</v>
       </c>
       <c r="BM26" t="n">
-        <v>435.2597294446649</v>
+        <v>353.3732594573773</v>
       </c>
       <c r="BN26" t="n">
-        <v>674.0292222130369</v>
+        <v>756.4901501256033</v>
       </c>
       <c r="BO26" t="n">
         <v>2347.515015479877</v>
@@ -6891,40 +6891,40 @@
         <v>8005.026202786381</v>
       </c>
       <c r="BQ26" t="n">
-        <v>0</v>
+        <v>-54.43466007535751</v>
       </c>
       <c r="BR26" t="n">
-        <v>0</v>
+        <v>-130.3620719504972</v>
       </c>
       <c r="BS26" t="n">
-        <v>0</v>
+        <v>-185.6221908569691</v>
       </c>
       <c r="BT26" t="n">
-        <v>0</v>
+        <v>-444.5346653511956</v>
       </c>
       <c r="BU26" t="n">
-        <v>8005.026202786381</v>
+        <v>7819.404011929412</v>
       </c>
       <c r="BV26" t="n">
-        <v>8679.055424999418</v>
+        <v>8761.516352911984</v>
       </c>
       <c r="BW26" t="n">
-        <v>10.3692049258891</v>
+        <v>10.12876167348369</v>
       </c>
       <c r="BX26" t="n">
-        <v>11.24229977331531</v>
+        <v>11.34911444677718</v>
       </c>
       <c r="BY26" t="n">
-        <v>768.1481481481482</v>
+        <v>770.2</v>
       </c>
       <c r="BZ26" t="n">
-        <v>8087.197097616387</v>
+        <v>7986.08275113547</v>
       </c>
       <c r="CA26" t="n">
-        <v>10.52946483971142</v>
+        <v>10.36901800920838</v>
       </c>
       <c r="CB26" t="n">
-        <v>0</v>
+        <v>-39.70012429023053</v>
       </c>
     </row>
     <row r="27">
@@ -7087,16 +7087,16 @@
         <v>10.16648476096049</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>-0.1114488722166751</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>-0.2110886642421814</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.1956445345560792</v>
+        <v>0.1646204789484269</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.2330185723952153</v>
+        <v>0.2642602709739332</v>
       </c>
       <c r="BE27" t="n">
         <v>615</v>
@@ -7117,16 +7117,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK27" t="n">
-        <v>151.435229708055</v>
+        <v>127.4216021458005</v>
       </c>
       <c r="BL27" t="n">
-        <v>180.3639499410488</v>
+        <v>204.5460402379891</v>
       </c>
       <c r="BM27" t="n">
-        <v>516.3941333044675</v>
+        <v>434.5076633171798</v>
       </c>
       <c r="BN27" t="n">
-        <v>615.0410692989764</v>
+        <v>697.5019972115427</v>
       </c>
       <c r="BO27" t="n">
         <v>2380.821246130031</v>
@@ -7135,40 +7135,40 @@
         <v>8118.600449303406</v>
       </c>
       <c r="BQ27" t="n">
-        <v>0</v>
+        <v>-55.40600775354645</v>
       </c>
       <c r="BR27" t="n">
-        <v>0</v>
+        <v>-104.9412159590984</v>
       </c>
       <c r="BS27" t="n">
-        <v>0</v>
+        <v>-188.9344864395934</v>
       </c>
       <c r="BT27" t="n">
-        <v>0</v>
+        <v>-357.8495464205257</v>
       </c>
       <c r="BU27" t="n">
-        <v>8118.600449303406</v>
+        <v>7929.665962863813</v>
       </c>
       <c r="BV27" t="n">
-        <v>8733.641518602382</v>
+        <v>8816.102446514949</v>
       </c>
       <c r="BW27" t="n">
-        <v>10.48914786731706</v>
+        <v>10.24504646364834</v>
       </c>
       <c r="BX27" t="n">
-        <v>11.2837745718377</v>
+        <v>11.39031323839141</v>
       </c>
       <c r="BY27" t="n">
-        <v>768.1481481481482</v>
+        <v>771.4</v>
       </c>
       <c r="BZ27" t="n">
-        <v>8087.197097616387</v>
+        <v>7967.479354983026</v>
       </c>
       <c r="CA27" t="n">
-        <v>10.52946483971142</v>
+        <v>10.32878695203543</v>
       </c>
       <c r="CB27" t="n">
-        <v>0</v>
+        <v>-78.27692241635926</v>
       </c>
     </row>
     <row r="28">
@@ -7331,16 +7331,16 @@
         <v>10.22212545928395</v>
       </c>
       <c r="BA28" t="n">
-        <v>0</v>
+        <v>-0.2531407198788251</v>
       </c>
       <c r="BB28" t="n">
-        <v>0</v>
+        <v>-0.2053931110921585</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.2873912370447906</v>
+        <v>0.2563671814371382</v>
       </c>
       <c r="BD28" t="n">
-        <v>0.1773778740717537</v>
+        <v>0.2086195726504716</v>
       </c>
       <c r="BE28" t="n">
         <v>615</v>
@@ -7361,16 +7361,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK28" t="n">
-        <v>222.4501599122623</v>
+        <v>198.4365323500078</v>
       </c>
       <c r="BL28" t="n">
-        <v>137.2962406853384</v>
+        <v>161.4783309822787</v>
       </c>
       <c r="BM28" t="n">
-        <v>758.5550453008143</v>
+        <v>676.6685753135266</v>
       </c>
       <c r="BN28" t="n">
-        <v>468.1801807370041</v>
+        <v>550.6411086495704</v>
       </c>
       <c r="BO28" t="n">
         <v>2410.107759287926</v>
@@ -7379,40 +7379,40 @@
         <v>8218.467459171829</v>
       </c>
       <c r="BQ28" t="n">
-        <v>0</v>
+        <v>-125.8470939129521</v>
       </c>
       <c r="BR28" t="n">
-        <v>0</v>
+        <v>-102.1097125466872</v>
       </c>
       <c r="BS28" t="n">
-        <v>0</v>
+        <v>-429.1385902431668</v>
       </c>
       <c r="BT28" t="n">
-        <v>0</v>
+        <v>-348.1941197842033</v>
       </c>
       <c r="BU28" t="n">
-        <v>8218.467459171829</v>
+        <v>7789.328868928662</v>
       </c>
       <c r="BV28" t="n">
-        <v>8686.647639908833</v>
+        <v>8769.108567821399</v>
       </c>
       <c r="BW28" t="n">
-        <v>10.63191133139952</v>
+        <v>10.07675144751444</v>
       </c>
       <c r="BX28" t="n">
-        <v>11.23757780065826</v>
+        <v>11.34425429213635</v>
       </c>
       <c r="BY28" t="n">
-        <v>768.1481481481482</v>
+        <v>772.2</v>
       </c>
       <c r="BZ28" t="n">
-        <v>8087.197097616387</v>
+        <v>7916.367608219339</v>
       </c>
       <c r="CA28" t="n">
-        <v>10.52946483971142</v>
+        <v>10.2518387752842</v>
       </c>
       <c r="CB28" t="n">
-        <v>0</v>
+        <v>-147.0122591568266</v>
       </c>
     </row>
     <row r="29">
@@ -7575,16 +7575,16 @@
         <v>10.20498883464105</v>
       </c>
       <c r="BA29" t="n">
-        <v>0</v>
+        <v>-0.2449225969863704</v>
       </c>
       <c r="BB29" t="n">
-        <v>0</v>
+        <v>-0.1844661823934537</v>
       </c>
       <c r="BC29" t="n">
-        <v>0.3172366674939441</v>
+        <v>0.2862126118862918</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.1945144987146571</v>
+        <v>0.225756197293375</v>
       </c>
       <c r="BE29" t="n">
         <v>615</v>
@@ -7605,16 +7605,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK29" t="n">
-        <v>245.5514932873985</v>
+        <v>221.537865725144</v>
       </c>
       <c r="BL29" t="n">
-        <v>150.560545231883</v>
+        <v>174.7426355288233</v>
       </c>
       <c r="BM29" t="n">
-        <v>837.3305921100289</v>
+        <v>755.4441221227412</v>
       </c>
       <c r="BN29" t="n">
-        <v>513.411459240721</v>
+        <v>595.8723871532874</v>
       </c>
       <c r="BO29" t="n">
         <v>2408.385023219813</v>
@@ -7623,40 +7623,40 @@
         <v>8212.592929179564</v>
       </c>
       <c r="BQ29" t="n">
-        <v>0</v>
+        <v>-121.7615130394759</v>
       </c>
       <c r="BR29" t="n">
-        <v>0</v>
+        <v>-91.7060399865545</v>
       </c>
       <c r="BS29" t="n">
-        <v>0</v>
+        <v>-415.206759464613</v>
       </c>
       <c r="BT29" t="n">
-        <v>0</v>
+        <v>-312.7175963541509</v>
       </c>
       <c r="BU29" t="n">
-        <v>8212.592929179564</v>
+        <v>7797.38616971495</v>
       </c>
       <c r="BV29" t="n">
-        <v>8726.004388420284</v>
+        <v>8808.465316332851</v>
       </c>
       <c r="BW29" t="n">
-        <v>10.59689410216718</v>
+        <v>10.06114344479349</v>
       </c>
       <c r="BX29" t="n">
-        <v>11.25936050118746</v>
+        <v>11.365761698494</v>
       </c>
       <c r="BY29" t="n">
-        <v>768.1481481481482</v>
+        <v>773.2</v>
       </c>
       <c r="BZ29" t="n">
-        <v>8087.197097616387</v>
+        <v>7872.206199777048</v>
       </c>
       <c r="CA29" t="n">
-        <v>10.52946483971142</v>
+        <v>10.18141987672955</v>
       </c>
       <c r="CB29" t="n">
-        <v>0</v>
+        <v>-246.3942495263605</v>
       </c>
     </row>
     <row r="30">
@@ -7819,16 +7819,16 @@
         <v>10.2499922728115</v>
       </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>-0.2646748086228943</v>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>-0.2572454681168175</v>
       </c>
       <c r="BC30" t="n">
-        <v>0.2192061552366555</v>
+        <v>0.1881820996290031</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.1495110605442084</v>
+        <v>0.1807527591229263</v>
       </c>
       <c r="BE30" t="n">
         <v>615</v>
@@ -7849,16 +7849,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK30" t="n">
-        <v>169.6726900498586</v>
+        <v>145.6590624876042</v>
       </c>
       <c r="BL30" t="n">
-        <v>115.7264211278913</v>
+        <v>139.9085114248316</v>
       </c>
       <c r="BM30" t="n">
-        <v>578.5838730700177</v>
+        <v>496.6974030827302</v>
       </c>
       <c r="BN30" t="n">
-        <v>394.6270960461095</v>
+        <v>477.0880239586759</v>
       </c>
       <c r="BO30" t="n">
         <v>2344.069543343655</v>
@@ -7867,40 +7867,40 @@
         <v>7993.277142801863</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0</v>
+        <v>-131.5811834346618</v>
       </c>
       <c r="BR30" t="n">
-        <v>0</v>
+        <v>-127.8877400691412</v>
       </c>
       <c r="BS30" t="n">
-        <v>0</v>
+        <v>-448.6918355121966</v>
       </c>
       <c r="BT30" t="n">
-        <v>0</v>
+        <v>-436.0971936357714</v>
       </c>
       <c r="BU30" t="n">
-        <v>7993.277142801863</v>
+        <v>7544.585307289666</v>
       </c>
       <c r="BV30" t="n">
-        <v>8387.904238847972</v>
+        <v>8470.365166760539</v>
       </c>
       <c r="BW30" t="n">
-        <v>10.31390599071208</v>
+        <v>9.734948783599569</v>
       </c>
       <c r="BX30" t="n">
-        <v>10.8231022436748</v>
+        <v>10.92950344098134</v>
       </c>
       <c r="BY30" t="n">
-        <v>768.1481481481482</v>
+        <v>773.8</v>
       </c>
       <c r="BZ30" t="n">
-        <v>8087.197097616387</v>
+        <v>7776.074064145301</v>
       </c>
       <c r="CA30" t="n">
-        <v>10.52946483971142</v>
+        <v>10.0493303626079</v>
       </c>
       <c r="CB30" t="n">
-        <v>0</v>
+        <v>-333.5187725033084</v>
       </c>
     </row>
     <row r="31">
@@ -8063,16 +8063,16 @@
         <v>10.24060425864623</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>-0.3068317599376122</v>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>-0.2061427223603189</v>
       </c>
       <c r="BC31" t="n">
-        <v>0.321853866473136</v>
+        <v>0.2908298108654837</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.1588990747094724</v>
+        <v>0.1901407732881903</v>
       </c>
       <c r="BE31" t="n">
         <v>615</v>
@@ -8093,16 +8093,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK31" t="n">
-        <v>249.1253553919966</v>
+        <v>225.1117278297421</v>
       </c>
       <c r="BL31" t="n">
-        <v>122.9930492749287</v>
+        <v>147.175139571869</v>
       </c>
       <c r="BM31" t="n">
-        <v>849.5174618867085</v>
+        <v>767.6309918994207</v>
       </c>
       <c r="BN31" t="n">
-        <v>419.4062980275069</v>
+        <v>501.8672259400732</v>
       </c>
       <c r="BO31" t="n">
         <v>2421.018421052632</v>
@@ -8111,40 +8111,40 @@
         <v>8255.672815789474</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0</v>
+        <v>-152.5392095227864</v>
       </c>
       <c r="BR31" t="n">
-        <v>0</v>
+        <v>-102.4823764140711</v>
       </c>
       <c r="BS31" t="n">
-        <v>0</v>
+        <v>-520.1587044727016</v>
       </c>
       <c r="BT31" t="n">
-        <v>0</v>
+        <v>-349.4649035719823</v>
       </c>
       <c r="BU31" t="n">
-        <v>8255.672815789474</v>
+        <v>7735.514111316772</v>
       </c>
       <c r="BV31" t="n">
-        <v>8675.079113816981</v>
+        <v>8757.540041729548</v>
       </c>
       <c r="BW31" t="n">
-        <v>10.65248105263158</v>
+        <v>9.981308530731319</v>
       </c>
       <c r="BX31" t="n">
-        <v>11.19365046944127</v>
+        <v>11.3000516667478</v>
       </c>
       <c r="BY31" t="n">
-        <v>768.1481481481482</v>
+        <v>774.4</v>
       </c>
       <c r="BZ31" t="n">
-        <v>8087.197097616387</v>
+        <v>7759.296084022773</v>
       </c>
       <c r="CA31" t="n">
-        <v>10.52946483971142</v>
+        <v>10.01983973405743</v>
       </c>
       <c r="CB31" t="n">
-        <v>0</v>
+        <v>-400.4260752264548</v>
       </c>
     </row>
     <row r="32">
@@ -8307,16 +8307,16 @@
         <v>10.2434438421166</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>-0.139312085985221</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>-0.1319270496971239</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.2257102817135711</v>
+        <v>0.1946862261059188</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.1560594912391037</v>
+        <v>0.1873011898178216</v>
       </c>
       <c r="BE32" t="n">
         <v>615</v>
@@ -8337,16 +8337,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK32" t="n">
-        <v>174.7070953774433</v>
+        <v>150.6934678151889</v>
       </c>
       <c r="BL32" t="n">
-        <v>120.7951193604223</v>
+        <v>144.9772096573626</v>
       </c>
       <c r="BM32" t="n">
-        <v>595.7511952370818</v>
+        <v>513.8647252497942</v>
       </c>
       <c r="BN32" t="n">
-        <v>411.9113570190401</v>
+        <v>494.3722849316065</v>
       </c>
       <c r="BO32" t="n">
         <v>2368.187848297213</v>
@@ -8355,40 +8355,40 @@
         <v>8075.520562693497</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0</v>
+        <v>-69.25800470419659</v>
       </c>
       <c r="BR32" t="n">
-        <v>0</v>
+        <v>-65.58658686299107</v>
       </c>
       <c r="BS32" t="n">
-        <v>0</v>
+        <v>-236.1697960413104</v>
       </c>
       <c r="BT32" t="n">
-        <v>0</v>
+        <v>-223.6502612027996</v>
       </c>
       <c r="BU32" t="n">
-        <v>8075.520562693497</v>
+        <v>7839.350766652186</v>
       </c>
       <c r="BV32" t="n">
-        <v>8487.431919712537</v>
+        <v>8569.892847625104</v>
       </c>
       <c r="BW32" t="n">
-        <v>10.40659866326482</v>
+        <v>10.10225614259302</v>
       </c>
       <c r="BX32" t="n">
-        <v>10.93741226767079</v>
+        <v>11.04367635003235</v>
       </c>
       <c r="BY32" t="n">
-        <v>768.1481481481482</v>
+        <v>774.8</v>
       </c>
       <c r="BZ32" t="n">
-        <v>8087.197097616387</v>
+        <v>7741.233044780449</v>
       </c>
       <c r="CA32" t="n">
-        <v>10.52946483971142</v>
+        <v>9.991281669846368</v>
       </c>
       <c r="CB32" t="n">
-        <v>0</v>
+        <v>-409.8731371467982</v>
       </c>
     </row>
     <row r="33">
@@ -8551,16 +8551,16 @@
         <v>10.20337755489857</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>-0.1387272996694566</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>-0.1734478267710458</v>
       </c>
       <c r="BC33" t="n">
-        <v>0.2236710055419168</v>
+        <v>0.1926469499342645</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.1961257784571357</v>
+        <v>0.2273674770358536</v>
       </c>
       <c r="BE33" t="n">
         <v>615</v>
@@ -8581,16 +8581,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK33" t="n">
-        <v>173.1286293283234</v>
+        <v>149.115001766069</v>
       </c>
       <c r="BL33" t="n">
-        <v>151.8077281316242</v>
+        <v>175.9898184285645</v>
       </c>
       <c r="BM33" t="n">
-        <v>590.368626009583</v>
+        <v>508.4821560222953</v>
       </c>
       <c r="BN33" t="n">
-        <v>517.6643529288385</v>
+        <v>600.1252808414049</v>
       </c>
       <c r="BO33" t="n">
         <v>2371.633320433436</v>
@@ -8599,40 +8599,40 @@
         <v>8087.269622678017</v>
       </c>
       <c r="BQ33" t="n">
-        <v>0</v>
+        <v>-68.96728238013017</v>
       </c>
       <c r="BR33" t="n">
-        <v>0</v>
+        <v>-86.22834348856225</v>
       </c>
       <c r="BS33" t="n">
-        <v>0</v>
+        <v>-235.1784329162439</v>
       </c>
       <c r="BT33" t="n">
-        <v>0</v>
+        <v>-294.0386512959973</v>
       </c>
       <c r="BU33" t="n">
-        <v>8087.269622678017</v>
+        <v>7852.091189761773</v>
       </c>
       <c r="BV33" t="n">
-        <v>8604.933975606855</v>
+        <v>8687.394903519422</v>
       </c>
       <c r="BW33" t="n">
-        <v>10.39494810112856</v>
+        <v>10.09266219763724</v>
       </c>
       <c r="BX33" t="n">
-        <v>11.06032644679544</v>
+        <v>11.16631735670877</v>
       </c>
       <c r="BY33" t="n">
-        <v>768.1481481481482</v>
+        <v>775.8</v>
       </c>
       <c r="BZ33" t="n">
-        <v>8087.197097616387</v>
+        <v>7753.785508947071</v>
       </c>
       <c r="CA33" t="n">
-        <v>10.52946483971142</v>
+        <v>9.994463819870926</v>
       </c>
       <c r="CB33" t="n">
-        <v>0</v>
+        <v>-371.0811056814137</v>
       </c>
     </row>
     <row r="34">
@@ -8795,16 +8795,16 @@
         <v>10.24188680496441</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>-0.1404497635135336</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>-0.1677456615064408</v>
       </c>
       <c r="BC34" t="n">
-        <v>0.1925863845847539</v>
+        <v>0.1615623289771015</v>
       </c>
       <c r="BD34" t="n">
-        <v>0.1576165283912908</v>
+        <v>0.1888582269700088</v>
       </c>
       <c r="BE34" t="n">
         <v>615</v>
@@ -8825,16 +8825,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK34" t="n">
-        <v>149.0681222167051</v>
+        <v>125.0544946544508</v>
       </c>
       <c r="BL34" t="n">
-        <v>122.000316731974</v>
+        <v>146.1824070289142</v>
       </c>
       <c r="BM34" t="n">
-        <v>508.3222967589646</v>
+        <v>426.4358267716771</v>
       </c>
       <c r="BN34" t="n">
-        <v>416.0210800560313</v>
+        <v>498.4820079685976</v>
       </c>
       <c r="BO34" t="n">
         <v>2358.999922600619</v>
@@ -8843,40 +8843,40 @@
         <v>8044.189736068112</v>
       </c>
       <c r="BQ34" t="n">
-        <v>0</v>
+        <v>-69.8235929304477</v>
       </c>
       <c r="BR34" t="n">
-        <v>0</v>
+        <v>-83.39355291079418</v>
       </c>
       <c r="BS34" t="n">
-        <v>0</v>
+        <v>-238.0984518928267</v>
       </c>
       <c r="BT34" t="n">
-        <v>0</v>
+        <v>-284.3720154258082</v>
       </c>
       <c r="BU34" t="n">
-        <v>8044.189736068112</v>
+        <v>7806.091284175285</v>
       </c>
       <c r="BV34" t="n">
-        <v>8460.210816124143</v>
+        <v>8542.67174403671</v>
       </c>
       <c r="BW34" t="n">
-        <v>10.31306376418989</v>
+        <v>10.00780933868626</v>
       </c>
       <c r="BX34" t="n">
-        <v>10.84642412323608</v>
+        <v>10.95214326158553</v>
       </c>
       <c r="BY34" t="n">
-        <v>768.1481481481482</v>
+        <v>776.8</v>
       </c>
       <c r="BZ34" t="n">
-        <v>8087.197097616387</v>
+        <v>7755.526531839138</v>
       </c>
       <c r="CA34" t="n">
-        <v>10.52946483971142</v>
+        <v>9.983796998649483</v>
       </c>
       <c r="CB34" t="n">
-        <v>0</v>
+        <v>-335.6594441670564</v>
       </c>
     </row>
     <row r="35">
@@ -9039,16 +9039,16 @@
         <v>10.24839601887646</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>-0.3188903774889607</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>-0.2607599668343177</v>
       </c>
       <c r="BC35" t="n">
-        <v>0.271503479320261</v>
+        <v>0.2404794237126087</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.1511073144792478</v>
+        <v>0.1823490130579657</v>
       </c>
       <c r="BE35" t="n">
         <v>615</v>
@@ -9069,16 +9069,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK35" t="n">
-        <v>210.15251895838</v>
+        <v>186.1388913961256</v>
       </c>
       <c r="BL35" t="n">
-        <v>116.9619735642196</v>
+        <v>141.1440638611599</v>
       </c>
       <c r="BM35" t="n">
-        <v>716.6200896480759</v>
+        <v>634.7336196607882</v>
       </c>
       <c r="BN35" t="n">
-        <v>398.8403298539889</v>
+        <v>481.3012577665552</v>
       </c>
       <c r="BO35" t="n">
         <v>2386.563699690402</v>
@@ -9087,40 +9087,40 @@
         <v>8138.182215944272</v>
       </c>
       <c r="BQ35" t="n">
-        <v>0</v>
+        <v>-158.5340647802548</v>
       </c>
       <c r="BR35" t="n">
-        <v>0</v>
+        <v>-129.6349479082037</v>
       </c>
       <c r="BS35" t="n">
-        <v>0</v>
+        <v>-540.6011609006689</v>
       </c>
       <c r="BT35" t="n">
-        <v>0</v>
+        <v>-442.0551723669745</v>
       </c>
       <c r="BU35" t="n">
-        <v>8138.182215944272</v>
+        <v>7597.581055043603</v>
       </c>
       <c r="BV35" t="n">
-        <v>8537.022545798261</v>
+        <v>8619.483473710827</v>
       </c>
       <c r="BW35" t="n">
-        <v>10.4335669435183</v>
+        <v>9.740488532107182</v>
       </c>
       <c r="BX35" t="n">
-        <v>10.94490069974136</v>
+        <v>11.0506198380908</v>
       </c>
       <c r="BY35" t="n">
-        <v>768.1481481481482</v>
+        <v>777.8</v>
       </c>
       <c r="BZ35" t="n">
-        <v>8087.197097616387</v>
+        <v>7766.125681389925</v>
       </c>
       <c r="CA35" t="n">
-        <v>10.52946483971142</v>
+        <v>9.984904948351005</v>
       </c>
       <c r="CB35" t="n">
-        <v>0</v>
+        <v>-354.0413092447508</v>
       </c>
     </row>
     <row r="36">
@@ -9283,16 +9283,16 @@
         <v>10.24734244494535</v>
       </c>
       <c r="BA36" t="n">
-        <v>0</v>
+        <v>-0.33931693725226</v>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>-0.2961297588198857</v>
       </c>
       <c r="BC36" t="n">
-        <v>0.2576138210290947</v>
+        <v>0.2265897654214424</v>
       </c>
       <c r="BD36" t="n">
-        <v>0.1521608884103502</v>
+        <v>0.1834025869890681</v>
       </c>
       <c r="BE36" t="n">
         <v>615</v>
@@ -9313,16 +9313,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK36" t="n">
-        <v>199.4014719196178</v>
+        <v>175.3878443573633</v>
       </c>
       <c r="BL36" t="n">
-        <v>117.7774740362002</v>
+        <v>141.9595643331405</v>
       </c>
       <c r="BM36" t="n">
-        <v>679.9590192458967</v>
+        <v>598.072549258609</v>
       </c>
       <c r="BN36" t="n">
-        <v>401.6211864634427</v>
+        <v>484.082114376009</v>
       </c>
       <c r="BO36" t="n">
         <v>2404.365305727555</v>
@@ -9331,40 +9331,40 @@
         <v>8198.885692530961</v>
       </c>
       <c r="BQ36" t="n">
-        <v>0</v>
+        <v>-168.6889825117086</v>
       </c>
       <c r="BR36" t="n">
-        <v>0</v>
+        <v>-147.2187863985899</v>
       </c>
       <c r="BS36" t="n">
-        <v>0</v>
+        <v>-575.2294303649263</v>
       </c>
       <c r="BT36" t="n">
-        <v>0</v>
+        <v>-502.0160616191914</v>
       </c>
       <c r="BU36" t="n">
-        <v>8198.885692530961</v>
+        <v>7623.656262166035</v>
       </c>
       <c r="BV36" t="n">
-        <v>8600.506878994403</v>
+        <v>8682.967806906971</v>
       </c>
       <c r="BW36" t="n">
-        <v>10.52488535626568</v>
+        <v>9.786465034872959</v>
       </c>
       <c r="BX36" t="n">
-        <v>11.04044528754095</v>
+        <v>11.14630013723616</v>
       </c>
       <c r="BY36" t="n">
-        <v>768.1481481481482</v>
+        <v>778.6</v>
       </c>
       <c r="BZ36" t="n">
-        <v>8087.197097616387</v>
+        <v>7743.754111559778</v>
       </c>
       <c r="CA36" t="n">
-        <v>10.52946483971142</v>
+        <v>9.945936249179335</v>
       </c>
       <c r="CB36" t="n">
-        <v>0</v>
+        <v>-365.0554544231958</v>
       </c>
     </row>
     <row r="37">
@@ -9527,16 +9527,16 @@
         <v>10.31072983541382</v>
       </c>
       <c r="BA37" t="n">
-        <v>0</v>
+        <v>-0.268632784243902</v>
       </c>
       <c r="BB37" t="n">
-        <v>0</v>
+        <v>-0.2381302520226249</v>
       </c>
       <c r="BC37" t="n">
-        <v>0.1815417843495341</v>
+        <v>0.1505177287418817</v>
       </c>
       <c r="BD37" t="n">
-        <v>0.08877349794188674</v>
+        <v>0.1200151965206047</v>
       </c>
       <c r="BE37" t="n">
         <v>615</v>
@@ -9557,16 +9557,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK37" t="n">
-        <v>140.5192425996529</v>
+        <v>116.5056150373985</v>
       </c>
       <c r="BL37" t="n">
-        <v>68.71357323280482</v>
+        <v>92.89566352974511</v>
       </c>
       <c r="BM37" t="n">
-        <v>479.1706172648164</v>
+        <v>397.2841472775288</v>
       </c>
       <c r="BN37" t="n">
-        <v>234.3132847238645</v>
+        <v>316.7742126364308</v>
       </c>
       <c r="BO37" t="n">
         <v>2379.09851006192</v>
@@ -9575,40 +9575,40 @@
         <v>8112.725919311146</v>
       </c>
       <c r="BQ37" t="n">
-        <v>0</v>
+        <v>-133.5488626366509</v>
       </c>
       <c r="BR37" t="n">
-        <v>0</v>
+        <v>-118.3847474406785</v>
       </c>
       <c r="BS37" t="n">
-        <v>0</v>
+        <v>-455.4016215909797</v>
       </c>
       <c r="BT37" t="n">
-        <v>0</v>
+        <v>-403.6919887727136</v>
       </c>
       <c r="BU37" t="n">
-        <v>8112.725919311146</v>
+        <v>7657.324297720166</v>
       </c>
       <c r="BV37" t="n">
-        <v>8347.039204035011</v>
+        <v>8429.500131947576</v>
       </c>
       <c r="BW37" t="n">
-        <v>10.40093066578352</v>
+        <v>9.817082432974573</v>
       </c>
       <c r="BX37" t="n">
-        <v>10.7013323128654</v>
+        <v>10.80705145121484</v>
       </c>
       <c r="BY37" t="n">
-        <v>768.1481481481482</v>
+        <v>779.4</v>
       </c>
       <c r="BZ37" t="n">
-        <v>8087.197097616387</v>
+        <v>7707.348817773374</v>
       </c>
       <c r="CA37" t="n">
-        <v>10.52946483971142</v>
+        <v>9.888901507255643</v>
       </c>
       <c r="CB37" t="n">
-        <v>0</v>
+        <v>-408.9018195331297</v>
       </c>
     </row>
     <row r="38">
@@ -9771,16 +9771,16 @@
         <v>10.22275545057352</v>
       </c>
       <c r="BA38" t="n">
-        <v>0</v>
+        <v>-0.2867455371692955</v>
       </c>
       <c r="BB38" t="n">
-        <v>0</v>
+        <v>-0.2505765027901834</v>
       </c>
       <c r="BC38" t="n">
-        <v>0.2751826713476719</v>
+        <v>0.2441586157400195</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.1767478827821895</v>
+        <v>0.2079895813609074</v>
       </c>
       <c r="BE38" t="n">
         <v>615</v>
@@ -9801,16 +9801,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK38" t="n">
-        <v>213.0003331898137</v>
+        <v>188.9867056275592</v>
       </c>
       <c r="BL38" t="n">
-        <v>136.8086069476227</v>
+        <v>160.990697244563</v>
       </c>
       <c r="BM38" t="n">
-        <v>726.3311361772647</v>
+        <v>644.4446661899769</v>
       </c>
       <c r="BN38" t="n">
-        <v>466.5173496913935</v>
+        <v>548.9782776039598</v>
       </c>
       <c r="BO38" t="n">
         <v>2445.136726006192</v>
@@ -9819,40 +9819,40 @@
         <v>8337.916235681116</v>
       </c>
       <c r="BQ38" t="n">
-        <v>0</v>
+        <v>-142.5534878882313</v>
       </c>
       <c r="BR38" t="n">
-        <v>0</v>
+        <v>-124.5723117723232</v>
       </c>
       <c r="BS38" t="n">
-        <v>0</v>
+        <v>-486.1073936988687</v>
       </c>
       <c r="BT38" t="n">
-        <v>0</v>
+        <v>-424.7915831436221</v>
       </c>
       <c r="BU38" t="n">
-        <v>8337.916235681116</v>
+        <v>7851.808841982247</v>
       </c>
       <c r="BV38" t="n">
-        <v>8804.43358537251</v>
+        <v>8886.894513285075</v>
       </c>
       <c r="BW38" t="n">
-        <v>10.68963619959117</v>
+        <v>10.06642159228493</v>
       </c>
       <c r="BX38" t="n">
-        <v>11.28773536586219</v>
+        <v>11.39345450421163</v>
       </c>
       <c r="BY38" t="n">
-        <v>768.1481481481482</v>
+        <v>779.8</v>
       </c>
       <c r="BZ38" t="n">
-        <v>8087.197097616387</v>
+        <v>7707.292348217469</v>
       </c>
       <c r="CA38" t="n">
-        <v>10.52946483971142</v>
+        <v>9.883653386185182</v>
       </c>
       <c r="CB38" t="n">
-        <v>0</v>
+        <v>-459.0876116896546</v>
       </c>
     </row>
     <row r="39">
@@ -10015,16 +10015,16 @@
         <v>10.2392358231652</v>
       </c>
       <c r="BA39" t="n">
-        <v>0</v>
+        <v>-0.328757584275472</v>
       </c>
       <c r="BB39" t="n">
-        <v>0</v>
+        <v>-0.224020991124851</v>
       </c>
       <c r="BC39" t="n">
-        <v>0.3272698575274939</v>
+        <v>0.2962458019198415</v>
       </c>
       <c r="BD39" t="n">
-        <v>0.1602675101905026</v>
+        <v>0.1915092087692205</v>
       </c>
       <c r="BE39" t="n">
         <v>615</v>
@@ -10045,16 +10045,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK39" t="n">
-        <v>253.3175085296983</v>
+        <v>229.3038809674438</v>
       </c>
       <c r="BL39" t="n">
-        <v>124.0522628219908</v>
+        <v>148.2343531189311</v>
       </c>
       <c r="BM39" t="n">
-        <v>863.8127040862712</v>
+        <v>781.9262340989835</v>
       </c>
       <c r="BN39" t="n">
-        <v>423.0182162229886</v>
+        <v>505.479144135555</v>
       </c>
       <c r="BO39" t="n">
         <v>2415.850212848297</v>
@@ -10063,40 +10063,40 @@
         <v>8238.049225812692</v>
       </c>
       <c r="BQ39" t="n">
-        <v>0</v>
+        <v>-163.4394758880174</v>
       </c>
       <c r="BR39" t="n">
-        <v>0</v>
+        <v>-111.3704295462897</v>
       </c>
       <c r="BS39" t="n">
-        <v>0</v>
+        <v>-557.3286127781392</v>
       </c>
       <c r="BT39" t="n">
-        <v>0</v>
+        <v>-379.7731647528477</v>
       </c>
       <c r="BU39" t="n">
-        <v>8238.049225812692</v>
+        <v>7680.720613034553</v>
       </c>
       <c r="BV39" t="n">
-        <v>8661.067442035681</v>
+        <v>8743.528369948248</v>
       </c>
       <c r="BW39" t="n">
-        <v>10.54807839412637</v>
+        <v>9.834469414896995</v>
       </c>
       <c r="BX39" t="n">
-        <v>11.08971503461675</v>
+        <v>11.19529880915269</v>
       </c>
       <c r="BY39" t="n">
-        <v>768.1481481481482</v>
+        <v>780</v>
       </c>
       <c r="BZ39" t="n">
-        <v>8087.197097616387</v>
+        <v>7682.218213989322</v>
       </c>
       <c r="CA39" t="n">
-        <v>10.52946483971142</v>
+        <v>9.848985401427328</v>
       </c>
       <c r="CB39" t="n">
-        <v>0</v>
+        <v>-522.9336438667171</v>
       </c>
     </row>
     <row r="40">
@@ -10259,16 +10259,16 @@
         <v>10.25381134494375</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>-0.1625270150757174</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>-0.1882524239255421</v>
       </c>
       <c r="BC40" t="n">
-        <v>0.1822323337484965</v>
+        <v>0.1512082781408441</v>
       </c>
       <c r="BD40" t="n">
-        <v>0.1456919884119509</v>
+        <v>0.1769336869906688</v>
       </c>
       <c r="BE40" t="n">
         <v>615</v>
@@ -10289,16 +10289,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK40" t="n">
-        <v>141.0537502826501</v>
+        <v>117.0401227203956</v>
       </c>
       <c r="BL40" t="n">
-        <v>112.7703351481203</v>
+        <v>136.9524254450606</v>
       </c>
       <c r="BM40" t="n">
-        <v>480.9932884638368</v>
+        <v>399.1068184765491</v>
       </c>
       <c r="BN40" t="n">
-        <v>384.5468428550903</v>
+        <v>467.0077707676567</v>
       </c>
       <c r="BO40" t="n">
         <v>2390.583417182662</v>
@@ -10307,40 +10307,40 @@
         <v>8151.889452592879</v>
       </c>
       <c r="BQ40" t="n">
-        <v>0</v>
+        <v>-80.7991402545447</v>
       </c>
       <c r="BR40" t="n">
-        <v>0</v>
+        <v>-93.58834281754091</v>
       </c>
       <c r="BS40" t="n">
-        <v>0</v>
+        <v>-275.5250682679974</v>
       </c>
       <c r="BT40" t="n">
-        <v>0</v>
+        <v>-319.1362490078145</v>
       </c>
       <c r="BU40" t="n">
-        <v>8151.889452592879</v>
+        <v>7876.364384324882</v>
       </c>
       <c r="BV40" t="n">
-        <v>8536.436295447969</v>
+        <v>8618.897223360536</v>
       </c>
       <c r="BW40" t="n">
-        <v>10.41109764060393</v>
+        <v>10.05921377308414</v>
       </c>
       <c r="BX40" t="n">
-        <v>10.90221749099357</v>
+        <v>11.0075315751731</v>
       </c>
       <c r="BY40" t="n">
-        <v>784.9310344827586</v>
+        <v>780.6</v>
       </c>
       <c r="BZ40" t="n">
-        <v>8141.220765940269</v>
+        <v>7737.974879845578</v>
       </c>
       <c r="CA40" t="n">
-        <v>10.3732202402652</v>
+        <v>9.912730449622721</v>
       </c>
       <c r="CB40" t="n">
-        <v>0</v>
+        <v>-469.9184253401829</v>
       </c>
     </row>
     <row r="41">
@@ -10503,16 +10503,16 @@
         <v>10.32671905968892</v>
       </c>
       <c r="BA41" t="n">
-        <v>0</v>
+        <v>-0.3588553324501067</v>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>-0.2863249004453436</v>
       </c>
       <c r="BC41" t="n">
-        <v>0.2075804598579173</v>
+        <v>0.176556404250265</v>
       </c>
       <c r="BD41" t="n">
-        <v>0.072784273666784</v>
+        <v>0.1040259722455019</v>
       </c>
       <c r="BE41" t="n">
         <v>615</v>
@@ -10533,16 +10533,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK41" t="n">
-        <v>160.6740239016333</v>
+        <v>136.6603963393788</v>
       </c>
       <c r="BL41" t="n">
-        <v>56.33739387033075</v>
+        <v>80.51948416727103</v>
       </c>
       <c r="BM41" t="n">
-        <v>547.8984215045695</v>
+        <v>466.0119515172819</v>
       </c>
       <c r="BN41" t="n">
-        <v>192.1105130978279</v>
+        <v>274.5714410103942</v>
       </c>
       <c r="BO41" t="n">
         <v>2408.959268575851</v>
@@ -10551,40 +10551,40 @@
         <v>8214.551105843653</v>
       </c>
       <c r="BQ41" t="n">
-        <v>0</v>
+        <v>-178.4023555974326</v>
       </c>
       <c r="BR41" t="n">
-        <v>0</v>
+        <v>-142.3443713568105</v>
       </c>
       <c r="BS41" t="n">
-        <v>0</v>
+        <v>-608.3520325872453</v>
       </c>
       <c r="BT41" t="n">
-        <v>0</v>
+        <v>-485.3943063267239</v>
       </c>
       <c r="BU41" t="n">
-        <v>8214.551105843653</v>
+        <v>7606.199073256408</v>
       </c>
       <c r="BV41" t="n">
-        <v>8406.661618941482</v>
+        <v>8489.122546854047</v>
       </c>
       <c r="BW41" t="n">
-        <v>10.49112529481948</v>
+        <v>9.714175061630151</v>
       </c>
       <c r="BX41" t="n">
-        <v>10.73647716339908</v>
+        <v>10.8417912475786</v>
       </c>
       <c r="BY41" t="n">
-        <v>784.9310344827586</v>
+        <v>781.4</v>
       </c>
       <c r="BZ41" t="n">
-        <v>8141.220765940269</v>
+        <v>7734.483442063653</v>
       </c>
       <c r="CA41" t="n">
-        <v>10.3732202402652</v>
+        <v>9.898272454974158</v>
       </c>
       <c r="CB41" t="n">
-        <v>0</v>
+        <v>-476.5429457846466</v>
       </c>
     </row>
     <row r="42">
@@ -10747,16 +10747,16 @@
         <v>10.38810034248093</v>
       </c>
       <c r="BA42" t="n">
-        <v>0</v>
+        <v>-0.3422544425709138</v>
       </c>
       <c r="BB42" t="n">
-        <v>0</v>
+        <v>-0.2183557320940377</v>
       </c>
       <c r="BC42" t="n">
-        <v>0.197567455538021</v>
+        <v>0.1665433999303687</v>
       </c>
       <c r="BD42" t="n">
-        <v>0.01140299087477473</v>
+        <v>0.04264468945349265</v>
       </c>
       <c r="BE42" t="n">
         <v>615</v>
@@ -10777,16 +10777,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK42" t="n">
-        <v>152.9236330578931</v>
+        <v>128.9100054956387</v>
       </c>
       <c r="BL42" t="n">
-        <v>8.826285622537512</v>
+        <v>33.0083759194778</v>
       </c>
       <c r="BM42" t="n">
-        <v>521.4695887274156</v>
+        <v>439.583118740128</v>
       </c>
       <c r="BN42" t="n">
-        <v>30.09763397285291</v>
+        <v>112.5585618854193</v>
       </c>
       <c r="BO42" t="n">
         <v>2373.930301857585</v>
@@ -10795,40 +10795,40 @@
         <v>8095.102329334366</v>
       </c>
       <c r="BQ42" t="n">
-        <v>0</v>
+        <v>-170.1493422194766</v>
       </c>
       <c r="BR42" t="n">
-        <v>0</v>
+        <v>-108.5539866380399</v>
       </c>
       <c r="BS42" t="n">
-        <v>0</v>
+        <v>-580.209256968415</v>
       </c>
       <c r="BT42" t="n">
-        <v>0</v>
+        <v>-370.169094435716</v>
       </c>
       <c r="BU42" t="n">
-        <v>8095.102329334366</v>
+        <v>7514.893072365951</v>
       </c>
       <c r="BV42" t="n">
-        <v>8125.199963307219</v>
+        <v>8207.660891219786</v>
       </c>
       <c r="BW42" t="n">
-        <v>10.36504779684298</v>
+        <v>9.622142218138221</v>
       </c>
       <c r="BX42" t="n">
-        <v>10.40358510026532</v>
+        <v>10.50916887480126</v>
       </c>
       <c r="BY42" t="n">
-        <v>784.9310344827586</v>
+        <v>781.6</v>
       </c>
       <c r="BZ42" t="n">
-        <v>8141.220765940269</v>
+        <v>7705.99719699281</v>
       </c>
       <c r="CA42" t="n">
-        <v>10.3732202402652</v>
+        <v>9.85928441200689</v>
       </c>
       <c r="CB42" t="n">
-        <v>0</v>
+        <v>-501.5044728601337</v>
       </c>
     </row>
     <row r="43">
@@ -10991,16 +10991,16 @@
         <v>10.35851738746556</v>
       </c>
       <c r="BA43" t="n">
-        <v>0</v>
+        <v>-0.2165458001432867</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>-0.1860432679220096</v>
       </c>
       <c r="BC43" t="n">
-        <v>0.1337542322977968</v>
+        <v>0.1027301766901445</v>
       </c>
       <c r="BD43" t="n">
-        <v>0.04098594589014951</v>
+        <v>0.07222764446886742</v>
       </c>
       <c r="BE43" t="n">
         <v>615</v>
@@ -11021,16 +11021,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK43" t="n">
-        <v>103.5301238462939</v>
+        <v>79.51649628403946</v>
       </c>
       <c r="BL43" t="n">
-        <v>31.72445447944583</v>
+        <v>55.90654477638612</v>
       </c>
       <c r="BM43" t="n">
-        <v>353.0377223158622</v>
+        <v>271.1512523285746</v>
       </c>
       <c r="BN43" t="n">
-        <v>108.1803897749103</v>
+        <v>190.6413176874767</v>
       </c>
       <c r="BO43" t="n">
         <v>2362.445394736843</v>
@@ -11039,40 +11039,40 @@
         <v>8055.938796052635</v>
       </c>
       <c r="BQ43" t="n">
-        <v>0</v>
+        <v>-107.6541919456204</v>
       </c>
       <c r="BR43" t="n">
-        <v>0</v>
+        <v>-92.49007674964794</v>
       </c>
       <c r="BS43" t="n">
-        <v>0</v>
+        <v>-367.1007945345657</v>
       </c>
       <c r="BT43" t="n">
-        <v>0</v>
+        <v>-315.3911617162995</v>
       </c>
       <c r="BU43" t="n">
-        <v>8055.938796052635</v>
+        <v>7688.838001518069</v>
       </c>
       <c r="BV43" t="n">
-        <v>8164.119185827545</v>
+        <v>8246.580113740112</v>
       </c>
       <c r="BW43" t="n">
-        <v>10.28855529508638</v>
+        <v>9.819716477034572</v>
       </c>
       <c r="BX43" t="n">
-        <v>10.42671671242343</v>
+        <v>10.53203079660295</v>
       </c>
       <c r="BY43" t="n">
-        <v>784.9310344827586</v>
+        <v>782.2</v>
       </c>
       <c r="BZ43" t="n">
-        <v>8141.220765940269</v>
+        <v>7673.403028899974</v>
       </c>
       <c r="CA43" t="n">
-        <v>10.3732202402652</v>
+        <v>9.809943388956816</v>
       </c>
       <c r="CB43" t="n">
-        <v>0</v>
+        <v>-477.7031530272731</v>
       </c>
     </row>
     <row r="44">
@@ -11235,16 +11235,16 @@
         <v>10.35115251821947</v>
       </c>
       <c r="BA44" t="n">
-        <v>0</v>
+        <v>-0.1199820944478294</v>
       </c>
       <c r="BB44" t="n">
-        <v>0</v>
+        <v>-0.1653004312544706</v>
       </c>
       <c r="BC44" t="n">
-        <v>0.06529823251596248</v>
+        <v>0.03427417690831014</v>
       </c>
       <c r="BD44" t="n">
-        <v>0.04835081513623343</v>
+        <v>0.07959251371495135</v>
       </c>
       <c r="BE44" t="n">
         <v>615</v>
@@ -11265,16 +11265,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK44" t="n">
-        <v>50.542954665316</v>
+        <v>26.52932710306157</v>
       </c>
       <c r="BL44" t="n">
-        <v>37.42510269116891</v>
+        <v>61.6071929881092</v>
       </c>
       <c r="BM44" t="n">
-        <v>172.3514754087276</v>
+        <v>90.46500542143997</v>
       </c>
       <c r="BN44" t="n">
-        <v>127.619600176886</v>
+        <v>210.0805280894524</v>
       </c>
       <c r="BO44" t="n">
         <v>2310.763312693498</v>
@@ -11283,40 +11283,40 @@
         <v>7879.70289628483</v>
       </c>
       <c r="BQ44" t="n">
-        <v>0</v>
+        <v>-59.64823800404986</v>
       </c>
       <c r="BR44" t="n">
-        <v>0</v>
+        <v>-82.17792422290159</v>
       </c>
       <c r="BS44" t="n">
-        <v>0</v>
+        <v>-203.40049159381</v>
       </c>
       <c r="BT44" t="n">
-        <v>0</v>
+        <v>-280.2267216000944</v>
       </c>
       <c r="BU44" t="n">
-        <v>7879.70289628483</v>
+        <v>7676.30240469102</v>
       </c>
       <c r="BV44" t="n">
-        <v>8007.322496461716</v>
+        <v>8089.783424374282</v>
       </c>
       <c r="BW44" t="n">
-        <v>10.0250672980723</v>
+        <v>9.766288046680687</v>
       </c>
       <c r="BX44" t="n">
-        <v>10.18743320160524</v>
+        <v>10.2923453236314</v>
       </c>
       <c r="BY44" t="n">
-        <v>784.9310344827586</v>
+        <v>783.2</v>
       </c>
       <c r="BZ44" t="n">
-        <v>8141.220765940269</v>
+        <v>7672.519387231268</v>
       </c>
       <c r="CA44" t="n">
-        <v>10.3732202402652</v>
+        <v>9.796307115313553</v>
       </c>
       <c r="CB44" t="n">
-        <v>0</v>
+        <v>-406.9175287904072</v>
       </c>
     </row>
     <row r="45">
@@ -11479,16 +11479,16 @@
         <v>10.31404430266316</v>
       </c>
       <c r="BA45" t="n">
-        <v>0</v>
+        <v>-0.2609437243406614</v>
       </c>
       <c r="BB45" t="n">
-        <v>0</v>
+        <v>-0.3131395604092777</v>
       </c>
       <c r="BC45" t="n">
-        <v>0.09552894881029608</v>
+        <v>0.06450489320264374</v>
       </c>
       <c r="BD45" t="n">
-        <v>0.08545903069254215</v>
+        <v>0.1167007292712601</v>
       </c>
       <c r="BE45" t="n">
         <v>615</v>
@@ -11509,16 +11509,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK45" t="n">
-        <v>73.94251180939365</v>
+        <v>49.92888424713922</v>
       </c>
       <c r="BL45" t="n">
-        <v>66.14806783597274</v>
+        <v>90.33015813291303</v>
       </c>
       <c r="BM45" t="n">
-        <v>252.1439652700324</v>
+        <v>170.2574952827447</v>
       </c>
       <c r="BN45" t="n">
-        <v>225.5649113206671</v>
+        <v>308.0258392332335</v>
       </c>
       <c r="BO45" t="n">
         <v>2357.277186532508</v>
@@ -11527,40 +11527,40 @@
         <v>8038.315206075853</v>
       </c>
       <c r="BQ45" t="n">
-        <v>0</v>
+        <v>-129.7263016349731</v>
       </c>
       <c r="BR45" t="n">
-        <v>0</v>
+        <v>-155.6750873014458</v>
       </c>
       <c r="BS45" t="n">
-        <v>0</v>
+        <v>-442.3666885752584</v>
       </c>
       <c r="BT45" t="n">
-        <v>0</v>
+        <v>-530.8520476979302</v>
       </c>
       <c r="BU45" t="n">
-        <v>8038.315206075853</v>
+        <v>7595.948517500595</v>
       </c>
       <c r="BV45" t="n">
-        <v>8263.88011739652</v>
+        <v>8346.341045309087</v>
       </c>
       <c r="BW45" t="n">
-        <v>10.23989198226223</v>
+        <v>9.676367538217319</v>
       </c>
       <c r="BX45" t="n">
-        <v>10.52723581833952</v>
+        <v>10.632281586381</v>
       </c>
       <c r="BY45" t="n">
-        <v>784.9310344827586</v>
+        <v>783.6</v>
       </c>
       <c r="BZ45" t="n">
-        <v>8141.220765940269</v>
+        <v>7616.43621386641</v>
       </c>
       <c r="CA45" t="n">
-        <v>10.3732202402652</v>
+        <v>9.719737868340189</v>
       </c>
       <c r="CB45" t="n">
-        <v>0</v>
+        <v>-440.2858528518594</v>
       </c>
     </row>
     <row r="46">
@@ -11723,16 +11723,16 @@
         <v>10.32063185965668</v>
       </c>
       <c r="BA46" t="n">
-        <v>0</v>
+        <v>-0.2652300343157368</v>
       </c>
       <c r="BB46" t="n">
-        <v>0</v>
+        <v>-0.2117596700448914</v>
       </c>
       <c r="BC46" t="n">
-        <v>0.1946075921562402</v>
+        <v>0.1635835365485878</v>
       </c>
       <c r="BD46" t="n">
-        <v>0.0788714736990245</v>
+        <v>0.1101131722777424</v>
       </c>
       <c r="BE46" t="n">
         <v>615</v>
@@ -11753,16 +11753,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK46" t="n">
-        <v>150.6326025819257</v>
+        <v>126.6189750196712</v>
       </c>
       <c r="BL46" t="n">
-        <v>61.0490845764005</v>
+        <v>85.23117487334078</v>
       </c>
       <c r="BM46" t="n">
-        <v>513.6571748043665</v>
+        <v>431.7707048170789</v>
       </c>
       <c r="BN46" t="n">
-        <v>208.1773784055257</v>
+        <v>290.6383063180921</v>
       </c>
       <c r="BO46" t="n">
         <v>2388.286435758514</v>
@@ -11771,40 +11771,40 @@
         <v>8144.056745936535</v>
       </c>
       <c r="BQ46" t="n">
-        <v>0</v>
+        <v>-131.857209906987</v>
       </c>
       <c r="BR46" t="n">
-        <v>0</v>
+        <v>-105.2748016829211</v>
       </c>
       <c r="BS46" t="n">
-        <v>0</v>
+        <v>-449.6330857828257</v>
       </c>
       <c r="BT46" t="n">
-        <v>0</v>
+        <v>-358.9870737387611</v>
       </c>
       <c r="BU46" t="n">
-        <v>8144.056745936535</v>
+        <v>7694.423660153709</v>
       </c>
       <c r="BV46" t="n">
-        <v>8352.23412434206</v>
+        <v>8434.695052254627</v>
       </c>
       <c r="BW46" t="n">
-        <v>10.34822966446828</v>
+        <v>9.776904269572691</v>
       </c>
       <c r="BX46" t="n">
-        <v>10.61274984033299</v>
+        <v>10.71752865597792</v>
       </c>
       <c r="BY46" t="n">
-        <v>784.9310344827586</v>
+        <v>784.4</v>
       </c>
       <c r="BZ46" t="n">
-        <v>8141.220765940269</v>
+        <v>7634.08113124587</v>
       </c>
       <c r="CA46" t="n">
-        <v>10.3732202402652</v>
+        <v>9.732283709928698</v>
       </c>
       <c r="CB46" t="n">
-        <v>0</v>
+        <v>-408.5420634909755</v>
       </c>
     </row>
     <row r="47">
@@ -11967,16 +11967,16 @@
         <v>10.31690324231728</v>
       </c>
       <c r="BA47" t="n">
-        <v>0</v>
+        <v>-0.313278076884032</v>
       </c>
       <c r="BB47" t="n">
-        <v>0</v>
+        <v>-0.2585787817396916</v>
       </c>
       <c r="BC47" t="n">
-        <v>0.1995651403691384</v>
+        <v>0.1685410847614861</v>
       </c>
       <c r="BD47" t="n">
-        <v>0.08260009103842783</v>
+        <v>0.1138417896171457</v>
       </c>
       <c r="BE47" t="n">
         <v>615</v>
@@ -11997,16 +11997,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK47" t="n">
-        <v>154.469906057397</v>
+        <v>130.4562784951425</v>
       </c>
       <c r="BL47" t="n">
-        <v>63.93515560602147</v>
+        <v>88.11724590296176</v>
       </c>
       <c r="BM47" t="n">
-        <v>526.7423796557238</v>
+        <v>444.855909668436</v>
       </c>
       <c r="BN47" t="n">
-        <v>218.0188806165332</v>
+        <v>300.4798085290996</v>
       </c>
       <c r="BO47" t="n">
         <v>2380.247000773994</v>
@@ -12015,40 +12015,40 @@
         <v>8116.642272639321</v>
       </c>
       <c r="BQ47" t="n">
-        <v>0</v>
+        <v>-155.7439497737309</v>
       </c>
       <c r="BR47" t="n">
-        <v>0</v>
+        <v>-128.550587377127</v>
       </c>
       <c r="BS47" t="n">
-        <v>0</v>
+        <v>-531.0868687284222</v>
       </c>
       <c r="BT47" t="n">
-        <v>0</v>
+        <v>-438.357502956003</v>
       </c>
       <c r="BU47" t="n">
-        <v>8116.642272639321</v>
+        <v>7585.555403910899</v>
       </c>
       <c r="BV47" t="n">
-        <v>8334.661153255855</v>
+        <v>8417.122081168422</v>
       </c>
       <c r="BW47" t="n">
-        <v>10.32651688630957</v>
+        <v>9.650833847214885</v>
       </c>
       <c r="BX47" t="n">
-        <v>10.60389459701763</v>
+        <v>10.70880671904379</v>
       </c>
       <c r="BY47" t="n">
-        <v>784.9310344827586</v>
+        <v>785.4</v>
       </c>
       <c r="BZ47" t="n">
-        <v>8141.220765940269</v>
+        <v>7648.213597554861</v>
       </c>
       <c r="CA47" t="n">
-        <v>10.3732202402652</v>
+        <v>9.738022035744029</v>
       </c>
       <c r="CB47" t="n">
-        <v>0</v>
+        <v>-398.717585842977</v>
       </c>
     </row>
     <row r="48">
@@ -12211,16 +12211,16 @@
         <v>10.32942112448675</v>
       </c>
       <c r="BA48" t="n">
-        <v>0</v>
+        <v>-0.1581929969120122</v>
       </c>
       <c r="BB48" t="n">
-        <v>0</v>
+        <v>-0.2247224567523478</v>
       </c>
       <c r="BC48" t="n">
-        <v>0.06581850321499352</v>
+        <v>0.03479444760734118</v>
       </c>
       <c r="BD48" t="n">
-        <v>0.07008220886895891</v>
+        <v>0.1013239074476768</v>
       </c>
       <c r="BE48" t="n">
         <v>615</v>
@@ -12241,16 +12241,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK48" t="n">
-        <v>50.9456610991906</v>
+        <v>26.93203353693618</v>
       </c>
       <c r="BL48" t="n">
-        <v>54.24590787879439</v>
+        <v>78.42799817573467</v>
       </c>
       <c r="BM48" t="n">
-        <v>173.72470434824</v>
+        <v>91.8382343609524</v>
       </c>
       <c r="BN48" t="n">
-        <v>184.9785458666889</v>
+        <v>267.4394737792553</v>
       </c>
       <c r="BO48" t="n">
         <v>2318.228502321982</v>
@@ -12259,40 +12259,40 @@
         <v>7905.159192917959</v>
       </c>
       <c r="BQ48" t="n">
-        <v>0</v>
+        <v>-78.64451419861288</v>
       </c>
       <c r="BR48" t="n">
-        <v>0</v>
+        <v>-111.7191581536135</v>
       </c>
       <c r="BS48" t="n">
-        <v>0</v>
+        <v>-268.1777934172699</v>
       </c>
       <c r="BT48" t="n">
-        <v>0</v>
+        <v>-380.9623293038221</v>
       </c>
       <c r="BU48" t="n">
-        <v>7905.159192917959</v>
+        <v>7636.981399500689</v>
       </c>
       <c r="BV48" t="n">
-        <v>8090.137738784648</v>
+        <v>8172.598666697214</v>
       </c>
       <c r="BW48" t="n">
-        <v>10.05745444391598</v>
+        <v>9.71626132251996</v>
       </c>
       <c r="BX48" t="n">
-        <v>10.29279610532398</v>
+        <v>10.39770822735015</v>
       </c>
       <c r="BY48" t="n">
-        <v>784.9310344827586</v>
+        <v>786</v>
       </c>
       <c r="BZ48" t="n">
-        <v>8141.220765940269</v>
+        <v>7637.842277151384</v>
       </c>
       <c r="CA48" t="n">
-        <v>10.3732202402652</v>
+        <v>9.717331004841109</v>
       </c>
       <c r="CB48" t="n">
-        <v>0</v>
+        <v>-378.9329856195178</v>
       </c>
     </row>
     <row r="49">
@@ -12455,16 +12455,16 @@
         <v>10.32349248446645</v>
       </c>
       <c r="BA49" t="n">
-        <v>0</v>
+        <v>-0.3574469956792345</v>
       </c>
       <c r="BB49" t="n">
-        <v>0</v>
+        <v>-0.2574168517290261</v>
       </c>
       <c r="BC49" t="n">
-        <v>0.2383067470258383</v>
+        <v>0.207282691418186</v>
       </c>
       <c r="BD49" t="n">
-        <v>0.0760108488892596</v>
+        <v>0.1072525474679775</v>
       </c>
       <c r="BE49" t="n">
         <v>615</v>
@@ -12485,16 +12485,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK49" t="n">
-        <v>184.4571690117567</v>
+        <v>160.4435414495023</v>
       </c>
       <c r="BL49" t="n">
-        <v>58.83486798119508</v>
+        <v>83.01695827813539</v>
       </c>
       <c r="BM49" t="n">
-        <v>628.9989463300903</v>
+        <v>547.1124763428028</v>
       </c>
       <c r="BN49" t="n">
-        <v>200.6268998158752</v>
+        <v>283.0878277284417</v>
       </c>
       <c r="BO49" t="n">
         <v>2411.256249999999</v>
@@ -12503,40 +12503,40 @@
         <v>8222.383812499997</v>
       </c>
       <c r="BQ49" t="n">
-        <v>0</v>
+        <v>-177.7022110693225</v>
       </c>
       <c r="BR49" t="n">
-        <v>0</v>
+        <v>-127.9729422031601</v>
       </c>
       <c r="BS49" t="n">
-        <v>0</v>
+        <v>-605.9645397463898</v>
       </c>
       <c r="BT49" t="n">
-        <v>0</v>
+        <v>-436.3877329127758</v>
       </c>
       <c r="BU49" t="n">
-        <v>8222.383812499997</v>
+        <v>7616.419272753606</v>
       </c>
       <c r="BV49" t="n">
-        <v>8423.010712315872</v>
+        <v>8505.471640228438</v>
       </c>
       <c r="BW49" t="n">
-        <v>10.47437428343949</v>
+        <v>9.702444933444085</v>
       </c>
       <c r="BX49" t="n">
-        <v>10.72994995199474</v>
+        <v>10.83499572003623</v>
       </c>
       <c r="BY49" t="n">
-        <v>784.9310344827586</v>
+        <v>785.8</v>
       </c>
       <c r="BZ49" t="n">
-        <v>8141.220765940269</v>
+        <v>7625.865650763901</v>
       </c>
       <c r="CA49" t="n">
-        <v>10.3732202402652</v>
+        <v>9.704562382193789</v>
       </c>
       <c r="CB49" t="n">
-        <v>0</v>
+        <v>-459.4457952500337</v>
       </c>
     </row>
     <row r="50">
@@ -12699,16 +12699,16 @@
         <v>10.33118469223549</v>
       </c>
       <c r="BA50" t="n">
-        <v>0</v>
+        <v>-0.3195588013267621</v>
       </c>
       <c r="BB50" t="n">
-        <v>0</v>
+        <v>-0.2686749169031657</v>
       </c>
       <c r="BC50" t="n">
-        <v>0.1814682797301793</v>
+        <v>0.150444224122527</v>
       </c>
       <c r="BD50" t="n">
-        <v>0.06831864112021271</v>
+        <v>0.09956033969893063</v>
       </c>
       <c r="BE50" t="n">
         <v>615</v>
@@ -12729,16 +12729,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK50" t="n">
-        <v>140.4623476348033</v>
+        <v>116.4487200725489</v>
       </c>
       <c r="BL50" t="n">
-        <v>52.8808491116631</v>
+        <v>77.06293940860338</v>
       </c>
       <c r="BM50" t="n">
-        <v>478.9766054346791</v>
+        <v>397.0901354473916</v>
       </c>
       <c r="BN50" t="n">
-        <v>180.3236954707712</v>
+        <v>262.7846233833375</v>
       </c>
       <c r="BO50" t="n">
         <v>2403.791060371517</v>
@@ -12747,40 +12747,40 @@
         <v>8196.927515866873</v>
       </c>
       <c r="BQ50" t="n">
-        <v>0</v>
+        <v>-158.8663668987355</v>
       </c>
       <c r="BR50" t="n">
-        <v>0</v>
+        <v>-133.56980858612</v>
       </c>
       <c r="BS50" t="n">
-        <v>0</v>
+        <v>-541.7343111246879</v>
       </c>
       <c r="BT50" t="n">
-        <v>0</v>
+        <v>-455.4730472786694</v>
       </c>
       <c r="BU50" t="n">
-        <v>8196.927515866873</v>
+        <v>7655.193204742185</v>
       </c>
       <c r="BV50" t="n">
-        <v>8377.251211337645</v>
+        <v>8459.71213925021</v>
       </c>
       <c r="BW50" t="n">
-        <v>10.64536041021672</v>
+        <v>9.941809356808033</v>
       </c>
       <c r="BX50" t="n">
-        <v>10.87954702771123</v>
+        <v>10.98663914188339</v>
       </c>
       <c r="BY50" t="n">
-        <v>784.9310344827586</v>
+        <v>782.8</v>
       </c>
       <c r="BZ50" t="n">
-        <v>8141.220765940269</v>
+        <v>7637.714588212219</v>
       </c>
       <c r="CA50" t="n">
-        <v>10.3732202402652</v>
+        <v>9.757650745911931</v>
       </c>
       <c r="CB50" t="n">
-        <v>0</v>
+        <v>-479.3193197599197</v>
       </c>
     </row>
     <row r="51">
@@ -12943,16 +12943,16 @@
         <v>10.33888202755207</v>
       </c>
       <c r="BA51" t="n">
-        <v>0</v>
+        <v>-0.3438218775420445</v>
       </c>
       <c r="BB51" t="n">
-        <v>0</v>
+        <v>-0.2195630708197864</v>
       </c>
       <c r="BC51" t="n">
-        <v>0.2471458667122609</v>
+        <v>0.2161218111046086</v>
       </c>
       <c r="BD51" t="n">
-        <v>0.06062130580363259</v>
+        <v>0.09186300438235051</v>
       </c>
       <c r="BE51" t="n">
         <v>615</v>
@@ -12973,16 +12973,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK51" t="n">
-        <v>191.2989349888518</v>
+        <v>167.2853074265974</v>
       </c>
       <c r="BL51" t="n">
-        <v>46.92286135365539</v>
+        <v>71.10495165059569</v>
       </c>
       <c r="BM51" t="n">
-        <v>652.3293683119847</v>
+        <v>570.4428983246971</v>
       </c>
       <c r="BN51" t="n">
-        <v>160.0069572159649</v>
+        <v>242.4678851285313</v>
       </c>
       <c r="BO51" t="n">
         <v>2427.33511996904</v>
@@ -12991,40 +12991,40 @@
         <v>8277.212759094426</v>
       </c>
       <c r="BQ51" t="n">
-        <v>0</v>
+        <v>-170.9285812771389</v>
       </c>
       <c r="BR51" t="n">
-        <v>0</v>
+        <v>-109.1542064291378</v>
       </c>
       <c r="BS51" t="n">
-        <v>0</v>
+        <v>-582.8664621550437</v>
       </c>
       <c r="BT51" t="n">
-        <v>0</v>
+        <v>-372.21584392336</v>
       </c>
       <c r="BU51" t="n">
-        <v>8277.212759094426</v>
+        <v>7694.346296939382</v>
       </c>
       <c r="BV51" t="n">
-        <v>8437.21971631039</v>
+        <v>8519.680644222957</v>
       </c>
       <c r="BW51" t="n">
-        <v>10.77762078007087</v>
+        <v>10.01868007413982</v>
       </c>
       <c r="BX51" t="n">
-        <v>10.98596317227915</v>
+        <v>11.09333417216531</v>
       </c>
       <c r="BY51" t="n">
-        <v>784.9310344827586</v>
+        <v>779</v>
       </c>
       <c r="BZ51" t="n">
-        <v>8141.220765940269</v>
+        <v>7637.699115569354</v>
       </c>
       <c r="CA51" t="n">
-        <v>10.3732202402652</v>
+        <v>9.806005906825357</v>
       </c>
       <c r="CB51" t="n">
-        <v>0</v>
+        <v>-505.9659950343633</v>
       </c>
     </row>
     <row r="52">
@@ -13187,16 +13187,16 @@
         <v>10.41282327826011</v>
       </c>
       <c r="BA52" t="n">
-        <v>0</v>
+        <v>-0.460843890755859</v>
       </c>
       <c r="BB52" t="n">
-        <v>0</v>
+        <v>-0.2195630708197864</v>
       </c>
       <c r="BC52" t="n">
-        <v>0.2902266292180402</v>
+        <v>0.2592025736103878</v>
       </c>
       <c r="BD52" t="n">
-        <v>0</v>
+        <v>0.01792175367431526</v>
       </c>
       <c r="BE52" t="n">
         <v>615</v>
@@ -13217,16 +13217,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK52" t="n">
-        <v>224.6448456265488</v>
+        <v>200.6312180642944</v>
       </c>
       <c r="BL52" t="n">
-        <v>0</v>
+        <v>13.87201993962769</v>
       </c>
       <c r="BM52" t="n">
-        <v>766.0389235865315</v>
+        <v>684.1524535992438</v>
       </c>
       <c r="BN52" t="n">
-        <v>0</v>
+        <v>47.30358799413041</v>
       </c>
       <c r="BO52" t="n">
         <v>2434.800309597524</v>
@@ -13235,40 +13235,40 @@
         <v>8302.669055727558</v>
       </c>
       <c r="BQ52" t="n">
-        <v>0</v>
+        <v>-229.1052361189643</v>
       </c>
       <c r="BR52" t="n">
-        <v>0</v>
+        <v>-109.1542064291378</v>
       </c>
       <c r="BS52" t="n">
-        <v>0</v>
+        <v>-781.2488551656685</v>
       </c>
       <c r="BT52" t="n">
-        <v>0</v>
+        <v>-372.21584392336</v>
       </c>
       <c r="BU52" t="n">
-        <v>8302.669055727558</v>
+        <v>7521.420200561889</v>
       </c>
       <c r="BV52" t="n">
-        <v>8302.669055727558</v>
+        <v>8349.972643721689</v>
       </c>
       <c r="BW52" t="n">
-        <v>10.81076699964526</v>
+        <v>9.793515886148294</v>
       </c>
       <c r="BX52" t="n">
-        <v>10.81076699964526</v>
+        <v>10.87236021317928</v>
       </c>
       <c r="BY52" t="n">
-        <v>784.9310344827586</v>
+        <v>775.4</v>
       </c>
       <c r="BZ52" t="n">
-        <v>8141.220765940269</v>
+        <v>7624.872074899552</v>
       </c>
       <c r="CA52" t="n">
-        <v>10.3732202402652</v>
+        <v>9.83454231461204</v>
       </c>
       <c r="CB52" t="n">
-        <v>0</v>
+        <v>-555.9983923218125</v>
       </c>
     </row>
     <row r="53">
@@ -13431,16 +13431,16 @@
         <v>10.40950131154987</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>-0.3361508751185767</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>-0.1912755625993778</v>
       </c>
       <c r="BC53" t="n">
-        <v>0.1971430885114015</v>
+        <v>0.1661190329037492</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>0.02124372038455036</v>
       </c>
       <c r="BE53" t="n">
         <v>615</v>
@@ -13461,16 +13461,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK53" t="n">
-        <v>152.5951591840767</v>
+        <v>128.5815316218223</v>
       </c>
       <c r="BL53" t="n">
-        <v>0</v>
+        <v>16.44333016297955</v>
       </c>
       <c r="BM53" t="n">
-        <v>520.3494928177014</v>
+        <v>438.4630228304139</v>
       </c>
       <c r="BN53" t="n">
-        <v>0</v>
+        <v>56.07175585576028</v>
       </c>
       <c r="BO53" t="n">
         <v>2384.840963622291</v>
@@ -13479,40 +13479,40 @@
         <v>8132.307685952012</v>
       </c>
       <c r="BQ53" t="n">
-        <v>0</v>
+        <v>-167.1149974220612</v>
       </c>
       <c r="BR53" t="n">
-        <v>0</v>
+        <v>-95.09127453386138</v>
       </c>
       <c r="BS53" t="n">
-        <v>0</v>
+        <v>-569.8621412092286</v>
       </c>
       <c r="BT53" t="n">
-        <v>0</v>
+        <v>-324.2612461604673</v>
       </c>
       <c r="BU53" t="n">
-        <v>8132.307685952012</v>
+        <v>7562.445544742784</v>
       </c>
       <c r="BV53" t="n">
-        <v>8132.307685952012</v>
+        <v>8188.379441807772</v>
       </c>
       <c r="BW53" t="n">
-        <v>10.42603549481027</v>
+        <v>9.695443006080492</v>
       </c>
       <c r="BX53" t="n">
-        <v>10.42603549481027</v>
+        <v>10.49792236129202</v>
       </c>
       <c r="BY53" t="n">
-        <v>784.9310344827586</v>
+        <v>774.2</v>
       </c>
       <c r="BZ53" t="n">
-        <v>8141.220765940269</v>
+        <v>7609.96490394797</v>
       </c>
       <c r="CA53" t="n">
-        <v>10.3732202402652</v>
+        <v>9.830378651324144</v>
       </c>
       <c r="CB53" t="n">
-        <v>0</v>
+        <v>-616.3352618802043</v>
       </c>
     </row>
     <row r="54">
@@ -13675,16 +13675,16 @@
         <v>10.42897318485196</v>
       </c>
       <c r="BA54" t="n">
-        <v>0</v>
+        <v>-0.4292532177270587</v>
       </c>
       <c r="BB54" t="n">
-        <v>0</v>
+        <v>-0.2355449027660885</v>
       </c>
       <c r="BC54" t="n">
-        <v>0.2265042176510904</v>
+        <v>0.1954801620434381</v>
       </c>
       <c r="BD54" t="n">
-        <v>0</v>
+        <v>0.001771847082467914</v>
       </c>
       <c r="BE54" t="n">
         <v>615</v>
@@ -13705,16 +13705,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK54" t="n">
-        <v>175.3216276021463</v>
+        <v>151.3080000398919</v>
       </c>
       <c r="BL54" t="n">
-        <v>0</v>
+        <v>1.371467240574332</v>
       </c>
       <c r="BM54" t="n">
-        <v>597.8467501233188</v>
+        <v>515.9602801360312</v>
       </c>
       <c r="BN54" t="n">
-        <v>0</v>
+        <v>4.676703290358474</v>
       </c>
       <c r="BO54" t="n">
         <v>2419.869930340556</v>
@@ -13723,40 +13723,40 @@
         <v>8251.756462461297</v>
       </c>
       <c r="BQ54" t="n">
-        <v>0</v>
+        <v>-213.4001595223115</v>
       </c>
       <c r="BR54" t="n">
-        <v>0</v>
+        <v>-117.0994595942946</v>
       </c>
       <c r="BS54" t="n">
-        <v>0</v>
+        <v>-727.6945439710823</v>
       </c>
       <c r="BT54" t="n">
-        <v>0</v>
+        <v>-399.3091572165445</v>
       </c>
       <c r="BU54" t="n">
-        <v>8251.756462461297</v>
+        <v>7524.061918490214</v>
       </c>
       <c r="BV54" t="n">
-        <v>8251.756462461297</v>
+        <v>8256.433165751656</v>
       </c>
       <c r="BW54" t="n">
-        <v>10.44526134488772</v>
+        <v>9.524129010747107</v>
       </c>
       <c r="BX54" t="n">
-        <v>10.44526134488772</v>
+        <v>10.45118122247045</v>
       </c>
       <c r="BY54" t="n">
-        <v>784.9310344827586</v>
+        <v>775.2</v>
       </c>
       <c r="BZ54" t="n">
-        <v>8141.220765940269</v>
+        <v>7591.493433095292</v>
       </c>
       <c r="CA54" t="n">
-        <v>10.3732202402652</v>
+        <v>9.79471546678475</v>
       </c>
       <c r="CB54" t="n">
-        <v>0</v>
+        <v>-640.6812627251427</v>
       </c>
     </row>
     <row r="55">
@@ -13919,16 +13919,16 @@
         <v>10.46191493205495</v>
       </c>
       <c r="BA55" t="n">
-        <v>0</v>
+        <v>-0.4602650883086739</v>
       </c>
       <c r="BB55" t="n">
-        <v>0</v>
+        <v>-0.2073127617489696</v>
       </c>
       <c r="BC55" t="n">
-        <v>0.2528064820468307</v>
+        <v>0.2217824264391783</v>
       </c>
       <c r="BD55" t="n">
-        <v>0</v>
+        <v>-0.0311699001205259</v>
       </c>
       <c r="BE55" t="n">
         <v>615</v>
@@ -13949,16 +13949,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK55" t="n">
-        <v>195.68043527162</v>
+        <v>171.6668077093655</v>
       </c>
       <c r="BL55" t="n">
-        <v>0</v>
+        <v>-24.12651595629406</v>
       </c>
       <c r="BM55" t="n">
-        <v>667.2702842762241</v>
+        <v>585.3838142889365</v>
       </c>
       <c r="BN55" t="n">
-        <v>0</v>
+        <v>-82.27141941096274</v>
       </c>
       <c r="BO55" t="n">
         <v>2430.780592105264</v>
@@ -13967,40 +13967,40 @@
         <v>8288.961819078952</v>
       </c>
       <c r="BQ55" t="n">
-        <v>0</v>
+        <v>-228.8174886322589</v>
       </c>
       <c r="BR55" t="n">
-        <v>0</v>
+        <v>-103.0640531071604</v>
       </c>
       <c r="BS55" t="n">
-        <v>0</v>
+        <v>-780.2676362360029</v>
       </c>
       <c r="BT55" t="n">
-        <v>0</v>
+        <v>-351.448421095417</v>
       </c>
       <c r="BU55" t="n">
-        <v>8288.961819078952</v>
+        <v>7508.694182842949</v>
       </c>
       <c r="BV55" t="n">
-        <v>8288.961819078952</v>
+        <v>8206.690399667988</v>
       </c>
       <c r="BW55" t="n">
-        <v>10.50565503051832</v>
+        <v>9.516722665200188</v>
       </c>
       <c r="BX55" t="n">
-        <v>10.50565503051832</v>
+        <v>10.40138200211405</v>
       </c>
       <c r="BY55" t="n">
-        <v>784.9310344827586</v>
+        <v>779</v>
       </c>
       <c r="BZ55" t="n">
-        <v>8141.220765940269</v>
+        <v>7562.193628715444</v>
       </c>
       <c r="CA55" t="n">
-        <v>10.3732202402652</v>
+        <v>9.709698128463179</v>
       </c>
       <c r="CB55" t="n">
-        <v>0</v>
+        <v>-688.3879277474058</v>
       </c>
     </row>
     <row r="56">
@@ -14163,16 +14163,16 @@
         <v>10.47933189114634</v>
       </c>
       <c r="BA56" t="n">
-        <v>0</v>
+        <v>-0.5039899874535028</v>
       </c>
       <c r="BB56" t="n">
-        <v>0</v>
+        <v>-0.1418285946211757</v>
       </c>
       <c r="BC56" t="n">
-        <v>0.3445985892280634</v>
+        <v>0.313574533620411</v>
       </c>
       <c r="BD56" t="n">
-        <v>0</v>
+        <v>-0.04858685921191608</v>
       </c>
       <c r="BE56" t="n">
         <v>615</v>
@@ -14193,16 +14193,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK56" t="n">
-        <v>266.7305101838427</v>
+        <v>242.7168826215882</v>
       </c>
       <c r="BL56" t="n">
-        <v>0</v>
+        <v>-37.60780847900671</v>
       </c>
       <c r="BM56" t="n">
-        <v>909.5510397269036</v>
+        <v>827.6645697396158</v>
       </c>
       <c r="BN56" t="n">
-        <v>0</v>
+        <v>-128.2426269134129</v>
       </c>
       <c r="BO56" t="n">
         <v>2473.848993808049</v>
@@ -14211,40 +14211,40 @@
         <v>8435.825068885448</v>
       </c>
       <c r="BQ56" t="n">
-        <v>0</v>
+        <v>-250.5550087422107</v>
       </c>
       <c r="BR56" t="n">
-        <v>0</v>
+        <v>-70.50906892963347</v>
       </c>
       <c r="BS56" t="n">
-        <v>0</v>
+        <v>-854.3925798109385</v>
       </c>
       <c r="BT56" t="n">
-        <v>0</v>
+        <v>-240.4359250500501</v>
       </c>
       <c r="BU56" t="n">
-        <v>8435.825068885448</v>
+        <v>7581.432489074509</v>
       </c>
       <c r="BV56" t="n">
-        <v>8435.825068885448</v>
+        <v>8307.582441972036</v>
       </c>
       <c r="BW56" t="n">
-        <v>10.69179349668625</v>
+        <v>9.608913167394816</v>
       </c>
       <c r="BX56" t="n">
-        <v>10.69179349668625</v>
+        <v>10.52925531301906</v>
       </c>
       <c r="BY56" t="n">
-        <v>784.9310344827586</v>
+        <v>783.2</v>
       </c>
       <c r="BZ56" t="n">
-        <v>8141.220765940269</v>
+        <v>7539.610867142471</v>
       </c>
       <c r="CA56" t="n">
-        <v>10.3732202402652</v>
+        <v>9.627744747114178</v>
       </c>
       <c r="CB56" t="n">
-        <v>0</v>
+        <v>-742.6931512785848</v>
       </c>
     </row>
     <row r="57">
@@ -14407,16 +14407,16 @@
         <v>10.45547118704959</v>
       </c>
       <c r="BA57" t="n">
-        <v>0</v>
+        <v>-0.3633628941064302</v>
       </c>
       <c r="BB57" t="n">
-        <v>0</v>
+        <v>-0.1361383289297144</v>
       </c>
       <c r="BC57" t="n">
-        <v>0.2335224656691982</v>
+        <v>0.2024984100615459</v>
       </c>
       <c r="BD57" t="n">
-        <v>0</v>
+        <v>-0.02472615511516985</v>
       </c>
       <c r="BE57" t="n">
         <v>615</v>
@@ -14437,16 +14437,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK57" t="n">
-        <v>180.7539797155431</v>
+        <v>156.7403521532887</v>
       </c>
       <c r="BL57" t="n">
-        <v>0</v>
+        <v>-19.13884785056161</v>
       </c>
       <c r="BM57" t="n">
-        <v>616.3710708300019</v>
+        <v>534.4846008427144</v>
       </c>
       <c r="BN57" t="n">
-        <v>0</v>
+        <v>-65.2634711704151</v>
       </c>
       <c r="BO57" t="n">
         <v>2396.90011609907</v>
@@ -14455,40 +14455,40 @@
         <v>8173.42939589783</v>
       </c>
       <c r="BQ57" t="n">
-        <v>0</v>
+        <v>-180.643257556443</v>
       </c>
       <c r="BR57" t="n">
-        <v>0</v>
+        <v>-67.68019413933595</v>
       </c>
       <c r="BS57" t="n">
-        <v>0</v>
+        <v>-615.9935082674707</v>
       </c>
       <c r="BT57" t="n">
-        <v>0</v>
+        <v>-230.7894620151356</v>
       </c>
       <c r="BU57" t="n">
-        <v>8173.42939589783</v>
+        <v>7557.435887630359</v>
       </c>
       <c r="BV57" t="n">
-        <v>8173.42939589783</v>
+        <v>8108.165924727415</v>
       </c>
       <c r="BW57" t="n">
-        <v>10.35922610379953</v>
+        <v>9.578499223866107</v>
       </c>
       <c r="BX57" t="n">
-        <v>10.35922610379953</v>
+        <v>10.27650941030091</v>
       </c>
       <c r="BY57" t="n">
-        <v>784.9310344827586</v>
+        <v>787.4</v>
       </c>
       <c r="BZ57" t="n">
-        <v>8141.220765940269</v>
+        <v>7546.814004556165</v>
       </c>
       <c r="CA57" t="n">
-        <v>10.3732202402652</v>
+        <v>9.584741414657742</v>
       </c>
       <c r="CB57" t="n">
-        <v>0</v>
+        <v>-709.6420818989452</v>
       </c>
     </row>
     <row r="58">
@@ -14651,16 +14651,16 @@
         <v>10.46325539580836</v>
       </c>
       <c r="BA58" t="n">
-        <v>0</v>
+        <v>-0.1124384066036406</v>
       </c>
       <c r="BB58" t="n">
-        <v>0</v>
+        <v>-0.1124332088629618</v>
       </c>
       <c r="BC58" t="n">
-        <v>0</v>
+        <v>-0.03250516613326226</v>
       </c>
       <c r="BD58" t="n">
-        <v>0</v>
+        <v>-0.03251036387394102</v>
       </c>
       <c r="BE58" t="n">
         <v>615</v>
@@ -14681,16 +14681,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK58" t="n">
-        <v>0</v>
+        <v>-25.1600552566323</v>
       </c>
       <c r="BL58" t="n">
-        <v>0</v>
+        <v>-25.16407847688445</v>
       </c>
       <c r="BM58" t="n">
-        <v>0</v>
+        <v>-85.79578842511614</v>
       </c>
       <c r="BN58" t="n">
-        <v>0</v>
+        <v>-85.80950760617597</v>
       </c>
       <c r="BO58" t="n">
         <v>2327.416428018576</v>
@@ -14699,40 +14699,40 @@
         <v>7936.490019543346</v>
       </c>
       <c r="BQ58" t="n">
-        <v>0</v>
+        <v>-55.89794767923739</v>
       </c>
       <c r="BR58" t="n">
-        <v>0</v>
+        <v>-55.89536365972585</v>
       </c>
       <c r="BS58" t="n">
-        <v>0</v>
+        <v>-190.6120015861995</v>
       </c>
       <c r="BT58" t="n">
-        <v>0</v>
+        <v>-190.6031900796652</v>
       </c>
       <c r="BU58" t="n">
-        <v>7936.490019543346</v>
+        <v>7745.878017957146</v>
       </c>
       <c r="BV58" t="n">
-        <v>7936.490019543346</v>
+        <v>7850.680511937169</v>
       </c>
       <c r="BW58" t="n">
-        <v>10.03348927881586</v>
+        <v>9.792513297038111</v>
       </c>
       <c r="BX58" t="n">
-        <v>10.03348927881586</v>
+        <v>9.925006968315005</v>
       </c>
       <c r="BY58" t="n">
-        <v>784.9310344827586</v>
+        <v>789.6</v>
       </c>
       <c r="BZ58" t="n">
-        <v>8141.220765940269</v>
+        <v>7583.500499199037</v>
       </c>
       <c r="CA58" t="n">
-        <v>10.3732202402652</v>
+        <v>9.604155472849266</v>
       </c>
       <c r="CB58" t="n">
-        <v>0</v>
+        <v>-633.7920539743393</v>
       </c>
     </row>
     <row r="59">
@@ -14895,16 +14895,16 @@
         <v>10.43577702461438</v>
       </c>
       <c r="BA59" t="n">
-        <v>0</v>
+        <v>-0.2369153591321886</v>
       </c>
       <c r="BB59" t="n">
-        <v>0</v>
+        <v>-0.1515459451574959</v>
       </c>
       <c r="BC59" t="n">
-        <v>0.1113614769023867</v>
+        <v>0.08033742129473431</v>
       </c>
       <c r="BD59" t="n">
-        <v>0</v>
+        <v>-0.005031992679958464</v>
       </c>
       <c r="BE59" t="n">
         <v>615</v>
@@ -14925,16 +14925,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK59" t="n">
-        <v>86.19740323237751</v>
+        <v>62.1837756701231</v>
       </c>
       <c r="BL59" t="n">
-        <v>0</v>
+        <v>-3.89492591299726</v>
       </c>
       <c r="BM59" t="n">
-        <v>293.9331450224073</v>
+        <v>212.0466750351198</v>
       </c>
       <c r="BN59" t="n">
-        <v>0</v>
+        <v>-13.28169736332066</v>
       </c>
       <c r="BO59" t="n">
         <v>2385.989454334365</v>
@@ -14943,40 +14943,40 @@
         <v>8136.224039280186</v>
       </c>
       <c r="BQ59" t="n">
-        <v>0</v>
+        <v>-117.7807721507682</v>
       </c>
       <c r="BR59" t="n">
-        <v>0</v>
+        <v>-75.33998007705672</v>
       </c>
       <c r="BS59" t="n">
-        <v>0</v>
+        <v>-401.6324330341195</v>
       </c>
       <c r="BT59" t="n">
-        <v>0</v>
+        <v>-256.9093320627634</v>
       </c>
       <c r="BU59" t="n">
-        <v>8136.224039280186</v>
+        <v>7734.591606246066</v>
       </c>
       <c r="BV59" t="n">
-        <v>8136.224039280186</v>
+        <v>8122.942341916865</v>
       </c>
       <c r="BW59" t="n">
-        <v>10.29901777124074</v>
+        <v>9.790622286387427</v>
       </c>
       <c r="BX59" t="n">
-        <v>10.29901777124074</v>
+        <v>10.2822054960973</v>
       </c>
       <c r="BY59" t="n">
-        <v>784.9310344827586</v>
+        <v>789.6</v>
       </c>
       <c r="BZ59" t="n">
-        <v>8141.220765940269</v>
+        <v>7625.606436750207</v>
       </c>
       <c r="CA59" t="n">
-        <v>10.3732202402652</v>
+        <v>9.657454127977328</v>
       </c>
       <c r="CB59" t="n">
-        <v>0</v>
+        <v>-568.5796317869468</v>
       </c>
     </row>
     <row r="60">
@@ -15139,16 +15139,16 @@
         <v>10.5037797451912</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>-0.4217615473365495</v>
       </c>
       <c r="BB60" t="n">
-        <v>0</v>
+        <v>-0.1628955679122566</v>
       </c>
       <c r="BC60" t="n">
-        <v>0.2168553217751709</v>
+        <v>0.1858312661675185</v>
       </c>
       <c r="BD60" t="n">
-        <v>0</v>
+        <v>-0.07303471325677435</v>
       </c>
       <c r="BE60" t="n">
         <v>615</v>
@@ -15169,16 +15169,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK60" t="n">
-        <v>167.8530685303867</v>
+        <v>143.8394409681323</v>
       </c>
       <c r="BL60" t="n">
-        <v>0</v>
+        <v>-56.53124225420834</v>
       </c>
       <c r="BM60" t="n">
-        <v>572.3789636886187</v>
+        <v>490.4924937013312</v>
       </c>
       <c r="BN60" t="n">
-        <v>0</v>
+        <v>-192.7715360868505</v>
       </c>
       <c r="BO60" t="n">
         <v>2430.206346749225</v>
@@ -15187,40 +15187,40 @@
         <v>8287.003642414857</v>
       </c>
       <c r="BQ60" t="n">
-        <v>0</v>
+        <v>-209.6757293016397</v>
       </c>
       <c r="BR60" t="n">
-        <v>0</v>
+        <v>-80.98236365477057</v>
       </c>
       <c r="BS60" t="n">
-        <v>0</v>
+        <v>-714.9942369185915</v>
       </c>
       <c r="BT60" t="n">
-        <v>0</v>
+        <v>-276.1498600627676</v>
       </c>
       <c r="BU60" t="n">
-        <v>8287.003642414857</v>
+        <v>7572.009405496265</v>
       </c>
       <c r="BV60" t="n">
-        <v>8287.003642414857</v>
+        <v>8094.232106328006</v>
       </c>
       <c r="BW60" t="n">
-        <v>10.50317318430273</v>
+        <v>9.596970095686013</v>
       </c>
       <c r="BX60" t="n">
-        <v>10.50317318430273</v>
+        <v>10.25884931093537</v>
       </c>
       <c r="BY60" t="n">
-        <v>784.9310344827586</v>
+        <v>789.6</v>
       </c>
       <c r="BZ60" t="n">
-        <v>8141.220765940269</v>
+        <v>7638.269481280871</v>
       </c>
       <c r="CA60" t="n">
-        <v>10.3732202402652</v>
+        <v>9.673503614074495</v>
       </c>
       <c r="CB60" t="n">
-        <v>0</v>
+        <v>-555.5249519234645</v>
       </c>
     </row>
     <row r="61">
@@ -15383,16 +15383,16 @@
         <v>10.5192378108954</v>
       </c>
       <c r="BA61" t="n">
-        <v>0</v>
+        <v>-0.4325381137627904</v>
       </c>
       <c r="BB61" t="n">
-        <v>0</v>
+        <v>-0.2286430851871248</v>
       </c>
       <c r="BC61" t="n">
-        <v>0.1464263052223399</v>
+        <v>0.1154022496146876</v>
       </c>
       <c r="BD61" t="n">
-        <v>0</v>
+        <v>-0.08849277896097796</v>
       </c>
       <c r="BE61" t="n">
         <v>615</v>
@@ -15413,16 +15413,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK61" t="n">
-        <v>113.3387202303414</v>
+        <v>89.32509266808692</v>
       </c>
       <c r="BL61" t="n">
-        <v>0</v>
+        <v>-68.49628761604178</v>
       </c>
       <c r="BM61" t="n">
-        <v>386.485035985464</v>
+        <v>304.5985659981764</v>
       </c>
       <c r="BN61" t="n">
-        <v>0</v>
+        <v>-233.5723407707025</v>
       </c>
       <c r="BO61" t="n">
         <v>2409.533513931889</v>
@@ -15431,40 +15431,40 @@
         <v>8216.509282507743</v>
       </c>
       <c r="BQ61" t="n">
-        <v>0</v>
+        <v>-215.0332220343439</v>
       </c>
       <c r="BR61" t="n">
-        <v>0</v>
+        <v>-113.6682704697409</v>
       </c>
       <c r="BS61" t="n">
-        <v>0</v>
+        <v>-733.2632871371128</v>
       </c>
       <c r="BT61" t="n">
-        <v>0</v>
+        <v>-387.6088023018166</v>
       </c>
       <c r="BU61" t="n">
-        <v>8216.509282507743</v>
+        <v>7483.24599537063</v>
       </c>
       <c r="BV61" t="n">
-        <v>8216.509282507743</v>
+        <v>7982.93694173704</v>
       </c>
       <c r="BW61" t="n">
-        <v>10.64314673899967</v>
+        <v>9.693323828200299</v>
       </c>
       <c r="BX61" t="n">
-        <v>10.64314673899967</v>
+        <v>10.34059189344176</v>
       </c>
       <c r="BY61" t="n">
-        <v>784.9310344827586</v>
+        <v>786.2</v>
       </c>
       <c r="BZ61" t="n">
-        <v>8141.220765940269</v>
+        <v>7618.632182540096</v>
       </c>
       <c r="CA61" t="n">
-        <v>10.3732202402652</v>
+        <v>9.690385746235592</v>
       </c>
       <c r="CB61" t="n">
-        <v>0</v>
+        <v>-531.2990933886992</v>
       </c>
     </row>
     <row r="62">
@@ -15627,16 +15627,16 @@
         <v>10.50902628688688</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>-0.2309173784742562</v>
       </c>
       <c r="BB62" t="n">
-        <v>0</v>
+        <v>-0.1311478857702646</v>
       </c>
       <c r="BC62" t="n">
-        <v>0.05251229335918253</v>
+        <v>0.02148823775153019</v>
       </c>
       <c r="BD62" t="n">
-        <v>0</v>
+        <v>-0.07828125495246141</v>
       </c>
       <c r="BE62" t="n">
         <v>615</v>
@@ -15657,16 +15657,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK62" t="n">
-        <v>40.64622211598335</v>
+        <v>16.63259455372892</v>
       </c>
       <c r="BL62" t="n">
-        <v>0</v>
+        <v>-60.59223607988314</v>
       </c>
       <c r="BM62" t="n">
-        <v>138.6036174155032</v>
+        <v>56.71714742821563</v>
       </c>
       <c r="BN62" t="n">
-        <v>0</v>
+        <v>-206.6195250324015</v>
       </c>
       <c r="BO62" t="n">
         <v>2345.218034055728</v>
@@ -15675,40 +15675,40 @@
         <v>7997.193496130032</v>
       </c>
       <c r="BQ62" t="n">
-        <v>0</v>
+        <v>-114.7989190711521</v>
       </c>
       <c r="BR62" t="n">
-        <v>0</v>
+        <v>-65.19923110322242</v>
       </c>
       <c r="BS62" t="n">
-        <v>0</v>
+        <v>-391.4643140326287</v>
       </c>
       <c r="BT62" t="n">
-        <v>0</v>
+        <v>-222.3293780619885</v>
       </c>
       <c r="BU62" t="n">
-        <v>7997.193496130032</v>
+        <v>7605.729182097403</v>
       </c>
       <c r="BV62" t="n">
-        <v>7997.193496130032</v>
+        <v>7790.57397109763</v>
       </c>
       <c r="BW62" t="n">
-        <v>10.34565782164299</v>
+        <v>9.839235681885386</v>
       </c>
       <c r="BX62" t="n">
-        <v>10.34565782164299</v>
+        <v>10.07836218770715</v>
       </c>
       <c r="BY62" t="n">
-        <v>784.9310344827586</v>
+        <v>783</v>
       </c>
       <c r="BZ62" t="n">
-        <v>8141.220765940269</v>
+        <v>7628.290841433503</v>
       </c>
       <c r="CA62" t="n">
-        <v>10.3732202402652</v>
+        <v>9.742533037839447</v>
       </c>
       <c r="CB62" t="n">
-        <v>0</v>
+        <v>-486.3932545417309</v>
       </c>
     </row>
     <row r="63">
@@ -15871,16 +15871,16 @@
         <v>10.53810460728466</v>
       </c>
       <c r="BA63" t="n">
-        <v>0</v>
+        <v>-0.2350253960240583</v>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>-0.09695112257939797</v>
       </c>
       <c r="BC63" t="n">
-        <v>0.06173875370207696</v>
+        <v>0.03071469809442462</v>
       </c>
       <c r="BD63" t="n">
-        <v>0</v>
+        <v>-0.1073595753502357</v>
       </c>
       <c r="BE63" t="n">
         <v>615</v>
@@ -15901,16 +15901,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK63" t="n">
-        <v>47.78780235275701</v>
+        <v>23.77417479050258</v>
       </c>
       <c r="BL63" t="n">
-        <v>0</v>
+        <v>-83.09980133823773</v>
       </c>
       <c r="BM63" t="n">
-        <v>162.9564060229014</v>
+        <v>81.06993603561381</v>
       </c>
       <c r="BN63" t="n">
-        <v>0</v>
+        <v>-283.3703225633906</v>
       </c>
       <c r="BO63" t="n">
         <v>2350.960487616098</v>
@@ -15919,40 +15919,40 @@
         <v>8016.775262770894</v>
       </c>
       <c r="BQ63" t="n">
-        <v>0</v>
+        <v>-116.841190542267</v>
       </c>
       <c r="BR63" t="n">
-        <v>0</v>
+        <v>-48.19855546771016</v>
       </c>
       <c r="BS63" t="n">
-        <v>0</v>
+        <v>-398.4284597491304</v>
       </c>
       <c r="BT63" t="n">
-        <v>0</v>
+        <v>-164.3570741448916</v>
       </c>
       <c r="BU63" t="n">
-        <v>8016.775262770894</v>
+        <v>7618.346803021764</v>
       </c>
       <c r="BV63" t="n">
-        <v>8016.775262770894</v>
+        <v>7733.404940207503</v>
       </c>
       <c r="BW63" t="n">
-        <v>10.12219098834709</v>
+        <v>9.619124751290105</v>
       </c>
       <c r="BX63" t="n">
-        <v>10.12219098834709</v>
+        <v>9.764400177029676</v>
       </c>
       <c r="BY63" t="n">
-        <v>784.9310344827586</v>
+        <v>783.2</v>
       </c>
       <c r="BZ63" t="n">
-        <v>8141.220765940269</v>
+        <v>7602.784598446427</v>
       </c>
       <c r="CA63" t="n">
-        <v>10.3732202402652</v>
+        <v>9.707855328689845</v>
       </c>
       <c r="CB63" t="n">
-        <v>0</v>
+        <v>-527.9565461743171</v>
       </c>
     </row>
     <row r="64">
@@ -16115,16 +16115,16 @@
         <v>10.49672680209128</v>
       </c>
       <c r="BA64" t="n">
-        <v>0</v>
+        <v>-0.3710663898464883</v>
       </c>
       <c r="BB64" t="n">
-        <v>0</v>
+        <v>-0.108361173061148</v>
       </c>
       <c r="BC64" t="n">
-        <v>0.2277475022361345</v>
+        <v>0.1967234466284822</v>
       </c>
       <c r="BD64" t="n">
-        <v>0</v>
+        <v>-0.06598177015685813</v>
       </c>
       <c r="BE64" t="n">
         <v>615</v>
@@ -16145,16 +16145,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK64" t="n">
-        <v>176.2839702873424</v>
+        <v>152.2703427250879</v>
       </c>
       <c r="BL64" t="n">
-        <v>0</v>
+        <v>-51.0720350196331</v>
       </c>
       <c r="BM64" t="n">
-        <v>601.1283386798375</v>
+        <v>519.2418686925498</v>
       </c>
       <c r="BN64" t="n">
-        <v>0</v>
+        <v>-174.1556394169489</v>
       </c>
       <c r="BO64" t="n">
         <v>2389.434926470589</v>
@@ -16163,40 +16163,40 @@
         <v>8147.973099264708</v>
       </c>
       <c r="BQ64" t="n">
-        <v>0</v>
+        <v>-184.4729952308922</v>
       </c>
       <c r="BR64" t="n">
-        <v>0</v>
+        <v>-53.87098025664051</v>
       </c>
       <c r="BS64" t="n">
-        <v>0</v>
+        <v>-629.0529137373425</v>
       </c>
       <c r="BT64" t="n">
-        <v>0</v>
+        <v>-183.7000426751442</v>
       </c>
       <c r="BU64" t="n">
-        <v>8147.973099264708</v>
+        <v>7518.920185527366</v>
       </c>
       <c r="BV64" t="n">
-        <v>8147.973099264708</v>
+        <v>7973.817459847759</v>
       </c>
       <c r="BW64" t="n">
-        <v>10.27487149970329</v>
+        <v>9.481614357537662</v>
       </c>
       <c r="BX64" t="n">
-        <v>10.27487149970329</v>
+        <v>10.05525530876136</v>
       </c>
       <c r="BY64" t="n">
-        <v>784.9310344827586</v>
+        <v>783.8</v>
       </c>
       <c r="BZ64" t="n">
-        <v>8141.220765940269</v>
+        <v>7559.650314302688</v>
       </c>
       <c r="CA64" t="n">
-        <v>10.3732202402652</v>
+        <v>9.646053742919893</v>
       </c>
       <c r="CB64" t="n">
-        <v>0</v>
+        <v>-573.4406423149617</v>
       </c>
     </row>
     <row r="65">
@@ -16359,16 +16359,16 @@
         <v>10.50141812516395</v>
       </c>
       <c r="BA65" t="n">
-        <v>0</v>
+        <v>-0.1647362882473562</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>-0.04137056663891236</v>
       </c>
       <c r="BC65" t="n">
-        <v>0.08371668398656965</v>
+        <v>0.05269262837891731</v>
       </c>
       <c r="BD65" t="n">
-        <v>0</v>
+        <v>-0.07067309322952653</v>
       </c>
       <c r="BE65" t="n">
         <v>615</v>
@@ -16389,16 +16389,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK65" t="n">
-        <v>64.79943484579641</v>
+        <v>40.78580728354199</v>
       </c>
       <c r="BL65" t="n">
-        <v>0</v>
+        <v>-54.70327158218885</v>
       </c>
       <c r="BM65" t="n">
-        <v>220.9660728241658</v>
+        <v>139.0796028368782</v>
       </c>
       <c r="BN65" t="n">
-        <v>0</v>
+        <v>-186.538156095264</v>
       </c>
       <c r="BO65" t="n">
         <v>2336.030108359133</v>
@@ -16407,40 +16407,40 @@
         <v>7965.862669504645</v>
       </c>
       <c r="BQ65" t="n">
-        <v>0</v>
+        <v>-81.89746457172164</v>
       </c>
       <c r="BR65" t="n">
-        <v>0</v>
+        <v>-20.56708058478882</v>
       </c>
       <c r="BS65" t="n">
-        <v>0</v>
+        <v>-279.2703541895708</v>
       </c>
       <c r="BT65" t="n">
-        <v>0</v>
+        <v>-70.13374479412988</v>
       </c>
       <c r="BU65" t="n">
-        <v>7965.862669504645</v>
+        <v>7686.592315315074</v>
       </c>
       <c r="BV65" t="n">
-        <v>7965.862669504645</v>
+        <v>7779.324513409381</v>
       </c>
       <c r="BW65" t="n">
-        <v>10.03257263161794</v>
+        <v>9.680846744729312</v>
       </c>
       <c r="BX65" t="n">
-        <v>10.03257263161794</v>
+        <v>9.797637926208289</v>
       </c>
       <c r="BY65" t="n">
-        <v>784.9310344827586</v>
+        <v>784.8</v>
       </c>
       <c r="BZ65" t="n">
-        <v>8141.220765940269</v>
+        <v>7582.566896266449</v>
       </c>
       <c r="CA65" t="n">
-        <v>10.3732202402652</v>
+        <v>9.662829072728552</v>
       </c>
       <c r="CB65" t="n">
-        <v>0</v>
+        <v>-486.2958657691576</v>
       </c>
     </row>
     <row r="66">
@@ -16603,16 +16603,16 @@
         <v>10.52709434639447</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>-0.4501197689190413</v>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>-0.1542155427745531</v>
       </c>
       <c r="BC66" t="n">
-        <v>0.2305789672920896</v>
+        <v>0.1995549116844373</v>
       </c>
       <c r="BD66" t="n">
-        <v>0</v>
+        <v>-0.09634931446005091</v>
       </c>
       <c r="BE66" t="n">
         <v>615</v>
@@ -16633,16 +16633,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK66" t="n">
-        <v>178.4756162851813</v>
+        <v>154.4619887229269</v>
       </c>
       <c r="BL66" t="n">
-        <v>0</v>
+        <v>-74.57750149053707</v>
       </c>
       <c r="BM66" t="n">
-        <v>608.6018515324681</v>
+        <v>526.7153815451807</v>
       </c>
       <c r="BN66" t="n">
-        <v>0</v>
+        <v>-254.3092800827314</v>
       </c>
       <c r="BO66" t="n">
         <v>2422.741157120743</v>
@@ -16651,40 +16651,40 @@
         <v>8261.547345781733</v>
       </c>
       <c r="BQ66" t="n">
-        <v>0</v>
+        <v>-223.7738158378734</v>
       </c>
       <c r="BR66" t="n">
-        <v>0</v>
+        <v>-76.66715139182745</v>
       </c>
       <c r="BS66" t="n">
-        <v>0</v>
+        <v>-763.0687120071482</v>
       </c>
       <c r="BT66" t="n">
-        <v>0</v>
+        <v>-261.4349862461316</v>
       </c>
       <c r="BU66" t="n">
-        <v>8261.547345781733</v>
+        <v>7498.478633774585</v>
       </c>
       <c r="BV66" t="n">
-        <v>8261.547345781733</v>
+        <v>8007.238065699002</v>
       </c>
       <c r="BW66" t="n">
-        <v>10.40497146823896</v>
+        <v>9.443927750345825</v>
       </c>
       <c r="BX66" t="n">
-        <v>10.40497146823896</v>
+        <v>10.08468270239169</v>
       </c>
       <c r="BY66" t="n">
-        <v>784.9310344827586</v>
+        <v>789.2</v>
       </c>
       <c r="BZ66" t="n">
-        <v>8141.220765940269</v>
+        <v>7585.61342394724</v>
       </c>
       <c r="CA66" t="n">
-        <v>10.3732202402652</v>
+        <v>9.612949857157657</v>
       </c>
       <c r="CB66" t="n">
-        <v>0</v>
+        <v>-492.2569507431646</v>
       </c>
     </row>
     <row r="67">
@@ -16847,16 +16847,16 @@
         <v>10.52306543388457</v>
       </c>
       <c r="BA67" t="n">
-        <v>0</v>
+        <v>-0.2841761307102537</v>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>-0.0859329430814082</v>
       </c>
       <c r="BC67" t="n">
-        <v>0.1369468412863474</v>
+        <v>0.1059227856786951</v>
       </c>
       <c r="BD67" t="n">
-        <v>0</v>
+        <v>-0.09232040195015045</v>
       </c>
       <c r="BE67" t="n">
         <v>615</v>
@@ -16877,16 +16877,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK67" t="n">
-        <v>106.0013069879348</v>
+        <v>81.98767942568033</v>
       </c>
       <c r="BL67" t="n">
-        <v>0</v>
+        <v>-71.45899223703401</v>
       </c>
       <c r="BM67" t="n">
-        <v>361.4644568288575</v>
+        <v>279.57798684157</v>
       </c>
       <c r="BN67" t="n">
-        <v>0</v>
+        <v>-243.675163528286</v>
       </c>
       <c r="BO67" t="n">
         <v>2362.445394736843</v>
@@ -16895,40 +16895,40 @@
         <v>8055.938796052635</v>
       </c>
       <c r="BQ67" t="n">
-        <v>0</v>
+        <v>-141.2761258893148</v>
       </c>
       <c r="BR67" t="n">
-        <v>0</v>
+        <v>-42.72094652870963</v>
       </c>
       <c r="BS67" t="n">
-        <v>0</v>
+        <v>-481.7515892825634</v>
       </c>
       <c r="BT67" t="n">
-        <v>0</v>
+        <v>-145.6784276628998</v>
       </c>
       <c r="BU67" t="n">
-        <v>8055.938796052635</v>
+        <v>7574.187206770071</v>
       </c>
       <c r="BV67" t="n">
-        <v>8055.938796052635</v>
+        <v>7812.263632524348</v>
       </c>
       <c r="BW67" t="n">
-        <v>10.146018634827</v>
+        <v>9.539278597947193</v>
       </c>
       <c r="BX67" t="n">
-        <v>10.146018634827</v>
+        <v>9.839122962877013</v>
       </c>
       <c r="BY67" t="n">
-        <v>784.9310344827586</v>
+        <v>793.4</v>
       </c>
       <c r="BZ67" t="n">
-        <v>8141.220765940269</v>
+        <v>7579.305028881774</v>
       </c>
       <c r="CA67" t="n">
-        <v>10.3732202402652</v>
+        <v>9.55295844037002</v>
       </c>
       <c r="CB67" t="n">
-        <v>0</v>
+        <v>-510.3144057931516</v>
       </c>
     </row>
     <row r="68">
@@ -17091,16 +17091,16 @@
         <v>10.57560532518563</v>
       </c>
       <c r="BA68" t="n">
-        <v>0</v>
+        <v>-0.4286509237597222</v>
       </c>
       <c r="BB68" t="n">
-        <v>0</v>
+        <v>-0.1314990519600787</v>
       </c>
       <c r="BC68" t="n">
-        <v>0.1833156341560846</v>
+        <v>0.1522915785484322</v>
       </c>
       <c r="BD68" t="n">
-        <v>0</v>
+        <v>-0.1448602932512113</v>
       </c>
       <c r="BE68" t="n">
         <v>615</v>
@@ -17121,16 +17121,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK68" t="n">
-        <v>141.8922600137711</v>
+        <v>117.8786324515168</v>
       </c>
       <c r="BL68" t="n">
-        <v>0</v>
+        <v>-112.1265760571779</v>
       </c>
       <c r="BM68" t="n">
-        <v>483.8526066469596</v>
+        <v>401.9661366596721</v>
       </c>
       <c r="BN68" t="n">
-        <v>0</v>
+        <v>-382.3516243549767</v>
       </c>
       <c r="BO68" t="n">
         <v>2402.068324303405</v>
@@ -17139,40 +17139,40 @@
         <v>8191.052985874609</v>
       </c>
       <c r="BQ68" t="n">
-        <v>0</v>
+        <v>-213.1007333947929</v>
       </c>
       <c r="BR68" t="n">
-        <v>0</v>
+        <v>-65.37381085668819</v>
       </c>
       <c r="BS68" t="n">
-        <v>0</v>
+        <v>-726.6735008762437</v>
       </c>
       <c r="BT68" t="n">
-        <v>0</v>
+        <v>-222.9246950213067</v>
       </c>
       <c r="BU68" t="n">
-        <v>8191.052985874609</v>
+        <v>7464.379484998366</v>
       </c>
       <c r="BV68" t="n">
-        <v>8191.052985874609</v>
+        <v>7808.701361519633</v>
       </c>
       <c r="BW68" t="n">
-        <v>10.32919670349888</v>
+        <v>9.412836677173223</v>
       </c>
       <c r="BX68" t="n">
-        <v>10.32919670349888</v>
+        <v>9.847038286910003</v>
       </c>
       <c r="BY68" t="n">
-        <v>784.9310344827586</v>
+        <v>793.6</v>
       </c>
       <c r="BZ68" t="n">
-        <v>8141.220765940269</v>
+        <v>7548.511565277094</v>
       </c>
       <c r="CA68" t="n">
-        <v>10.3732202402652</v>
+        <v>9.511700825546644</v>
       </c>
       <c r="CB68" t="n">
-        <v>0</v>
+        <v>-575.9634140185742</v>
       </c>
     </row>
     <row r="69">
@@ -17335,16 +17335,16 @@
         <v>10.56995784034371</v>
       </c>
       <c r="BA69" t="n">
-        <v>0</v>
+        <v>-0.4444280874337423</v>
       </c>
       <c r="BB69" t="n">
-        <v>0</v>
+        <v>-0.09734113495853336</v>
       </c>
       <c r="BC69" t="n">
-        <v>0.2388981996735745</v>
+        <v>0.2078741440659222</v>
       </c>
       <c r="BD69" t="n">
-        <v>0</v>
+        <v>-0.1392128084092867</v>
       </c>
       <c r="BE69" t="n">
         <v>615</v>
@@ -17365,16 +17365,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK69" t="n">
-        <v>184.9149725878933</v>
+        <v>160.9013450256389</v>
       </c>
       <c r="BL69" t="n">
-        <v>0</v>
+        <v>-107.7552392025597</v>
       </c>
       <c r="BM69" t="n">
-        <v>630.5600565247163</v>
+        <v>548.6735865374287</v>
       </c>
       <c r="BN69" t="n">
-        <v>0</v>
+        <v>-367.4453656807287</v>
       </c>
       <c r="BO69" t="n">
         <v>2401.494078947369</v>
@@ -17383,40 +17383,40 @@
         <v>8189.094809210528</v>
       </c>
       <c r="BQ69" t="n">
-        <v>0</v>
+        <v>-220.9442371958204</v>
       </c>
       <c r="BR69" t="n">
-        <v>0</v>
+        <v>-48.39244732567659</v>
       </c>
       <c r="BS69" t="n">
-        <v>0</v>
+        <v>-753.4198488377476</v>
       </c>
       <c r="BT69" t="n">
-        <v>0</v>
+        <v>-165.0182453805572</v>
       </c>
       <c r="BU69" t="n">
-        <v>8189.094809210528</v>
+        <v>7435.67496037278</v>
       </c>
       <c r="BV69" t="n">
-        <v>8189.094809210528</v>
+        <v>7821.649443529799</v>
       </c>
       <c r="BW69" t="n">
-        <v>10.32672737605363</v>
+        <v>9.376639294291023</v>
       </c>
       <c r="BX69" t="n">
-        <v>10.32672737605363</v>
+        <v>9.863366259180074</v>
       </c>
       <c r="BY69" t="n">
-        <v>784.75</v>
+        <v>793.6</v>
       </c>
       <c r="BZ69" t="n">
-        <v>8118.110905137383</v>
+        <v>7531.862520246177</v>
       </c>
       <c r="CA69" t="n">
-        <v>10.34658976698782</v>
+        <v>9.490705812897314</v>
       </c>
       <c r="CB69" t="n">
-        <v>0</v>
+        <v>-600.8368010386554</v>
       </c>
     </row>
     <row r="70">
@@ -17579,16 +17579,16 @@
         <v>10.54346555034631</v>
       </c>
       <c r="BA70" t="n">
-        <v>0</v>
+        <v>-0.2715886103895553</v>
       </c>
       <c r="BB70" t="n">
-        <v>0</v>
+        <v>-0.07451362557697294</v>
       </c>
       <c r="BC70" t="n">
-        <v>0.1153785220083493</v>
+        <v>0.08435446640069699</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>-0.1127205184118854</v>
       </c>
       <c r="BE70" t="n">
         <v>615</v>
@@ -17609,16 +17609,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK70" t="n">
-        <v>89.30672672945025</v>
+        <v>65.29309916719583</v>
       </c>
       <c r="BL70" t="n">
-        <v>0</v>
+        <v>-87.24934554009747</v>
       </c>
       <c r="BM70" t="n">
-        <v>304.5359381474254</v>
+        <v>222.6494681601378</v>
       </c>
       <c r="BN70" t="n">
-        <v>0</v>
+        <v>-297.5202682917324</v>
       </c>
       <c r="BO70" t="n">
         <v>2342.346807275541</v>
@@ -17627,40 +17627,40 @@
         <v>7987.402612809597</v>
       </c>
       <c r="BQ70" t="n">
-        <v>0</v>
+        <v>-135.0183304122046</v>
       </c>
       <c r="BR70" t="n">
-        <v>0</v>
+        <v>-37.04391470589425</v>
       </c>
       <c r="BS70" t="n">
-        <v>0</v>
+        <v>-460.4125067056176</v>
       </c>
       <c r="BT70" t="n">
-        <v>0</v>
+        <v>-126.3197491470994</v>
       </c>
       <c r="BU70" t="n">
-        <v>7987.402612809597</v>
+        <v>7526.990106103979</v>
       </c>
       <c r="BV70" t="n">
-        <v>7987.402612809597</v>
+        <v>7689.882344517864</v>
       </c>
       <c r="BW70" t="n">
-        <v>10.05970102368967</v>
+        <v>9.479836405672518</v>
       </c>
       <c r="BX70" t="n">
-        <v>10.05970102368967</v>
+        <v>9.684990358334842</v>
       </c>
       <c r="BY70" t="n">
-        <v>784.75</v>
+        <v>793.6</v>
       </c>
       <c r="BZ70" t="n">
-        <v>8118.110905137383</v>
+        <v>7499.942078403958</v>
       </c>
       <c r="CA70" t="n">
-        <v>10.34658976698782</v>
+        <v>9.450503745085957</v>
       </c>
       <c r="CB70" t="n">
-        <v>0</v>
+        <v>-637.0652315418646</v>
       </c>
     </row>
     <row r="71">
@@ -17823,16 +17823,16 @@
         <v>10.59604094158523</v>
       </c>
       <c r="BA71" t="n">
-        <v>0</v>
+        <v>-0.299922847349066</v>
       </c>
       <c r="BB71" t="n">
-        <v>0</v>
+        <v>-0.04751310130268216</v>
       </c>
       <c r="BC71" t="n">
-        <v>0.1181378920032278</v>
+        <v>0.08711383639557546</v>
       </c>
       <c r="BD71" t="n">
-        <v>0</v>
+        <v>-0.1652959096508084</v>
       </c>
       <c r="BE71" t="n">
         <v>615</v>
@@ -17853,16 +17853,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK71" t="n">
-        <v>91.44256880636839</v>
+        <v>67.42894124411396</v>
       </c>
       <c r="BL71" t="n">
-        <v>0</v>
+        <v>-127.9444074661695</v>
       </c>
       <c r="BM71" t="n">
-        <v>311.8191596297162</v>
+        <v>229.9326896424286</v>
       </c>
       <c r="BN71" t="n">
-        <v>0</v>
+        <v>-436.2904294596379</v>
       </c>
       <c r="BO71" t="n">
         <v>2395.751625386997</v>
@@ -17871,40 +17871,40 @@
         <v>8169.513042569659</v>
       </c>
       <c r="BQ71" t="n">
-        <v>0</v>
+        <v>-149.1044931650887</v>
       </c>
       <c r="BR71" t="n">
-        <v>0</v>
+        <v>-23.62079765197989</v>
       </c>
       <c r="BS71" t="n">
-        <v>0</v>
+        <v>-508.4463216929526</v>
       </c>
       <c r="BT71" t="n">
-        <v>0</v>
+        <v>-80.54691999325144</v>
       </c>
       <c r="BU71" t="n">
-        <v>8169.513042569659</v>
+        <v>7661.066720876706</v>
       </c>
       <c r="BV71" t="n">
-        <v>8169.513042569659</v>
+        <v>7733.222613110021</v>
       </c>
       <c r="BW71" t="n">
-        <v>10.52772299300214</v>
+        <v>9.872508660923591</v>
       </c>
       <c r="BX71" t="n">
-        <v>10.52772299300214</v>
+        <v>9.96549305813147</v>
       </c>
       <c r="BY71" t="n">
-        <v>784.75</v>
+        <v>790</v>
       </c>
       <c r="BZ71" t="n">
-        <v>8118.110905137383</v>
+        <v>7532.459695824383</v>
       </c>
       <c r="CA71" t="n">
-        <v>10.34658976698782</v>
+        <v>9.536219927201509</v>
       </c>
       <c r="CB71" t="n">
-        <v>0</v>
+        <v>-586.1407534790255</v>
       </c>
     </row>
     <row r="72">
@@ -18071,16 +18071,16 @@
         <v>10.55125212136313</v>
       </c>
       <c r="BA72" t="n">
-        <v>0</v>
+        <v>-0.3550114404788669</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>-0.1270761082967198</v>
       </c>
       <c r="BC72" t="n">
-        <v>0.138452298361088</v>
+        <v>0.1074282427534357</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>-0.1205070894287115</v>
       </c>
       <c r="BE72" t="n">
         <v>615</v>
@@ -18101,16 +18101,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK72" t="n">
-        <v>107.166579702791</v>
+        <v>83.15295214053661</v>
       </c>
       <c r="BL72" t="n">
-        <v>0</v>
+        <v>-93.27640463094652</v>
       </c>
       <c r="BM72" t="n">
-        <v>365.4380367865174</v>
+        <v>283.5515667992299</v>
       </c>
       <c r="BN72" t="n">
-        <v>0</v>
+        <v>-318.0725397915276</v>
       </c>
       <c r="BO72" t="n">
         <v>2383.118227554179</v>
@@ -18119,40 +18119,40 @@
         <v>8126.433155959749</v>
       </c>
       <c r="BQ72" t="n">
-        <v>0</v>
+        <v>-176.4913922639657</v>
       </c>
       <c r="BR72" t="n">
-        <v>0</v>
+        <v>-63.17497612618386</v>
       </c>
       <c r="BS72" t="n">
-        <v>0</v>
+        <v>-601.835647620123</v>
       </c>
       <c r="BT72" t="n">
-        <v>0</v>
+        <v>-215.426668590287</v>
       </c>
       <c r="BU72" t="n">
-        <v>8126.433155959749</v>
+        <v>7524.597508339626</v>
       </c>
       <c r="BV72" t="n">
-        <v>8126.433155959749</v>
+        <v>7808.360616168222</v>
       </c>
       <c r="BW72" t="n">
-        <v>10.47220767520586</v>
+        <v>9.696646273633538</v>
       </c>
       <c r="BX72" t="n">
-        <v>10.47220767520586</v>
+        <v>10.06232038166008</v>
       </c>
       <c r="BY72" t="n">
-        <v>784.75</v>
+        <v>786.4</v>
       </c>
       <c r="BZ72" t="n">
-        <v>8118.110905137383</v>
+        <v>7522.541756138293</v>
       </c>
       <c r="CA72" t="n">
-        <v>10.34658976698782</v>
+        <v>9.567693462338777</v>
       </c>
       <c r="CB72" t="n">
-        <v>0</v>
+        <v>-610.1575651465374</v>
       </c>
     </row>
     <row r="73">

--- a/Performance Testing/steady_state_processed_data.xlsx
+++ b/Performance Testing/steady_state_processed_data.xlsx
@@ -610,11 +610,15 @@
           <t>W8</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>37</v>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>kWh</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Watt</t>
+        </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
@@ -987,16 +991,16 @@
         <v>9.989654971904422</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.799865169398009</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.6523618593234914</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.2935867499554838</v>
+        <v>0.3246108055631362</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.4410900600300014</v>
+        <v>0.4098483614512853</v>
       </c>
       <c r="BE2" t="n">
         <v>615</v>
@@ -1017,16 +1021,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK2" t="n">
-        <v>227.2456883072612</v>
+        <v>251.2593158695157</v>
       </c>
       <c r="BL2" t="n">
-        <v>341.4180453041818</v>
+        <v>317.2359550072429</v>
       </c>
       <c r="BM2" t="n">
-        <v>774.9077971277609</v>
+        <v>856.7942671150487</v>
       </c>
       <c r="BN2" t="n">
-        <v>1164.23553448726</v>
+        <v>1081.774606574698</v>
       </c>
       <c r="BO2" t="n">
         <v>2264.823684210527</v>
@@ -1035,40 +1039,40 @@
         <v>7723.048763157896</v>
       </c>
       <c r="BQ2" t="n">
-        <v>397.6472340724775</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>324.317021041935</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>1355.977068187148</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>1105.921041752998</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>9079.025831345045</v>
+        <v>7723.048763157896</v>
       </c>
       <c r="BV2" t="n">
-        <v>8887.284297645156</v>
+        <v>8804.823369732594</v>
       </c>
       <c r="BW2" t="n">
-        <v>12.2029917087971</v>
+        <v>10.38044188596492</v>
       </c>
       <c r="BX2" t="n">
-        <v>11.94527459360908</v>
+        <v>11.83444001308144</v>
       </c>
       <c r="BY2" t="n">
         <v>728</v>
       </c>
       <c r="BZ2" t="n">
-        <v>9860.87330850137</v>
+        <v>8174.562964757613</v>
       </c>
       <c r="CA2" t="n">
-        <v>13.55514040563661</v>
+        <v>11.23542860723518</v>
       </c>
       <c r="CB2" t="n">
-        <v>2386.51298168248</v>
+        <v>700.2026379387253</v>
       </c>
     </row>
     <row r="3">
@@ -1231,16 +1235,16 @@
         <v>10.0059266280758</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.6690812949625844</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.4989235334852893</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.2546606423813245</v>
+        <v>0.2856846979889768</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.4248184038586196</v>
+        <v>0.3935767052799035</v>
       </c>
       <c r="BE3" t="n">
         <v>615</v>
@@ -1261,16 +1265,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK3" t="n">
-        <v>197.1156156450801</v>
+        <v>221.1292432073346</v>
       </c>
       <c r="BL3" t="n">
-        <v>328.8232544727651</v>
+        <v>304.6411641758262</v>
       </c>
       <c r="BM3" t="n">
-        <v>672.1642493497233</v>
+        <v>754.0507193370108</v>
       </c>
       <c r="BN3" t="n">
-        <v>1121.287297752129</v>
+        <v>1038.826369839567</v>
       </c>
       <c r="BO3" t="n">
         <v>2276.308591331269</v>
@@ -1279,40 +1283,40 @@
         <v>7762.212296439628</v>
       </c>
       <c r="BQ3" t="n">
-        <v>332.628968594473</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>248.0362574775046</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>1134.264782907153</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>845.8036379982907</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>8896.47707934678</v>
+        <v>7762.212296439628</v>
       </c>
       <c r="BV3" t="n">
-        <v>8883.499594191757</v>
+        <v>8801.038666279195</v>
       </c>
       <c r="BW3" t="n">
-        <v>11.92557249242196</v>
+        <v>10.4051103169432</v>
       </c>
       <c r="BX3" t="n">
-        <v>11.90817639972085</v>
+        <v>11.79763896284074</v>
       </c>
       <c r="BY3" t="n">
         <v>730.8</v>
       </c>
       <c r="BZ3" t="n">
-        <v>9581.90049821432</v>
+        <v>8044.04969946416</v>
       </c>
       <c r="CA3" t="n">
-        <v>13.12841306510952</v>
+        <v>11.01733082829954</v>
       </c>
       <c r="CB3" t="n">
-        <v>1961.068556921747</v>
+        <v>423.2177581715881</v>
       </c>
     </row>
     <row r="4">
@@ -1475,16 +1479,16 @@
         <v>10.01143177836761</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.769795223237109</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.4901507845019299</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1396688148316354</v>
+        <v>0.1706928704392878</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.4193132535668145</v>
+        <v>0.3880715549880984</v>
       </c>
       <c r="BE4" t="n">
         <v>615</v>
@@ -1505,16 +1509,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK4" t="n">
-        <v>108.1082029971958</v>
+        <v>132.1218305594502</v>
       </c>
       <c r="BL4" t="n">
-        <v>324.5620891869139</v>
+        <v>300.379998889975</v>
       </c>
       <c r="BM4" t="n">
-        <v>368.6489722204377</v>
+        <v>450.5354422077253</v>
       </c>
       <c r="BN4" t="n">
-        <v>1106.756724127376</v>
+        <v>1024.295796214815</v>
       </c>
       <c r="BO4" t="n">
         <v>2238.982643188854</v>
@@ -1523,40 +1527,40 @@
         <v>7634.930813273992</v>
       </c>
       <c r="BQ4" t="n">
-        <v>382.6981759348548</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>243.6749482195075</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>1305.000779937855</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>830.9315734285204</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>8939.931593211846</v>
+        <v>7634.930813273992</v>
       </c>
       <c r="BV4" t="n">
-        <v>8741.687537401369</v>
+        <v>8659.226609488807</v>
       </c>
       <c r="BW4" t="n">
-        <v>11.98382251100784</v>
+        <v>10.2344917068016</v>
       </c>
       <c r="BX4" t="n">
-        <v>11.71807980884902</v>
+        <v>11.60754237196891</v>
       </c>
       <c r="BY4" t="n">
         <v>736.4</v>
       </c>
       <c r="BZ4" t="n">
-        <v>9321.650238245873</v>
+        <v>7898.111785083168</v>
       </c>
       <c r="CA4" t="n">
-        <v>12.67248038261635</v>
+        <v>10.73425134649023</v>
       </c>
       <c r="CB4" t="n">
-        <v>1648.730797688594</v>
+        <v>225.1923445258914</v>
       </c>
     </row>
     <row r="5">
@@ -1719,16 +1723,16 @@
         <v>9.937931073430505</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.6152866084318944</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.2453259396371852</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1228532897092087</v>
+        <v>0.1538773453168611</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.492813958503918</v>
+        <v>0.4615722599252018</v>
       </c>
       <c r="BE5" t="n">
         <v>615</v>
@@ -1749,16 +1753,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK5" t="n">
-        <v>95.09243991771993</v>
+        <v>119.1060674799744</v>
       </c>
       <c r="BL5" t="n">
-        <v>381.4540241500334</v>
+        <v>357.2719338530945</v>
       </c>
       <c r="BM5" t="n">
-        <v>324.265220119425</v>
+        <v>406.1516901067127</v>
       </c>
       <c r="BN5" t="n">
-        <v>1300.758222351614</v>
+        <v>1218.297294439052</v>
       </c>
       <c r="BO5" t="n">
         <v>2267.120665634674</v>
@@ -1767,40 +1771,40 @@
         <v>7730.881469814239</v>
       </c>
       <c r="BQ5" t="n">
-        <v>305.8853258842593</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>121.962031946432</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>1043.068961265324</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>415.8905289373333</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>8773.950431079564</v>
+        <v>7730.881469814239</v>
       </c>
       <c r="BV5" t="n">
-        <v>9031.639692165852</v>
+        <v>8949.178764253291</v>
       </c>
       <c r="BW5" t="n">
-        <v>11.74558290639835</v>
+        <v>10.34923891541397</v>
       </c>
       <c r="BX5" t="n">
-        <v>12.09054845002122</v>
+        <v>11.98015898829088</v>
       </c>
       <c r="BY5" t="n">
         <v>742</v>
       </c>
       <c r="BZ5" t="n">
-        <v>8956.390387029596</v>
+        <v>7699.550643188854</v>
       </c>
       <c r="CA5" t="n">
-        <v>12.07298787150077</v>
+        <v>10.37748238985514</v>
       </c>
       <c r="CB5" t="n">
-        <v>1256.839743840741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1948,7 +1952,7 @@
         <v>6.680000000000003</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.893528357450988</v>
+        <v>9.893528357451023</v>
       </c>
       <c r="AW6" t="n">
         <v>10.05825901186337</v>
@@ -1963,16 +1967,16 @@
         <v>9.915805264223234</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.5679773809129181</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.1954913608418671</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.142453747640138</v>
+        <v>0.1734778032477904</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.5149397677111889</v>
+        <v>0.4836980691324728</v>
       </c>
       <c r="BE6" t="n">
         <v>615</v>
@@ -1993,16 +1997,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK6" t="n">
-        <v>110.2638315228483</v>
+        <v>134.2774590851027</v>
       </c>
       <c r="BL6" t="n">
-        <v>398.5801197365126</v>
+        <v>374.3980294395738</v>
       </c>
       <c r="BM6" t="n">
-        <v>375.9996654929126</v>
+        <v>457.8861354802003</v>
       </c>
       <c r="BN6" t="n">
-        <v>1359.158208301508</v>
+        <v>1276.697280388947</v>
       </c>
       <c r="BO6" t="n">
         <v>2301.575386996905</v>
@@ -2011,40 +2015,40 @@
         <v>7848.372069659446</v>
       </c>
       <c r="BQ6" t="n">
-        <v>282.3658826221094</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>97.18712840357691</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>962.867659741393</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>331.4081078561973</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>8811.239729400839</v>
+        <v>7848.372069659446</v>
       </c>
       <c r="BV6" t="n">
-        <v>9207.530277960954</v>
+        <v>9125.069350048392</v>
       </c>
       <c r="BW6" t="n">
-        <v>11.81131331018879</v>
+        <v>10.5206059915006</v>
       </c>
       <c r="BX6" t="n">
-        <v>12.34253388466616</v>
+        <v>12.23199644778605</v>
       </c>
       <c r="BY6" t="n">
         <v>745.8</v>
       </c>
       <c r="BZ6" t="n">
-        <v>8900.124932876817</v>
+        <v>7739.889082469041</v>
       </c>
       <c r="CA6" t="n">
-        <v>11.93385658576281</v>
+        <v>10.37797776332486</v>
       </c>
       <c r="CB6" t="n">
-        <v>1160.235850407774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2207,16 +2211,16 @@
         <v>9.950528890745767</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.4381910233446469</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1716776008627949</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.2137027187068039</v>
+        <v>0.2447267743144563</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.4802161411886559</v>
+        <v>0.4489744426099397</v>
       </c>
       <c r="BE7" t="n">
         <v>615</v>
@@ -2237,16 +2241,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK7" t="n">
-        <v>165.41285127147</v>
+        <v>189.4264788337245</v>
       </c>
       <c r="BL7" t="n">
-        <v>371.7029040214514</v>
+        <v>347.5208137245125</v>
       </c>
       <c r="BM7" t="n">
-        <v>564.0578228357127</v>
+        <v>645.9442928230005</v>
       </c>
       <c r="BN7" t="n">
-        <v>1267.506902713149</v>
+        <v>1185.045974800588</v>
       </c>
       <c r="BO7" t="n">
         <v>2335.455863003097</v>
@@ -2255,40 +2259,40 @@
         <v>7963.904492840559</v>
       </c>
       <c r="BQ7" t="n">
-        <v>217.8435255025882</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>85.34828837048633</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>742.8464219638259</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>291.0376633433584</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>8706.750914804385</v>
+        <v>7963.904492840559</v>
       </c>
       <c r="BV7" t="n">
-        <v>9231.411395553709</v>
+        <v>9148.950467641147</v>
       </c>
       <c r="BW7" t="n">
-        <v>11.64004132995239</v>
+        <v>10.64693114016118</v>
       </c>
       <c r="BX7" t="n">
-        <v>12.34145908496485</v>
+        <v>12.23121720272881</v>
       </c>
       <c r="BY7" t="n">
         <v>746.6</v>
       </c>
       <c r="BZ7" t="n">
-        <v>8825.669949568684</v>
+        <v>7788.060228405573</v>
       </c>
       <c r="CA7" t="n">
-        <v>11.82126650999386</v>
+        <v>10.43127561416411</v>
       </c>
       <c r="CB7" t="n">
-        <v>1037.60972116311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2451,16 +2455,16 @@
         <v>9.986655426235904</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.507520248747003</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.1151943030968443</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05176366004836019</v>
+        <v>0.08278771565601258</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.4440896056985189</v>
+        <v>0.4128479071198027</v>
       </c>
       <c r="BE8" t="n">
         <v>615</v>
@@ -2481,16 +2485,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK8" t="n">
-        <v>40.06675559702988</v>
+        <v>64.08038315928434</v>
       </c>
       <c r="BL8" t="n">
-        <v>343.7397911600648</v>
+        <v>319.5577008631259</v>
       </c>
       <c r="BM8" t="n">
-        <v>136.6276365858719</v>
+        <v>218.5141065731596</v>
       </c>
       <c r="BN8" t="n">
-        <v>1172.152687855821</v>
+        <v>1089.69175994326</v>
       </c>
       <c r="BO8" t="n">
         <v>2250.467550309597</v>
@@ -2499,40 +2503,40 @@
         <v>7674.094346555727</v>
       </c>
       <c r="BQ8" t="n">
-        <v>252.3100528329166</v>
+        <v>0</v>
       </c>
       <c r="BR8" t="n">
-        <v>57.26802186153648</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>860.3772801602457</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>195.2839545478394</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>8534.471626715973</v>
+        <v>7674.094346555727</v>
       </c>
       <c r="BV8" t="n">
-        <v>8846.247034411548</v>
+        <v>8763.786106498987</v>
       </c>
       <c r="BW8" t="n">
-        <v>11.70709413815634</v>
+        <v>10.52687839033707</v>
       </c>
       <c r="BX8" t="n">
-        <v>12.13476959452887</v>
+        <v>12.0216544670768</v>
       </c>
       <c r="BY8" t="n">
         <v>743.2</v>
       </c>
       <c r="BZ8" t="n">
-        <v>8753.26885904252</v>
+        <v>7770.436638428793</v>
       </c>
       <c r="CA8" t="n">
-        <v>11.77757083914074</v>
+        <v>10.45562922884288</v>
       </c>
       <c r="CB8" t="n">
-        <v>982.8322206137284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2695,16 +2699,16 @@
         <v>10.01140214413794</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3123471526722987</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.1022652147865895</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.2092609499107692</v>
+        <v>0.2402850055184216</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.4193428877964784</v>
+        <v>0.3881011892177623</v>
       </c>
       <c r="BE9" t="n">
         <v>615</v>
@@ -2725,16 +2729,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK9" t="n">
-        <v>161.9747778314742</v>
+        <v>185.9884053937287</v>
       </c>
       <c r="BL9" t="n">
-        <v>324.5850270440156</v>
+        <v>300.4029367470768</v>
       </c>
       <c r="BM9" t="n">
-        <v>552.3339924053271</v>
+        <v>634.2204623926148</v>
       </c>
       <c r="BN9" t="n">
-        <v>1106.834942220093</v>
+        <v>1024.374014307532</v>
       </c>
       <c r="BO9" t="n">
         <v>2368.187848297214</v>
@@ -2743,40 +2747,40 @@
         <v>8075.520562693499</v>
       </c>
       <c r="BQ9" t="n">
-        <v>155.2811474764319</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>50.84041830740123</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>529.5087128946328</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>173.3658264282382</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>8605.029275588133</v>
+        <v>8075.520562693499</v>
       </c>
       <c r="BV9" t="n">
-        <v>9182.355504913592</v>
+        <v>9099.89457700103</v>
       </c>
       <c r="BW9" t="n">
-        <v>11.7877113364221</v>
+        <v>11.06235693519657</v>
       </c>
       <c r="BX9" t="n">
-        <v>12.57856918481314</v>
+        <v>12.46560900959045</v>
       </c>
       <c r="BY9" t="n">
         <v>740</v>
       </c>
       <c r="BZ9" t="n">
-        <v>8686.28839551778</v>
+        <v>7858.554588312695</v>
       </c>
       <c r="CA9" t="n">
-        <v>11.73834860422359</v>
+        <v>10.62120227452188</v>
       </c>
       <c r="CB9" t="n">
-        <v>827.7338072050837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2939,16 +2943,16 @@
         <v>10.01404004959349</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2273135135737796</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.05715575209648449</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.2465472208636399</v>
+        <v>0.2775712764712923</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.416704982340935</v>
+        <v>0.3854632837622189</v>
       </c>
       <c r="BE10" t="n">
         <v>615</v>
@@ -2969,16 +2973,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK10" t="n">
-        <v>190.8355636413955</v>
+        <v>214.84919120365</v>
       </c>
       <c r="BL10" t="n">
-        <v>322.5432024690805</v>
+        <v>298.3611121721416</v>
       </c>
       <c r="BM10" t="n">
-        <v>650.7492720171588</v>
+        <v>732.6357420044465</v>
       </c>
       <c r="BN10" t="n">
-        <v>1099.872320419564</v>
+        <v>1017.411392507003</v>
       </c>
       <c r="BO10" t="n">
         <v>2339.475580495356</v>
@@ -2987,40 +2991,40 @@
         <v>7977.611729489163</v>
       </c>
       <c r="BQ10" t="n">
-        <v>113.0072834749629</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>28.41457235799451</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>385.3548366496235</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>96.89369174076128</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>8362.966566138786</v>
+        <v>7977.611729489163</v>
       </c>
       <c r="BV10" t="n">
-        <v>9077.484049908728</v>
+        <v>8995.023121996166</v>
       </c>
       <c r="BW10" t="n">
-        <v>11.42481771330435</v>
+        <v>10.89837667963</v>
       </c>
       <c r="BX10" t="n">
-        <v>12.40093449441083</v>
+        <v>12.28828295354668</v>
       </c>
       <c r="BY10" t="n">
         <v>737</v>
       </c>
       <c r="BZ10" t="n">
-        <v>8604.091622529624</v>
+        <v>7907.900640247679</v>
       </c>
       <c r="CA10" t="n">
-        <v>11.67419556560479</v>
+        <v>10.73102982736508</v>
       </c>
       <c r="CB10" t="n">
-        <v>696.1909822819437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3183,16 +3187,16 @@
         <v>10.06394777917379</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1233064996576658</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.02531677041742064</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.2181739826855438</v>
+        <v>0.2491980382931962</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3667972527606302</v>
+        <v>0.3355555541819141</v>
       </c>
       <c r="BE11" t="n">
         <v>615</v>
@@ -3213,16 +3217,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK11" t="n">
-        <v>168.8737549417013</v>
+        <v>192.8873825039557</v>
       </c>
       <c r="BL11" t="n">
-        <v>283.9129973864305</v>
+        <v>259.7309070894917</v>
       </c>
       <c r="BM11" t="n">
-        <v>575.8595043512013</v>
+        <v>657.745974338489</v>
       </c>
       <c r="BN11" t="n">
-        <v>968.1433210877281</v>
+        <v>885.6823931751666</v>
       </c>
       <c r="BO11" t="n">
         <v>2391.731907894737</v>
@@ -3231,40 +3235,40 @@
         <v>8155.805805921053</v>
       </c>
       <c r="BQ11" t="n">
-        <v>61.30094221871459</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>-12.58605089619283</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>209.0362129658168</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-42.91843355601755</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>8364.842018886869</v>
+        <v>8155.805805921053</v>
       </c>
       <c r="BV11" t="n">
-        <v>9123.94912700878</v>
+        <v>9041.488199096219</v>
       </c>
       <c r="BW11" t="n">
-        <v>11.30384056606334</v>
+        <v>11.02135919719061</v>
       </c>
       <c r="BX11" t="n">
-        <v>12.3296609824443</v>
+        <v>12.21822729607597</v>
       </c>
       <c r="BY11" t="n">
         <v>735.8</v>
       </c>
       <c r="BZ11" t="n">
-        <v>8514.812080426829</v>
+        <v>7969.387387500001</v>
       </c>
       <c r="CA11" t="n">
-        <v>11.5727010167797</v>
+        <v>10.83118046850309</v>
       </c>
       <c r="CB11" t="n">
-        <v>545.4246929268285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3427,16 +3431,16 @@
         <v>10.06754640936241</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.3222092523885891</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05688187957118451</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.09787124975460948</v>
+        <v>0.1288953053622619</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.3631986225720141</v>
+        <v>0.331956923993298</v>
       </c>
       <c r="BE12" t="n">
         <v>615</v>
@@ -3457,16 +3461,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK12" t="n">
-        <v>75.75552888320216</v>
+        <v>99.76915644545663</v>
       </c>
       <c r="BL12" t="n">
-        <v>281.1275406371072</v>
+        <v>256.9454503401684</v>
       </c>
       <c r="BM12" t="n">
-        <v>258.3263534917194</v>
+        <v>340.2128234790071</v>
       </c>
       <c r="BN12" t="n">
-        <v>958.6449135725358</v>
+        <v>876.1839856599743</v>
       </c>
       <c r="BO12" t="n">
         <v>2321.673974458204</v>
@@ -3475,40 +3479,40 @@
         <v>7916.908252902476</v>
       </c>
       <c r="BQ12" t="n">
-        <v>160.1840196408509</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>28.27841859565986</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>546.2275069753017</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>96.42940741120013</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>8463.135759877778</v>
+        <v>7916.908252902476</v>
       </c>
       <c r="BV12" t="n">
-        <v>8875.553166475012</v>
+        <v>8793.092238562451</v>
       </c>
       <c r="BW12" t="n">
-        <v>11.19462402100235</v>
+        <v>10.47210086362761</v>
       </c>
       <c r="BX12" t="n">
-        <v>11.74014969110451</v>
+        <v>11.63107438963287</v>
       </c>
       <c r="BY12" t="n">
         <v>737.4</v>
       </c>
       <c r="BZ12" t="n">
-        <v>8466.089049441509</v>
+        <v>7959.988139512384</v>
       </c>
       <c r="CA12" t="n">
-        <v>11.4836175549897</v>
+        <v>10.79621441319638</v>
       </c>
       <c r="CB12" t="n">
-        <v>506.1009099291235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3671,16 +3675,16 @@
         <v>10.06854747526953</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1340571280890561</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.00704061228187669</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.2210998162939646</v>
+        <v>0.2521238719016169</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.3621975566648974</v>
+        <v>0.3309558580861813</v>
       </c>
       <c r="BE13" t="n">
         <v>615</v>
@@ -3701,16 +3705,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK13" t="n">
-        <v>171.138445266857</v>
+        <v>195.1520728291115</v>
       </c>
       <c r="BL13" t="n">
-        <v>280.3526830826088</v>
+        <v>256.17059278567</v>
       </c>
       <c r="BM13" t="n">
-        <v>583.5820983599824</v>
+        <v>665.4685683472701</v>
       </c>
       <c r="BN13" t="n">
-        <v>956.002649311696</v>
+        <v>873.5417213991345</v>
       </c>
       <c r="BO13" t="n">
         <v>2362.445394736842</v>
@@ -3719,40 +3723,40 @@
         <v>8055.93879605263</v>
       </c>
       <c r="BQ13" t="n">
-        <v>66.64554006324967</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>-3.500189915973042</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>227.2612916156814</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-11.93564761346807</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>8283.200087668312</v>
+        <v>8055.93879605263</v>
       </c>
       <c r="BV13" t="n">
-        <v>9011.941445364326</v>
+        <v>8929.480517451764</v>
       </c>
       <c r="BW13" t="n">
-        <v>10.92770460114553</v>
+        <v>10.62788759373698</v>
       </c>
       <c r="BX13" t="n">
-        <v>11.88910480918777</v>
+        <v>11.78031730534533</v>
       </c>
       <c r="BY13" t="n">
         <v>743.2</v>
       </c>
       <c r="BZ13" t="n">
-        <v>8415.834741631978</v>
+        <v>8036.357029411764</v>
       </c>
       <c r="CA13" t="n">
-        <v>11.32773964758753</v>
+        <v>10.81641625387636</v>
       </c>
       <c r="CB13" t="n">
-        <v>379.4777122202107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3915,16 +3919,16 @@
         <v>10.06689540705689</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.2320795269511002</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.05979608447051987</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.1915661823969543</v>
+        <v>0.2225902380046067</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.3638496248775347</v>
+        <v>0.3326079262988186</v>
       </c>
       <c r="BE14" t="n">
         <v>615</v>
@@ -3945,16 +3949,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK14" t="n">
-        <v>148.278452558881</v>
+        <v>172.2920801211354</v>
       </c>
       <c r="BL14" t="n">
-        <v>281.631437584194</v>
+        <v>257.449347287255</v>
       </c>
       <c r="BM14" t="n">
-        <v>505.6295232257841</v>
+        <v>587.5159932130717</v>
       </c>
       <c r="BN14" t="n">
-        <v>960.3632021621015</v>
+        <v>877.9022742495397</v>
       </c>
       <c r="BO14" t="n">
         <v>2349.237751547987</v>
@@ -3963,40 +3967,40 @@
         <v>8010.900732778636</v>
       </c>
       <c r="BQ14" t="n">
-        <v>115.3766728540133</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
-        <v>29.72719466702364</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>393.4344544321853</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>101.3697338145506</v>
+        <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>8404.335187210821</v>
+        <v>8010.900732778636</v>
       </c>
       <c r="BV14" t="n">
-        <v>8971.263934940736</v>
+        <v>8888.803007028175</v>
       </c>
       <c r="BW14" t="n">
-        <v>11.05833577264582</v>
+        <v>10.54065885891926</v>
       </c>
       <c r="BX14" t="n">
-        <v>11.80429465123781</v>
+        <v>11.69579343030023</v>
       </c>
       <c r="BY14" t="n">
         <v>749.2</v>
       </c>
       <c r="BZ14" t="n">
-        <v>8375.695923956515</v>
+        <v>8023.433063428793</v>
       </c>
       <c r="CA14" t="n">
-        <v>11.18186453483228</v>
+        <v>10.71207663862089</v>
       </c>
       <c r="CB14" t="n">
-        <v>352.2628605277212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4159,16 +4163,16 @@
         <v>10.07555366682628</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.2287553739169574</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.02645471656664888</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0999812746245361</v>
+        <v>0.1310053302321885</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.3551913651081424</v>
+        <v>0.3239496665294263</v>
       </c>
       <c r="BE15" t="n">
         <v>615</v>
@@ -4189,16 +4193,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK15" t="n">
-        <v>77.38875672466511</v>
+        <v>101.4023842869196</v>
       </c>
       <c r="BL15" t="n">
-        <v>274.9296630622274</v>
+        <v>250.7475727652885</v>
       </c>
       <c r="BM15" t="n">
-        <v>263.8956604311081</v>
+        <v>345.7821304183958</v>
       </c>
       <c r="BN15" t="n">
-        <v>937.5101510421955</v>
+        <v>855.0492231296338</v>
       </c>
       <c r="BO15" t="n">
         <v>2323.970955882353</v>
@@ -4207,40 +4211,40 @@
         <v>7924.740959558825</v>
       </c>
       <c r="BQ15" t="n">
-        <v>113.7240940066866</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-13.15177266540625</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>387.7991605628014</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-44.84754478903532</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>8312.540120121626</v>
+        <v>7924.740959558825</v>
       </c>
       <c r="BV15" t="n">
-        <v>8862.251110601021</v>
+        <v>8779.790182688459</v>
       </c>
       <c r="BW15" t="n">
-        <v>10.93755278963372</v>
+        <v>10.42729073626161</v>
       </c>
       <c r="BX15" t="n">
-        <v>11.66085672447503</v>
+        <v>11.55235550353745</v>
       </c>
       <c r="BY15" t="n">
         <v>754.8</v>
       </c>
       <c r="BZ15" t="n">
-        <v>8365.610634753084</v>
+        <v>8012.858909442724</v>
       </c>
       <c r="CA15" t="n">
-        <v>11.08441155009815</v>
+        <v>10.61785944994721</v>
       </c>
       <c r="CB15" t="n">
-        <v>352.7517253103568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4403,16 +4407,16 @@
         <v>10.09347125623127</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.2058565605363221</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.006409694929393694</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.1378269100962211</v>
+        <v>0.1688509657038735</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.3372737757031494</v>
+        <v>0.3060320771244333</v>
       </c>
       <c r="BE16" t="n">
         <v>615</v>
@@ -4433,16 +4437,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK16" t="n">
-        <v>106.682508855825</v>
+        <v>130.6961364180794</v>
       </c>
       <c r="BL16" t="n">
-        <v>261.0608664024261</v>
+        <v>236.8787761054872</v>
       </c>
       <c r="BM16" t="n">
-        <v>363.7873551983631</v>
+        <v>445.6738251856509</v>
       </c>
       <c r="BN16" t="n">
-        <v>890.217554432273</v>
+        <v>807.7566265197115</v>
       </c>
       <c r="BO16" t="n">
         <v>2349.237751547988</v>
@@ -4451,40 +4455,40 @@
         <v>8010.900732778639</v>
       </c>
       <c r="BQ16" t="n">
-        <v>102.3401131150014</v>
+        <v>0</v>
       </c>
       <c r="BR16" t="n">
-        <v>3.186533877753486</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>348.9797857221548</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>10.86608052313939</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>8359.880518500795</v>
+        <v>8010.900732778639</v>
       </c>
       <c r="BV16" t="n">
-        <v>8901.118287210913</v>
+        <v>8818.657359298351</v>
       </c>
       <c r="BW16" t="n">
-        <v>11.28189003846261</v>
+        <v>10.81093216299412</v>
       </c>
       <c r="BX16" t="n">
-        <v>12.01230538085144</v>
+        <v>11.90102207732571</v>
       </c>
       <c r="BY16" t="n">
         <v>755</v>
       </c>
       <c r="BZ16" t="n">
-        <v>8364.618334675868</v>
+        <v>7983.877894814243</v>
       </c>
       <c r="CA16" t="n">
-        <v>11.080021444578</v>
+        <v>10.57577404310792</v>
       </c>
       <c r="CB16" t="n">
-        <v>380.7404398616244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4647,16 +4651,16 @@
         <v>10.10315933995675</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.1165204367895374</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.1201320659510632</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.09093318923707017</v>
+        <v>0.1219572448447225</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.3275856919776707</v>
+        <v>0.2963439933989546</v>
       </c>
       <c r="BE17" t="n">
         <v>615</v>
@@ -4677,16 +4681,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK17" t="n">
-        <v>70.38524450195976</v>
+        <v>94.39887206421423</v>
       </c>
       <c r="BL17" t="n">
-        <v>253.5619746611993</v>
+        <v>229.3798843642605</v>
       </c>
       <c r="BM17" t="n">
-        <v>240.0136837516828</v>
+        <v>321.9001537389705</v>
       </c>
       <c r="BN17" t="n">
-        <v>864.6463335946898</v>
+        <v>782.1854056821282</v>
       </c>
       <c r="BO17" t="n">
         <v>2323.396710526315</v>
@@ -4695,40 +4699,40 @@
         <v>7922.782782894736</v>
       </c>
       <c r="BQ17" t="n">
-        <v>57.92729971871159</v>
+        <v>0</v>
       </c>
       <c r="BR17" t="n">
-        <v>-59.72279526161304</v>
+        <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>197.5320920408066</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>-203.6547318421005</v>
+        <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>8120.314874935542</v>
+        <v>7922.782782894736</v>
       </c>
       <c r="BV17" t="n">
-        <v>8787.429116489426</v>
+        <v>8704.968188576864</v>
       </c>
       <c r="BW17" t="n">
-        <v>10.9438205861665</v>
+        <v>10.6776048286991</v>
       </c>
       <c r="BX17" t="n">
-        <v>11.84289638340893</v>
+        <v>11.73176305738122</v>
       </c>
       <c r="BY17" t="n">
         <v>752.2</v>
       </c>
       <c r="BZ17" t="n">
-        <v>8296.05415768742</v>
+        <v>7985.052800812695</v>
       </c>
       <c r="CA17" t="n">
-        <v>11.02986075761084</v>
+        <v>10.61687483612221</v>
       </c>
       <c r="CB17" t="n">
-        <v>311.0013568747253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4891,16 +4895,16 @@
         <v>10.09454729948271</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.02047218802606743</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.08543086001895261</v>
+        <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.2302946844066973</v>
+        <v>0.2613187400143497</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.3361977324517174</v>
+        <v>0.3049560338730012</v>
       </c>
       <c r="BE18" t="n">
         <v>615</v>
@@ -4921,16 +4925,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK18" t="n">
-        <v>178.2555720904935</v>
+        <v>202.2691996527479</v>
       </c>
       <c r="BL18" t="n">
-        <v>260.2279739460835</v>
+        <v>236.0458836491446</v>
       </c>
       <c r="BM18" t="n">
-        <v>607.8515008285829</v>
+        <v>689.7379708158705</v>
       </c>
       <c r="BN18" t="n">
-        <v>887.3773911561449</v>
+        <v>804.9164632435832</v>
       </c>
       <c r="BO18" t="n">
         <v>2400.345588235293</v>
@@ -4939,40 +4943,40 @@
         <v>8185.17845588235</v>
       </c>
       <c r="BQ18" t="n">
-        <v>10.17760149514227</v>
+        <v>0</v>
       </c>
       <c r="BR18" t="n">
-        <v>-42.47133953405781</v>
+        <v>0</v>
       </c>
       <c r="BS18" t="n">
-        <v>34.70562109843516</v>
+        <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>-144.8272678111371</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>8219.884076980785</v>
+        <v>8185.17845588235</v>
       </c>
       <c r="BV18" t="n">
-        <v>9072.555847038495</v>
+        <v>8990.094919125933</v>
       </c>
       <c r="BW18" t="n">
-        <v>10.75901057196438</v>
+        <v>10.71358436633816</v>
       </c>
       <c r="BX18" t="n">
-        <v>11.87507309821792</v>
+        <v>11.76713994649991</v>
       </c>
       <c r="BY18" t="n">
         <v>753.4</v>
       </c>
       <c r="BZ18" t="n">
-        <v>8283.390955549916</v>
+        <v>8010.900732778638</v>
       </c>
       <c r="CA18" t="n">
-        <v>10.9961219517746</v>
+        <v>10.63401419064245</v>
       </c>
       <c r="CB18" t="n">
-        <v>272.4902227712761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5135,16 +5139,16 @@
         <v>10.15006630500173</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.03039280685293733</v>
+        <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.05863712068311955</v>
+        <v>0</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.1916487993966367</v>
+        <v>0.2226728550042891</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.2806787269326936</v>
+        <v>0.2494370283539775</v>
       </c>
       <c r="BE19" t="n">
         <v>615</v>
@@ -5165,16 +5169,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK19" t="n">
-        <v>148.342400802327</v>
+        <v>172.3560283645815</v>
       </c>
       <c r="BL19" t="n">
-        <v>217.2544588769661</v>
+        <v>193.0723685800272</v>
       </c>
       <c r="BM19" t="n">
-        <v>505.8475867359352</v>
+        <v>587.7340567232228</v>
       </c>
       <c r="BN19" t="n">
-        <v>740.8377047704544</v>
+        <v>658.3767768578929</v>
       </c>
       <c r="BO19" t="n">
         <v>2375.07879256966</v>
@@ -5183,40 +5187,40 @@
         <v>8099.01868266254</v>
       </c>
       <c r="BQ19" t="n">
-        <v>15.10956601581413</v>
+        <v>0</v>
       </c>
       <c r="BR19" t="n">
-        <v>-29.15102412968576</v>
+        <v>0</v>
       </c>
       <c r="BS19" t="n">
-        <v>51.52362011392617</v>
+        <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>-99.40499228222843</v>
+        <v>0</v>
       </c>
       <c r="BU19" t="n">
-        <v>8150.542302776465</v>
+        <v>8099.01868266254</v>
       </c>
       <c r="BV19" t="n">
-        <v>8839.856387432994</v>
+        <v>8757.395459520432</v>
       </c>
       <c r="BW19" t="n">
-        <v>10.66824908740375</v>
+        <v>10.60080979406091</v>
       </c>
       <c r="BX19" t="n">
-        <v>11.57049265370811</v>
+        <v>11.46255950199009</v>
       </c>
       <c r="BY19" t="n">
         <v>754.2</v>
       </c>
       <c r="BZ19" t="n">
-        <v>8232.632378663044</v>
+        <v>8028.524322755418</v>
       </c>
       <c r="CA19" t="n">
-        <v>10.91810461472619</v>
+        <v>10.64604437767078</v>
       </c>
       <c r="CB19" t="n">
-        <v>204.1080559076242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5379,16 +5383,16 @@
         <v>10.16127138437653</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.09455255643929128</v>
+        <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>-0.05310759657655062</v>
+        <v>0</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.1218134945420477</v>
+        <v>0.1528375501497001</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.2694736475578896</v>
+        <v>0.2382319489791735</v>
       </c>
       <c r="BE20" t="n">
         <v>615</v>
@@ -5409,16 +5413,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK20" t="n">
-        <v>94.28760465694643</v>
+        <v>118.3012322192009</v>
       </c>
       <c r="BL20" t="n">
-        <v>208.5813631890615</v>
+        <v>184.3992728921226</v>
       </c>
       <c r="BM20" t="n">
-        <v>321.5207318801873</v>
+        <v>403.4072018674751</v>
       </c>
       <c r="BN20" t="n">
-        <v>711.2624484746997</v>
+        <v>628.8015205621382</v>
       </c>
       <c r="BO20" t="n">
         <v>2354.980205108359</v>
@@ -5427,40 +5431,40 @@
         <v>8030.482499419506</v>
       </c>
       <c r="BQ20" t="n">
-        <v>47.00612550845696</v>
+        <v>0</v>
       </c>
       <c r="BR20" t="n">
-        <v>-26.40206086582834</v>
+        <v>0</v>
       </c>
       <c r="BS20" t="n">
-        <v>160.2908879838382</v>
+        <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>-90.03102755247464</v>
+        <v>0</v>
       </c>
       <c r="BU20" t="n">
-        <v>8190.773387403344</v>
+        <v>8030.482499419506</v>
       </c>
       <c r="BV20" t="n">
-        <v>8741.744947894205</v>
+        <v>8659.284019981644</v>
       </c>
       <c r="BW20" t="n">
-        <v>10.96489074618922</v>
+        <v>10.75031124420282</v>
       </c>
       <c r="BX20" t="n">
-        <v>11.70246980976466</v>
+        <v>11.59208034803433</v>
       </c>
       <c r="BY20" t="n">
         <v>751.6</v>
       </c>
       <c r="BZ20" t="n">
-        <v>8208.279032119386</v>
+        <v>8049.672630727555</v>
       </c>
       <c r="CA20" t="n">
-        <v>10.92357220603729</v>
+        <v>10.71064847925902</v>
       </c>
       <c r="CB20" t="n">
-        <v>158.6064013918316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5623,16 +5627,16 @@
         <v>10.14569450946426</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.1439514856815656</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>-0.103282669407049</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.03781636738155036</v>
+        <v>0.06884042298920275</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.2850505224701649</v>
+        <v>0.2538088238914488</v>
       </c>
       <c r="BE21" t="n">
         <v>615</v>
@@ -5653,16 +5657,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK21" t="n">
-        <v>29.27109767795622</v>
+        <v>53.28472524021068</v>
       </c>
       <c r="BL21" t="n">
-        <v>220.6383707401613</v>
+        <v>196.4562804432225</v>
       </c>
       <c r="BM21" t="n">
-        <v>99.81444308183072</v>
+        <v>181.7009130691184</v>
       </c>
       <c r="BN21" t="n">
-        <v>752.37684422395</v>
+        <v>669.9159163113886</v>
       </c>
       <c r="BO21" t="n">
         <v>2332.58463622291</v>
@@ -5671,40 +5675,40 @@
         <v>7954.113609520123</v>
       </c>
       <c r="BQ21" t="n">
-        <v>71.56444899954769</v>
+        <v>0</v>
       </c>
       <c r="BR21" t="n">
-        <v>-51.34623857699054</v>
+        <v>0</v>
       </c>
       <c r="BS21" t="n">
-        <v>244.0347710884576</v>
+        <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>-175.0906735475377</v>
+        <v>0</v>
       </c>
       <c r="BU21" t="n">
-        <v>8198.14838060858</v>
+        <v>7954.113609520123</v>
       </c>
       <c r="BV21" t="n">
-        <v>8706.490453744073</v>
+        <v>8624.029525831511</v>
       </c>
       <c r="BW21" t="n">
-        <v>10.97476356172501</v>
+        <v>10.64807712117821</v>
       </c>
       <c r="BX21" t="n">
-        <v>11.65527503847935</v>
+        <v>11.54488557674901</v>
       </c>
       <c r="BY21" t="n">
         <v>752.8</v>
       </c>
       <c r="BZ21" t="n">
-        <v>8175.932604540944</v>
+        <v>8038.315206075851</v>
       </c>
       <c r="CA21" t="n">
-        <v>10.86214691068977</v>
+        <v>10.67807747089584</v>
       </c>
       <c r="CB21" t="n">
-        <v>137.6173984650922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5867,16 +5871,16 @@
         <v>10.1359667476445</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.002329737657758457</v>
+        <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>-0.1367828223772172</v>
+        <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.1556657242549448</v>
+        <v>0.1866897798625972</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.2947782842899205</v>
+        <v>0.2635365857112044</v>
       </c>
       <c r="BE22" t="n">
         <v>615</v>
@@ -5897,16 +5901,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK22" t="n">
-        <v>120.4903309142086</v>
+        <v>144.5039584764631</v>
       </c>
       <c r="BL22" t="n">
-        <v>228.1679746162035</v>
+        <v>203.9858843192646</v>
       </c>
       <c r="BM22" t="n">
-        <v>410.8720284174515</v>
+        <v>492.7584984047393</v>
       </c>
       <c r="BN22" t="n">
-        <v>778.052793441254</v>
+        <v>695.5918655286922</v>
       </c>
       <c r="BO22" t="n">
         <v>2351.534732972136</v>
@@ -5915,40 +5919,40 @@
         <v>8018.733439434984</v>
       </c>
       <c r="BQ22" t="n">
-        <v>1.158212372741991</v>
+        <v>0</v>
       </c>
       <c r="BR22" t="n">
-        <v>-68.00059943585633</v>
+        <v>0</v>
       </c>
       <c r="BS22" t="n">
-        <v>3.94950419105019</v>
+        <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>-231.8820440762701</v>
+        <v>0</v>
       </c>
       <c r="BU22" t="n">
-        <v>8022.682943626034</v>
+        <v>8018.733439434984</v>
       </c>
       <c r="BV22" t="n">
-        <v>8796.786232876239</v>
+        <v>8714.325304963675</v>
       </c>
       <c r="BW22" t="n">
-        <v>10.44620174951307</v>
+        <v>10.44105916593097</v>
       </c>
       <c r="BX22" t="n">
-        <v>11.45414874072427</v>
+        <v>11.34677774083812</v>
       </c>
       <c r="BY22" t="n">
         <v>758</v>
       </c>
       <c r="BZ22" t="n">
-        <v>8156.406218279042</v>
+        <v>8057.505337383901</v>
       </c>
       <c r="CA22" t="n">
-        <v>10.76262314335908</v>
+        <v>10.63076833834221</v>
       </c>
       <c r="CB22" t="n">
-        <v>98.90088089514094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6111,16 +6115,16 @@
         <v>10.1124310299606</v>
       </c>
       <c r="BA23" t="n">
-        <v>-0.05041235870142557</v>
+        <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>-0.1908002278680492</v>
+        <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.1779261328071975</v>
+        <v>0.2089501884148499</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.3183140019738211</v>
+        <v>0.287072303395105</v>
       </c>
       <c r="BE23" t="n">
         <v>615</v>
@@ -6141,16 +6145,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK23" t="n">
-        <v>137.7206107692243</v>
+        <v>161.7342383314788</v>
       </c>
       <c r="BL23" t="n">
-        <v>246.3853851965323</v>
+        <v>222.2032948995934</v>
       </c>
       <c r="BM23" t="n">
-        <v>469.627282723055</v>
+        <v>551.5137527103427</v>
       </c>
       <c r="BN23" t="n">
-        <v>840.1741635201752</v>
+        <v>757.7132356076137</v>
       </c>
       <c r="BO23" t="n">
         <v>2384.266718266254</v>
@@ -6159,40 +6163,40 @@
         <v>8130.349509287928</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-25.06214268059535</v>
+        <v>0</v>
       </c>
       <c r="BR23" t="n">
-        <v>-94.85496528024845</v>
+        <v>0</v>
       </c>
       <c r="BS23" t="n">
-        <v>-85.46190654083014</v>
+        <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>-323.4554316056472</v>
+        <v>0</v>
       </c>
       <c r="BU23" t="n">
-        <v>8044.887602747097</v>
+        <v>8130.349509287928</v>
       </c>
       <c r="BV23" t="n">
-        <v>8970.523672808104</v>
+        <v>8888.062744895542</v>
       </c>
       <c r="BW23" t="n">
-        <v>10.46149233127061</v>
+        <v>10.57262614991928</v>
       </c>
       <c r="BX23" t="n">
-        <v>11.66518032874916</v>
+        <v>11.55794895305012</v>
       </c>
       <c r="BY23" t="n">
         <v>759</v>
       </c>
       <c r="BZ23" t="n">
-        <v>8121.406923432305</v>
+        <v>8046.539548065016</v>
       </c>
       <c r="CA23" t="n">
-        <v>10.70311949522033</v>
+        <v>10.60257669505844</v>
       </c>
       <c r="CB23" t="n">
-        <v>74.86737536728786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6355,16 +6359,16 @@
         <v>10.14245099470367</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.04819516446779026</v>
+        <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>-0.169869611131185</v>
+        <v>0</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.07022926163177345</v>
+        <v>0.1012533172394258</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.2882940372307488</v>
+        <v>0.2570523386520326</v>
       </c>
       <c r="BE24" t="n">
         <v>615</v>
@@ -6385,16 +6389,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK24" t="n">
-        <v>54.35973149756582</v>
+        <v>78.37335905982027</v>
       </c>
       <c r="BL24" t="n">
-        <v>223.1489566041875</v>
+        <v>198.9668663072486</v>
       </c>
       <c r="BM24" t="n">
-        <v>185.3666844066994</v>
+        <v>267.2531543939871</v>
       </c>
       <c r="BN24" t="n">
-        <v>760.9379420202794</v>
+        <v>678.4770141077179</v>
       </c>
       <c r="BO24" t="n">
         <v>2327.416428018576</v>
@@ -6403,40 +6407,40 @@
         <v>7936.490019543346</v>
       </c>
       <c r="BQ24" t="n">
-        <v>23.95988046423946</v>
+        <v>0</v>
       </c>
       <c r="BR24" t="n">
-        <v>-84.44945923838748</v>
+        <v>0</v>
       </c>
       <c r="BS24" t="n">
-        <v>81.70319238305657</v>
+        <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>-287.9726560029013</v>
+        <v>0</v>
       </c>
       <c r="BU24" t="n">
-        <v>8018.193211926402</v>
+        <v>7936.490019543346</v>
       </c>
       <c r="BV24" t="n">
-        <v>8697.427961563624</v>
+        <v>8614.967033651064</v>
       </c>
       <c r="BW24" t="n">
-        <v>10.41323793756676</v>
+        <v>10.30712989551084</v>
       </c>
       <c r="BX24" t="n">
-        <v>11.29536098904367</v>
+        <v>11.18826887487151</v>
       </c>
       <c r="BY24" t="n">
         <v>760.2</v>
       </c>
       <c r="BZ24" t="n">
-        <v>8094.937105262293</v>
+        <v>8014.033815441177</v>
       </c>
       <c r="CA24" t="n">
-        <v>10.65211726525293</v>
+        <v>10.54384071534842</v>
       </c>
       <c r="CB24" t="n">
-        <v>80.90328982111396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6599,16 +6603,16 @@
         <v>10.16544748890869</v>
       </c>
       <c r="BA25" t="n">
-        <v>-0.007709285515467457</v>
+        <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>-0.1354581393489767</v>
+        <v>0</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.1375486891922204</v>
+        <v>0.1685727447998728</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.2652975430257296</v>
+        <v>0.2340558444470135</v>
       </c>
       <c r="BE25" t="n">
         <v>615</v>
@@ -6629,16 +6633,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK25" t="n">
-        <v>106.4671568317957</v>
+        <v>130.4807843940501</v>
       </c>
       <c r="BL25" t="n">
-        <v>205.3489225254496</v>
+        <v>181.1668322285107</v>
       </c>
       <c r="BM25" t="n">
-        <v>363.0530047964232</v>
+        <v>444.939474783711</v>
       </c>
       <c r="BN25" t="n">
-        <v>700.239825811783</v>
+        <v>617.7788978992215</v>
       </c>
       <c r="BO25" t="n">
         <v>2357.277186532508</v>
@@ -6647,40 +6651,40 @@
         <v>8038.315206075853</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-3.832616019782244</v>
+        <v>0</v>
       </c>
       <c r="BR25" t="n">
-        <v>-67.34204276611281</v>
+        <v>0</v>
       </c>
       <c r="BS25" t="n">
-        <v>-13.06922062745745</v>
+        <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>-229.6363658324447</v>
+        <v>0</v>
       </c>
       <c r="BU25" t="n">
-        <v>8025.245985448396</v>
+        <v>8038.315206075853</v>
       </c>
       <c r="BV25" t="n">
-        <v>8738.555031887636</v>
+        <v>8656.094103975074</v>
       </c>
       <c r="BW25" t="n">
-        <v>10.39539635420777</v>
+        <v>10.41232539647131</v>
       </c>
       <c r="BX25" t="n">
-        <v>11.31937180296326</v>
+        <v>11.21255712950139</v>
       </c>
       <c r="BY25" t="n">
         <v>765.2</v>
       </c>
       <c r="BZ25" t="n">
-        <v>8061.831624871304</v>
+        <v>8015.600356772447</v>
       </c>
       <c r="CA25" t="n">
-        <v>10.53821838685664</v>
+        <v>10.47624354580212</v>
       </c>
       <c r="CB25" t="n">
-        <v>46.23126809885481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6843,16 +6847,16 @@
         <v>10.14413611488401</v>
       </c>
       <c r="BA26" t="n">
-        <v>-0.1094950118384652</v>
+        <v>0</v>
       </c>
       <c r="BB26" t="n">
-        <v>-0.2622225727458591</v>
+        <v>0</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.1338813561430232</v>
+        <v>0.1649054117506756</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.2866089170504171</v>
+        <v>0.255367218471701</v>
       </c>
       <c r="BE26" t="n">
         <v>615</v>
@@ -6873,16 +6877,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK26" t="n">
-        <v>103.628521835008</v>
+        <v>127.6421493972625</v>
       </c>
       <c r="BL26" t="n">
-        <v>221.8446188051623</v>
+        <v>197.6625285082233</v>
       </c>
       <c r="BM26" t="n">
-        <v>353.3732594573773</v>
+        <v>435.2597294446651</v>
       </c>
       <c r="BN26" t="n">
-        <v>756.4901501256033</v>
+        <v>674.0292222130416</v>
       </c>
       <c r="BO26" t="n">
         <v>2347.515015479877</v>
@@ -6891,40 +6895,40 @@
         <v>8005.026202786381</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-54.43466007535751</v>
+        <v>0</v>
       </c>
       <c r="BR26" t="n">
-        <v>-130.3620719504972</v>
+        <v>0</v>
       </c>
       <c r="BS26" t="n">
-        <v>-185.6221908569691</v>
+        <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>-444.5346653511956</v>
+        <v>0</v>
       </c>
       <c r="BU26" t="n">
-        <v>7819.404011929412</v>
+        <v>8005.026202786381</v>
       </c>
       <c r="BV26" t="n">
-        <v>8761.516352911984</v>
+        <v>8679.055424999422</v>
       </c>
       <c r="BW26" t="n">
-        <v>10.12876167348369</v>
+        <v>10.3692049258891</v>
       </c>
       <c r="BX26" t="n">
-        <v>11.34911444677718</v>
+        <v>11.24229977331531</v>
       </c>
       <c r="BY26" t="n">
         <v>770.2</v>
       </c>
       <c r="BZ26" t="n">
-        <v>7986.08275113547</v>
+        <v>8025.782875425699</v>
       </c>
       <c r="CA26" t="n">
-        <v>10.36901800920838</v>
+        <v>10.4204691067443</v>
       </c>
       <c r="CB26" t="n">
-        <v>-39.70012429023053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7087,16 +7091,16 @@
         <v>10.16648476096049</v>
       </c>
       <c r="BA27" t="n">
-        <v>-0.1114488722166751</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>-0.2110886642421814</v>
+        <v>0</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.1646204789484269</v>
+        <v>0.1956445345560793</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.2642602709739332</v>
+        <v>0.2330185723952171</v>
       </c>
       <c r="BE27" t="n">
         <v>615</v>
@@ -7117,16 +7121,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK27" t="n">
-        <v>127.4216021458005</v>
+        <v>151.435229708055</v>
       </c>
       <c r="BL27" t="n">
-        <v>204.5460402379891</v>
+        <v>180.3639499410502</v>
       </c>
       <c r="BM27" t="n">
-        <v>434.5076633171798</v>
+        <v>516.3941333044677</v>
       </c>
       <c r="BN27" t="n">
-        <v>697.5019972115427</v>
+        <v>615.0410692989813</v>
       </c>
       <c r="BO27" t="n">
         <v>2380.821246130031</v>
@@ -7135,40 +7139,40 @@
         <v>8118.600449303406</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-55.40600775354645</v>
+        <v>0</v>
       </c>
       <c r="BR27" t="n">
-        <v>-104.9412159590984</v>
+        <v>0</v>
       </c>
       <c r="BS27" t="n">
-        <v>-188.9344864395934</v>
+        <v>0</v>
       </c>
       <c r="BT27" t="n">
-        <v>-357.8495464205257</v>
+        <v>0</v>
       </c>
       <c r="BU27" t="n">
-        <v>7929.665962863813</v>
+        <v>8118.600449303406</v>
       </c>
       <c r="BV27" t="n">
-        <v>8816.102446514949</v>
+        <v>8733.641518602388</v>
       </c>
       <c r="BW27" t="n">
-        <v>10.24504646364834</v>
+        <v>10.48914786731706</v>
       </c>
       <c r="BX27" t="n">
-        <v>11.39031323839141</v>
+        <v>11.28377457183771</v>
       </c>
       <c r="BY27" t="n">
         <v>771.4</v>
       </c>
       <c r="BZ27" t="n">
-        <v>7967.479354983026</v>
+        <v>8045.756277399383</v>
       </c>
       <c r="CA27" t="n">
-        <v>10.32878695203543</v>
+        <v>10.43008684702152</v>
       </c>
       <c r="CB27" t="n">
-        <v>-78.27692241635926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7331,16 +7335,16 @@
         <v>10.22212545928395</v>
       </c>
       <c r="BA28" t="n">
-        <v>-0.2531407198788251</v>
+        <v>0</v>
       </c>
       <c r="BB28" t="n">
-        <v>-0.2053931110921585</v>
+        <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.2563671814371382</v>
+        <v>0.2873912370447906</v>
       </c>
       <c r="BD28" t="n">
-        <v>0.2086195726504716</v>
+        <v>0.1773778740717555</v>
       </c>
       <c r="BE28" t="n">
         <v>615</v>
@@ -7361,16 +7365,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK28" t="n">
-        <v>198.4365323500078</v>
+        <v>222.4501599122623</v>
       </c>
       <c r="BL28" t="n">
-        <v>161.4783309822787</v>
+        <v>137.2962406853398</v>
       </c>
       <c r="BM28" t="n">
-        <v>676.6685753135266</v>
+        <v>758.5550453008143</v>
       </c>
       <c r="BN28" t="n">
-        <v>550.6411086495704</v>
+        <v>468.1801807370088</v>
       </c>
       <c r="BO28" t="n">
         <v>2410.107759287926</v>
@@ -7379,40 +7383,40 @@
         <v>8218.467459171829</v>
       </c>
       <c r="BQ28" t="n">
-        <v>-125.8470939129521</v>
+        <v>0</v>
       </c>
       <c r="BR28" t="n">
-        <v>-102.1097125466872</v>
+        <v>0</v>
       </c>
       <c r="BS28" t="n">
-        <v>-429.1385902431668</v>
+        <v>0</v>
       </c>
       <c r="BT28" t="n">
-        <v>-348.1941197842033</v>
+        <v>0</v>
       </c>
       <c r="BU28" t="n">
-        <v>7789.328868928662</v>
+        <v>8218.467459171829</v>
       </c>
       <c r="BV28" t="n">
-        <v>8769.108567821399</v>
+        <v>8686.647639908837</v>
       </c>
       <c r="BW28" t="n">
-        <v>10.07675144751444</v>
+        <v>10.63191133139952</v>
       </c>
       <c r="BX28" t="n">
-        <v>11.34425429213635</v>
+        <v>11.23757780065826</v>
       </c>
       <c r="BY28" t="n">
         <v>772.2</v>
       </c>
       <c r="BZ28" t="n">
-        <v>7916.367608219339</v>
+        <v>8063.379867376163</v>
       </c>
       <c r="CA28" t="n">
-        <v>10.2518387752842</v>
+        <v>10.44194388331757</v>
       </c>
       <c r="CB28" t="n">
-        <v>-147.0122591568266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7575,16 +7579,16 @@
         <v>10.20498883464105</v>
       </c>
       <c r="BA29" t="n">
-        <v>-0.2449225969863704</v>
+        <v>0</v>
       </c>
       <c r="BB29" t="n">
-        <v>-0.1844661823934537</v>
+        <v>0</v>
       </c>
       <c r="BC29" t="n">
-        <v>0.2862126118862918</v>
+        <v>0.3172366674939441</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.225756197293375</v>
+        <v>0.194514498714659</v>
       </c>
       <c r="BE29" t="n">
         <v>615</v>
@@ -7605,16 +7609,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK29" t="n">
-        <v>221.537865725144</v>
+        <v>245.5514932873985</v>
       </c>
       <c r="BL29" t="n">
-        <v>174.7426355288233</v>
+        <v>150.5605452318844</v>
       </c>
       <c r="BM29" t="n">
-        <v>755.4441221227412</v>
+        <v>837.3305921100289</v>
       </c>
       <c r="BN29" t="n">
-        <v>595.8723871532874</v>
+        <v>513.4114592407259</v>
       </c>
       <c r="BO29" t="n">
         <v>2408.385023219813</v>
@@ -7623,40 +7627,40 @@
         <v>8212.592929179564</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-121.7615130394759</v>
+        <v>0</v>
       </c>
       <c r="BR29" t="n">
-        <v>-91.7060399865545</v>
+        <v>0</v>
       </c>
       <c r="BS29" t="n">
-        <v>-415.206759464613</v>
+        <v>0</v>
       </c>
       <c r="BT29" t="n">
-        <v>-312.7175963541509</v>
+        <v>0</v>
       </c>
       <c r="BU29" t="n">
-        <v>7797.38616971495</v>
+        <v>8212.592929179564</v>
       </c>
       <c r="BV29" t="n">
-        <v>8808.465316332851</v>
+        <v>8726.00438842029</v>
       </c>
       <c r="BW29" t="n">
-        <v>10.06114344479349</v>
+        <v>10.59689410216718</v>
       </c>
       <c r="BX29" t="n">
-        <v>11.365761698494</v>
+        <v>11.25936050118747</v>
       </c>
       <c r="BY29" t="n">
         <v>773.2</v>
       </c>
       <c r="BZ29" t="n">
-        <v>7872.206199777048</v>
+        <v>8118.600449303408</v>
       </c>
       <c r="CA29" t="n">
-        <v>10.18141987672955</v>
+        <v>10.49989672464883</v>
       </c>
       <c r="CB29" t="n">
-        <v>-246.3942495263605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7819,16 +7823,16 @@
         <v>10.2499922728115</v>
       </c>
       <c r="BA30" t="n">
-        <v>-0.2646748086228943</v>
+        <v>0</v>
       </c>
       <c r="BB30" t="n">
-        <v>-0.2572454681168175</v>
+        <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>0.1881820996290031</v>
+        <v>0.2192061552366555</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.1807527591229263</v>
+        <v>0.1495110605442102</v>
       </c>
       <c r="BE30" t="n">
         <v>615</v>
@@ -7849,16 +7853,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK30" t="n">
-        <v>145.6590624876042</v>
+        <v>169.6726900498586</v>
       </c>
       <c r="BL30" t="n">
-        <v>139.9085114248316</v>
+        <v>115.7264211278927</v>
       </c>
       <c r="BM30" t="n">
-        <v>496.6974030827302</v>
+        <v>578.5838730700178</v>
       </c>
       <c r="BN30" t="n">
-        <v>477.0880239586759</v>
+        <v>394.6270960461142</v>
       </c>
       <c r="BO30" t="n">
         <v>2344.069543343655</v>
@@ -7867,40 +7871,40 @@
         <v>7993.277142801863</v>
       </c>
       <c r="BQ30" t="n">
-        <v>-131.5811834346618</v>
+        <v>0</v>
       </c>
       <c r="BR30" t="n">
-        <v>-127.8877400691412</v>
+        <v>0</v>
       </c>
       <c r="BS30" t="n">
-        <v>-448.6918355121966</v>
+        <v>0</v>
       </c>
       <c r="BT30" t="n">
-        <v>-436.0971936357714</v>
+        <v>0</v>
       </c>
       <c r="BU30" t="n">
-        <v>7544.585307289666</v>
+        <v>7993.277142801863</v>
       </c>
       <c r="BV30" t="n">
-        <v>8470.365166760539</v>
+        <v>8387.904238847977</v>
       </c>
       <c r="BW30" t="n">
-        <v>9.734948783599569</v>
+        <v>10.31390599071208</v>
       </c>
       <c r="BX30" t="n">
-        <v>10.92950344098134</v>
+        <v>10.82310224367481</v>
       </c>
       <c r="BY30" t="n">
         <v>773.8</v>
       </c>
       <c r="BZ30" t="n">
-        <v>7776.074064145301</v>
+        <v>8109.59283664861</v>
       </c>
       <c r="CA30" t="n">
-        <v>10.0493303626079</v>
+        <v>10.48021284349699</v>
       </c>
       <c r="CB30" t="n">
-        <v>-333.5187725033084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8063,16 +8067,16 @@
         <v>10.24060425864623</v>
       </c>
       <c r="BA31" t="n">
-        <v>-0.3068317599376122</v>
+        <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>-0.2061427223603189</v>
+        <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>0.2908298108654837</v>
+        <v>0.321853866473136</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.1901407732881903</v>
+        <v>0.1588990747094743</v>
       </c>
       <c r="BE31" t="n">
         <v>615</v>
@@ -8093,16 +8097,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK31" t="n">
-        <v>225.1117278297421</v>
+        <v>249.1253553919966</v>
       </c>
       <c r="BL31" t="n">
-        <v>147.175139571869</v>
+        <v>122.9930492749301</v>
       </c>
       <c r="BM31" t="n">
-        <v>767.6309918994207</v>
+        <v>849.5174618867085</v>
       </c>
       <c r="BN31" t="n">
-        <v>501.8672259400732</v>
+        <v>419.4062980275117</v>
       </c>
       <c r="BO31" t="n">
         <v>2421.018421052632</v>
@@ -8111,40 +8115,40 @@
         <v>8255.672815789474</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-152.5392095227864</v>
+        <v>0</v>
       </c>
       <c r="BR31" t="n">
-        <v>-102.4823764140711</v>
+        <v>0</v>
       </c>
       <c r="BS31" t="n">
-        <v>-520.1587044727016</v>
+        <v>0</v>
       </c>
       <c r="BT31" t="n">
-        <v>-349.4649035719823</v>
+        <v>0</v>
       </c>
       <c r="BU31" t="n">
-        <v>7735.514111316772</v>
+        <v>8255.672815789474</v>
       </c>
       <c r="BV31" t="n">
-        <v>8757.540041729548</v>
+        <v>8675.079113816986</v>
       </c>
       <c r="BW31" t="n">
-        <v>9.981308530731319</v>
+        <v>10.65248105263158</v>
       </c>
       <c r="BX31" t="n">
-        <v>11.3000516667478</v>
+        <v>11.19365046944127</v>
       </c>
       <c r="BY31" t="n">
         <v>774.4</v>
       </c>
       <c r="BZ31" t="n">
-        <v>7759.296084022773</v>
+        <v>8159.722159249228</v>
       </c>
       <c r="CA31" t="n">
-        <v>10.01983973405743</v>
+        <v>10.53686806884548</v>
       </c>
       <c r="CB31" t="n">
-        <v>-400.4260752264548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8307,16 +8311,16 @@
         <v>10.2434438421166</v>
       </c>
       <c r="BA32" t="n">
-        <v>-0.139312085985221</v>
+        <v>0</v>
       </c>
       <c r="BB32" t="n">
-        <v>-0.1319270496971239</v>
+        <v>0</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.1946862261059188</v>
+        <v>0.2257102817135712</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.1873011898178216</v>
+        <v>0.1560594912391055</v>
       </c>
       <c r="BE32" t="n">
         <v>615</v>
@@ -8337,16 +8341,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK32" t="n">
-        <v>150.6934678151889</v>
+        <v>174.7070953774434</v>
       </c>
       <c r="BL32" t="n">
-        <v>144.9772096573626</v>
+        <v>120.7951193604237</v>
       </c>
       <c r="BM32" t="n">
-        <v>513.8647252497942</v>
+        <v>595.7511952370819</v>
       </c>
       <c r="BN32" t="n">
-        <v>494.3722849316065</v>
+        <v>411.911357019045</v>
       </c>
       <c r="BO32" t="n">
         <v>2368.187848297213</v>
@@ -8355,40 +8359,40 @@
         <v>8075.520562693497</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-69.25800470419659</v>
+        <v>0</v>
       </c>
       <c r="BR32" t="n">
-        <v>-65.58658686299107</v>
+        <v>0</v>
       </c>
       <c r="BS32" t="n">
-        <v>-236.1697960413104</v>
+        <v>0</v>
       </c>
       <c r="BT32" t="n">
-        <v>-223.6502612027996</v>
+        <v>0</v>
       </c>
       <c r="BU32" t="n">
-        <v>7839.350766652186</v>
+        <v>8075.520562693497</v>
       </c>
       <c r="BV32" t="n">
-        <v>8569.892847625104</v>
+        <v>8487.431919712542</v>
       </c>
       <c r="BW32" t="n">
-        <v>10.10225614259302</v>
+        <v>10.40659866326482</v>
       </c>
       <c r="BX32" t="n">
-        <v>11.04367635003235</v>
+        <v>10.9374122676708</v>
       </c>
       <c r="BY32" t="n">
         <v>774.8</v>
       </c>
       <c r="BZ32" t="n">
-        <v>7741.233044780449</v>
+        <v>8151.106181927246</v>
       </c>
       <c r="CA32" t="n">
-        <v>9.991281669846368</v>
+        <v>10.52035822803503</v>
       </c>
       <c r="CB32" t="n">
-        <v>-409.8731371467982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8551,16 +8555,16 @@
         <v>10.20337755489857</v>
       </c>
       <c r="BA33" t="n">
-        <v>-0.1387272996694566</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>-0.1734478267710458</v>
+        <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>0.1926469499342645</v>
+        <v>0.2236710055419169</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.2273674770358536</v>
+        <v>0.1961257784571375</v>
       </c>
       <c r="BE33" t="n">
         <v>615</v>
@@ -8581,16 +8585,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK33" t="n">
-        <v>149.115001766069</v>
+        <v>173.1286293283235</v>
       </c>
       <c r="BL33" t="n">
-        <v>175.9898184285645</v>
+        <v>151.8077281316256</v>
       </c>
       <c r="BM33" t="n">
-        <v>508.4821560222953</v>
+        <v>590.368626009583</v>
       </c>
       <c r="BN33" t="n">
-        <v>600.1252808414049</v>
+        <v>517.6643529288434</v>
       </c>
       <c r="BO33" t="n">
         <v>2371.633320433436</v>
@@ -8599,40 +8603,40 @@
         <v>8087.269622678017</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-68.96728238013017</v>
+        <v>0</v>
       </c>
       <c r="BR33" t="n">
-        <v>-86.22834348856225</v>
+        <v>0</v>
       </c>
       <c r="BS33" t="n">
-        <v>-235.1784329162439</v>
+        <v>0</v>
       </c>
       <c r="BT33" t="n">
-        <v>-294.0386512959973</v>
+        <v>0</v>
       </c>
       <c r="BU33" t="n">
-        <v>7852.091189761773</v>
+        <v>8087.269622678017</v>
       </c>
       <c r="BV33" t="n">
-        <v>8687.394903519422</v>
+        <v>8604.93397560686</v>
       </c>
       <c r="BW33" t="n">
-        <v>10.09266219763724</v>
+        <v>10.39494810112856</v>
       </c>
       <c r="BX33" t="n">
-        <v>11.16631735670877</v>
+        <v>11.06032644679545</v>
       </c>
       <c r="BY33" t="n">
         <v>775.8</v>
       </c>
       <c r="BZ33" t="n">
-        <v>7753.785508947071</v>
+        <v>8124.866614628484</v>
       </c>
       <c r="CA33" t="n">
-        <v>9.994463819870926</v>
+        <v>10.47296558198084</v>
       </c>
       <c r="CB33" t="n">
-        <v>-371.0811056814137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8795,16 +8799,16 @@
         <v>10.24188680496441</v>
       </c>
       <c r="BA34" t="n">
-        <v>-0.1404497635135336</v>
+        <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>-0.1677456615064408</v>
+        <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>0.1615623289771015</v>
+        <v>0.1925863845847539</v>
       </c>
       <c r="BD34" t="n">
-        <v>0.1888582269700088</v>
+        <v>0.1576165283912927</v>
       </c>
       <c r="BE34" t="n">
         <v>615</v>
@@ -8825,16 +8829,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK34" t="n">
-        <v>125.0544946544508</v>
+        <v>149.0681222167052</v>
       </c>
       <c r="BL34" t="n">
-        <v>146.1824070289142</v>
+        <v>122.0003167319754</v>
       </c>
       <c r="BM34" t="n">
-        <v>426.4358267716771</v>
+        <v>508.3222967589649</v>
       </c>
       <c r="BN34" t="n">
-        <v>498.4820079685976</v>
+        <v>416.0210800560362</v>
       </c>
       <c r="BO34" t="n">
         <v>2358.999922600619</v>
@@ -8843,40 +8847,40 @@
         <v>8044.189736068112</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-69.8235929304477</v>
+        <v>0</v>
       </c>
       <c r="BR34" t="n">
-        <v>-83.39355291079418</v>
+        <v>0</v>
       </c>
       <c r="BS34" t="n">
-        <v>-238.0984518928267</v>
+        <v>0</v>
       </c>
       <c r="BT34" t="n">
-        <v>-284.3720154258082</v>
+        <v>0</v>
       </c>
       <c r="BU34" t="n">
-        <v>7806.091284175285</v>
+        <v>8044.189736068112</v>
       </c>
       <c r="BV34" t="n">
-        <v>8542.67174403671</v>
+        <v>8460.210816124149</v>
       </c>
       <c r="BW34" t="n">
-        <v>10.00780933868626</v>
+        <v>10.31306376418989</v>
       </c>
       <c r="BX34" t="n">
-        <v>10.95214326158553</v>
+        <v>10.84642412323609</v>
       </c>
       <c r="BY34" t="n">
         <v>776.8</v>
       </c>
       <c r="BZ34" t="n">
-        <v>7755.526531839138</v>
+        <v>8091.185976006194</v>
       </c>
       <c r="CA34" t="n">
-        <v>9.983796998649483</v>
+        <v>10.41619951438538</v>
       </c>
       <c r="CB34" t="n">
-        <v>-335.6594441670564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9039,16 +9043,16 @@
         <v>10.24839601887646</v>
       </c>
       <c r="BA35" t="n">
-        <v>-0.3188903774889607</v>
+        <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>-0.2607599668343177</v>
+        <v>0</v>
       </c>
       <c r="BC35" t="n">
-        <v>0.2404794237126087</v>
+        <v>0.271503479320261</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.1823490130579657</v>
+        <v>0.1511073144792496</v>
       </c>
       <c r="BE35" t="n">
         <v>615</v>
@@ -9069,16 +9073,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK35" t="n">
-        <v>186.1388913961256</v>
+        <v>210.15251895838</v>
       </c>
       <c r="BL35" t="n">
-        <v>141.1440638611599</v>
+        <v>116.961973564221</v>
       </c>
       <c r="BM35" t="n">
-        <v>634.7336196607882</v>
+        <v>716.6200896480759</v>
       </c>
       <c r="BN35" t="n">
-        <v>481.3012577665552</v>
+        <v>398.8403298539936</v>
       </c>
       <c r="BO35" t="n">
         <v>2386.563699690402</v>
@@ -9087,40 +9091,40 @@
         <v>8138.182215944272</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-158.5340647802548</v>
+        <v>0</v>
       </c>
       <c r="BR35" t="n">
-        <v>-129.6349479082037</v>
+        <v>0</v>
       </c>
       <c r="BS35" t="n">
-        <v>-540.6011609006689</v>
+        <v>0</v>
       </c>
       <c r="BT35" t="n">
-        <v>-442.0551723669745</v>
+        <v>0</v>
       </c>
       <c r="BU35" t="n">
-        <v>7597.581055043603</v>
+        <v>8138.182215944272</v>
       </c>
       <c r="BV35" t="n">
-        <v>8619.483473710827</v>
+        <v>8537.022545798265</v>
       </c>
       <c r="BW35" t="n">
-        <v>9.740488532107182</v>
+        <v>10.4335669435183</v>
       </c>
       <c r="BX35" t="n">
-        <v>11.0506198380908</v>
+        <v>10.94490069974137</v>
       </c>
       <c r="BY35" t="n">
         <v>777.8</v>
       </c>
       <c r="BZ35" t="n">
-        <v>7766.125681389925</v>
+        <v>8120.166990634675</v>
       </c>
       <c r="CA35" t="n">
-        <v>9.984904948351005</v>
+        <v>10.44013170494663</v>
       </c>
       <c r="CB35" t="n">
-        <v>-354.0413092447508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9283,16 +9287,16 @@
         <v>10.24734244494535</v>
       </c>
       <c r="BA36" t="n">
-        <v>-0.33931693725226</v>
+        <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>-0.2961297588198857</v>
+        <v>0</v>
       </c>
       <c r="BC36" t="n">
-        <v>0.2265897654214424</v>
+        <v>0.2576138210290947</v>
       </c>
       <c r="BD36" t="n">
-        <v>0.1834025869890681</v>
+        <v>0.152160888410352</v>
       </c>
       <c r="BE36" t="n">
         <v>615</v>
@@ -9313,16 +9317,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK36" t="n">
-        <v>175.3878443573633</v>
+        <v>199.4014719196178</v>
       </c>
       <c r="BL36" t="n">
-        <v>141.9595643331405</v>
+        <v>117.7774740362016</v>
       </c>
       <c r="BM36" t="n">
-        <v>598.072549258609</v>
+        <v>679.9590192458967</v>
       </c>
       <c r="BN36" t="n">
-        <v>484.082114376009</v>
+        <v>401.6211864634475</v>
       </c>
       <c r="BO36" t="n">
         <v>2404.365305727555</v>
@@ -9331,40 +9335,40 @@
         <v>8198.885692530961</v>
       </c>
       <c r="BQ36" t="n">
-        <v>-168.6889825117086</v>
+        <v>0</v>
       </c>
       <c r="BR36" t="n">
-        <v>-147.2187863985899</v>
+        <v>0</v>
       </c>
       <c r="BS36" t="n">
-        <v>-575.2294303649263</v>
+        <v>0</v>
       </c>
       <c r="BT36" t="n">
-        <v>-502.0160616191914</v>
+        <v>0</v>
       </c>
       <c r="BU36" t="n">
-        <v>7623.656262166035</v>
+        <v>8198.885692530961</v>
       </c>
       <c r="BV36" t="n">
-        <v>8682.967806906971</v>
+        <v>8600.506878994409</v>
       </c>
       <c r="BW36" t="n">
-        <v>9.786465034872959</v>
+        <v>10.52488535626568</v>
       </c>
       <c r="BX36" t="n">
-        <v>11.14630013723616</v>
+        <v>11.04044528754096</v>
       </c>
       <c r="BY36" t="n">
         <v>778.6</v>
       </c>
       <c r="BZ36" t="n">
-        <v>7743.754111559778</v>
+        <v>8108.809565982973</v>
       </c>
       <c r="CA36" t="n">
-        <v>9.945936249179335</v>
+        <v>10.41461256567345</v>
       </c>
       <c r="CB36" t="n">
-        <v>-365.0554544231958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9527,16 +9531,16 @@
         <v>10.31072983541382</v>
       </c>
       <c r="BA37" t="n">
-        <v>-0.268632784243902</v>
+        <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>-0.2381302520226249</v>
+        <v>0</v>
       </c>
       <c r="BC37" t="n">
-        <v>0.1505177287418817</v>
+        <v>0.1815417843495341</v>
       </c>
       <c r="BD37" t="n">
-        <v>0.1200151965206047</v>
+        <v>0.08877349794188856</v>
       </c>
       <c r="BE37" t="n">
         <v>615</v>
@@ -9557,16 +9561,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK37" t="n">
-        <v>116.5056150373985</v>
+        <v>140.5192425996529</v>
       </c>
       <c r="BL37" t="n">
-        <v>92.89566352974511</v>
+        <v>68.71357323280621</v>
       </c>
       <c r="BM37" t="n">
-        <v>397.2841472775288</v>
+        <v>479.1706172648165</v>
       </c>
       <c r="BN37" t="n">
-        <v>316.7742126364308</v>
+        <v>234.3132847238692</v>
       </c>
       <c r="BO37" t="n">
         <v>2379.09851006192</v>
@@ -9575,40 +9579,40 @@
         <v>8112.725919311146</v>
       </c>
       <c r="BQ37" t="n">
-        <v>-133.5488626366509</v>
+        <v>0</v>
       </c>
       <c r="BR37" t="n">
-        <v>-118.3847474406785</v>
+        <v>0</v>
       </c>
       <c r="BS37" t="n">
-        <v>-455.4016215909797</v>
+        <v>0</v>
       </c>
       <c r="BT37" t="n">
-        <v>-403.6919887727136</v>
+        <v>0</v>
       </c>
       <c r="BU37" t="n">
-        <v>7657.324297720166</v>
+        <v>8112.725919311146</v>
       </c>
       <c r="BV37" t="n">
-        <v>8429.500131947576</v>
+        <v>8347.039204035014</v>
       </c>
       <c r="BW37" t="n">
-        <v>9.817082432974573</v>
+        <v>10.40093066578352</v>
       </c>
       <c r="BX37" t="n">
-        <v>10.80705145121484</v>
+        <v>10.7013323128654</v>
       </c>
       <c r="BY37" t="n">
         <v>779.4</v>
       </c>
       <c r="BZ37" t="n">
-        <v>7707.348817773374</v>
+        <v>8116.250637306503</v>
       </c>
       <c r="CA37" t="n">
-        <v>9.888901507255643</v>
+        <v>10.41347896617719</v>
       </c>
       <c r="CB37" t="n">
-        <v>-408.9018195331297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9771,16 +9775,16 @@
         <v>10.22275545057352</v>
       </c>
       <c r="BA38" t="n">
-        <v>-0.2867455371692955</v>
+        <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>-0.2505765027901834</v>
+        <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>0.2441586157400195</v>
+        <v>0.2751826713476719</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.2079895813609074</v>
+        <v>0.1767478827821913</v>
       </c>
       <c r="BE38" t="n">
         <v>615</v>
@@ -9801,16 +9805,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK38" t="n">
-        <v>188.9867056275592</v>
+        <v>213.0003331898137</v>
       </c>
       <c r="BL38" t="n">
-        <v>160.990697244563</v>
+        <v>136.8086069476242</v>
       </c>
       <c r="BM38" t="n">
-        <v>644.4446661899769</v>
+        <v>726.3311361772647</v>
       </c>
       <c r="BN38" t="n">
-        <v>548.9782776039598</v>
+        <v>466.5173496913984</v>
       </c>
       <c r="BO38" t="n">
         <v>2445.136726006192</v>
@@ -9819,40 +9823,40 @@
         <v>8337.916235681116</v>
       </c>
       <c r="BQ38" t="n">
-        <v>-142.5534878882313</v>
+        <v>0</v>
       </c>
       <c r="BR38" t="n">
-        <v>-124.5723117723232</v>
+        <v>0</v>
       </c>
       <c r="BS38" t="n">
-        <v>-486.1073936988687</v>
+        <v>0</v>
       </c>
       <c r="BT38" t="n">
-        <v>-424.7915831436221</v>
+        <v>0</v>
       </c>
       <c r="BU38" t="n">
-        <v>7851.808841982247</v>
+        <v>8337.916235681116</v>
       </c>
       <c r="BV38" t="n">
-        <v>8886.894513285075</v>
+        <v>8804.433585372513</v>
       </c>
       <c r="BW38" t="n">
-        <v>10.06642159228493</v>
+        <v>10.68963619959117</v>
       </c>
       <c r="BX38" t="n">
-        <v>11.39345450421163</v>
+        <v>11.2877353658622</v>
       </c>
       <c r="BY38" t="n">
         <v>779.8</v>
       </c>
       <c r="BZ38" t="n">
-        <v>7707.292348217469</v>
+        <v>8166.379959907123</v>
       </c>
       <c r="CA38" t="n">
-        <v>9.883653386185182</v>
+        <v>10.47241658586971</v>
       </c>
       <c r="CB38" t="n">
-        <v>-459.0876116896546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -10015,16 +10019,16 @@
         <v>10.2392358231652</v>
       </c>
       <c r="BA39" t="n">
-        <v>-0.328757584275472</v>
+        <v>0</v>
       </c>
       <c r="BB39" t="n">
-        <v>-0.224020991124851</v>
+        <v>0</v>
       </c>
       <c r="BC39" t="n">
-        <v>0.2962458019198415</v>
+        <v>0.3272698575274939</v>
       </c>
       <c r="BD39" t="n">
-        <v>0.1915092087692205</v>
+        <v>0.1602675101905044</v>
       </c>
       <c r="BE39" t="n">
         <v>615</v>
@@ -10045,16 +10049,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK39" t="n">
-        <v>229.3038809674438</v>
+        <v>253.3175085296983</v>
       </c>
       <c r="BL39" t="n">
-        <v>148.2343531189311</v>
+        <v>124.0522628219922</v>
       </c>
       <c r="BM39" t="n">
-        <v>781.9262340989835</v>
+        <v>863.8127040862712</v>
       </c>
       <c r="BN39" t="n">
-        <v>505.479144135555</v>
+        <v>423.0182162229934</v>
       </c>
       <c r="BO39" t="n">
         <v>2415.850212848297</v>
@@ -10063,40 +10067,40 @@
         <v>8238.049225812692</v>
       </c>
       <c r="BQ39" t="n">
-        <v>-163.4394758880174</v>
+        <v>0</v>
       </c>
       <c r="BR39" t="n">
-        <v>-111.3704295462897</v>
+        <v>0</v>
       </c>
       <c r="BS39" t="n">
-        <v>-557.3286127781392</v>
+        <v>0</v>
       </c>
       <c r="BT39" t="n">
-        <v>-379.7731647528477</v>
+        <v>0</v>
       </c>
       <c r="BU39" t="n">
-        <v>7680.720613034553</v>
+        <v>8238.049225812692</v>
       </c>
       <c r="BV39" t="n">
-        <v>8743.528369948248</v>
+        <v>8661.067442035686</v>
       </c>
       <c r="BW39" t="n">
-        <v>9.834469414896995</v>
+        <v>10.54807839412637</v>
       </c>
       <c r="BX39" t="n">
-        <v>11.19529880915269</v>
+        <v>11.08971503461676</v>
       </c>
       <c r="BY39" t="n">
         <v>780</v>
       </c>
       <c r="BZ39" t="n">
-        <v>7682.218213989322</v>
+        <v>8205.151857856039</v>
       </c>
       <c r="CA39" t="n">
-        <v>9.848985401427328</v>
+        <v>10.51941951185701</v>
       </c>
       <c r="CB39" t="n">
-        <v>-522.9336438667171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -10259,16 +10263,16 @@
         <v>10.25381134494375</v>
       </c>
       <c r="BA40" t="n">
-        <v>-0.1625270150757174</v>
+        <v>0</v>
       </c>
       <c r="BB40" t="n">
-        <v>-0.1882524239255421</v>
+        <v>0</v>
       </c>
       <c r="BC40" t="n">
-        <v>0.1512082781408441</v>
+        <v>0.1822323337484965</v>
       </c>
       <c r="BD40" t="n">
-        <v>0.1769336869906688</v>
+        <v>0.1456919884119527</v>
       </c>
       <c r="BE40" t="n">
         <v>615</v>
@@ -10289,16 +10293,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK40" t="n">
-        <v>117.0401227203956</v>
+        <v>141.0537502826501</v>
       </c>
       <c r="BL40" t="n">
-        <v>136.9524254450606</v>
+        <v>112.7703351481217</v>
       </c>
       <c r="BM40" t="n">
-        <v>399.1068184765491</v>
+        <v>480.9932884638368</v>
       </c>
       <c r="BN40" t="n">
-        <v>467.0077707676567</v>
+        <v>384.5468428550952</v>
       </c>
       <c r="BO40" t="n">
         <v>2390.583417182662</v>
@@ -10307,40 +10311,40 @@
         <v>8151.889452592879</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-80.7991402545447</v>
+        <v>0</v>
       </c>
       <c r="BR40" t="n">
-        <v>-93.58834281754091</v>
+        <v>0</v>
       </c>
       <c r="BS40" t="n">
-        <v>-275.5250682679974</v>
+        <v>0</v>
       </c>
       <c r="BT40" t="n">
-        <v>-319.1362490078145</v>
+        <v>0</v>
       </c>
       <c r="BU40" t="n">
-        <v>7876.364384324882</v>
+        <v>8151.889452592879</v>
       </c>
       <c r="BV40" t="n">
-        <v>8618.897223360536</v>
+        <v>8536.436295447975</v>
       </c>
       <c r="BW40" t="n">
-        <v>10.05921377308414</v>
+        <v>10.41109764060393</v>
       </c>
       <c r="BX40" t="n">
-        <v>11.0075315751731</v>
+        <v>10.90221749099358</v>
       </c>
       <c r="BY40" t="n">
         <v>780.6</v>
       </c>
       <c r="BZ40" t="n">
-        <v>7737.974879845578</v>
+        <v>8207.893305185758</v>
       </c>
       <c r="CA40" t="n">
-        <v>9.912730449622721</v>
+        <v>10.51492565127413</v>
       </c>
       <c r="CB40" t="n">
-        <v>-469.9184253401829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -10503,16 +10507,16 @@
         <v>10.32671905968892</v>
       </c>
       <c r="BA41" t="n">
-        <v>-0.3588553324501067</v>
+        <v>0</v>
       </c>
       <c r="BB41" t="n">
-        <v>-0.2863249004453436</v>
+        <v>0</v>
       </c>
       <c r="BC41" t="n">
-        <v>0.176556404250265</v>
+        <v>0.2075804598579174</v>
       </c>
       <c r="BD41" t="n">
-        <v>0.1040259722455019</v>
+        <v>0.07278427366678582</v>
       </c>
       <c r="BE41" t="n">
         <v>615</v>
@@ -10533,16 +10537,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK41" t="n">
-        <v>136.6603963393788</v>
+        <v>160.6740239016333</v>
       </c>
       <c r="BL41" t="n">
-        <v>80.51948416727103</v>
+        <v>56.33739387033216</v>
       </c>
       <c r="BM41" t="n">
-        <v>466.0119515172819</v>
+        <v>547.8984215045696</v>
       </c>
       <c r="BN41" t="n">
-        <v>274.5714410103942</v>
+        <v>192.1105130978327</v>
       </c>
       <c r="BO41" t="n">
         <v>2408.959268575851</v>
@@ -10551,40 +10555,40 @@
         <v>8214.551105843653</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-178.4023555974326</v>
+        <v>0</v>
       </c>
       <c r="BR41" t="n">
-        <v>-142.3443713568105</v>
+        <v>0</v>
       </c>
       <c r="BS41" t="n">
-        <v>-608.3520325872453</v>
+        <v>0</v>
       </c>
       <c r="BT41" t="n">
-        <v>-485.3943063267239</v>
+        <v>0</v>
       </c>
       <c r="BU41" t="n">
-        <v>7606.199073256408</v>
+        <v>8214.551105843653</v>
       </c>
       <c r="BV41" t="n">
-        <v>8489.122546854047</v>
+        <v>8406.661618941485</v>
       </c>
       <c r="BW41" t="n">
-        <v>9.714175061630151</v>
+        <v>10.49112529481948</v>
       </c>
       <c r="BX41" t="n">
-        <v>10.8417912475786</v>
+        <v>10.73647716339909</v>
       </c>
       <c r="BY41" t="n">
         <v>781.4</v>
       </c>
       <c r="BZ41" t="n">
-        <v>7734.483442063653</v>
+        <v>8211.026387848298</v>
       </c>
       <c r="CA41" t="n">
-        <v>9.898272454974158</v>
+        <v>10.50817363898489</v>
       </c>
       <c r="CB41" t="n">
-        <v>-476.5429457846466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -10744,19 +10748,19 @@
         <v>79.43000000000001</v>
       </c>
       <c r="AZ42" t="n">
-        <v>10.38810034248093</v>
+        <v>10.38810034248089</v>
       </c>
       <c r="BA42" t="n">
-        <v>-0.3422544425709138</v>
+        <v>0</v>
       </c>
       <c r="BB42" t="n">
-        <v>-0.2183557320940377</v>
+        <v>0</v>
       </c>
       <c r="BC42" t="n">
-        <v>0.1665433999303687</v>
+        <v>0.197567455538062</v>
       </c>
       <c r="BD42" t="n">
-        <v>0.04264468945349265</v>
+        <v>0.0114029908748174</v>
       </c>
       <c r="BE42" t="n">
         <v>615</v>
@@ -10777,16 +10781,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK42" t="n">
-        <v>128.9100054956387</v>
+        <v>152.9236330579248</v>
       </c>
       <c r="BL42" t="n">
-        <v>33.0083759194778</v>
+        <v>8.826285622570545</v>
       </c>
       <c r="BM42" t="n">
-        <v>439.583118740128</v>
+        <v>521.4695887275236</v>
       </c>
       <c r="BN42" t="n">
-        <v>112.5585618854193</v>
+        <v>30.09763397296556</v>
       </c>
       <c r="BO42" t="n">
         <v>2373.930301857585</v>
@@ -10795,40 +10799,40 @@
         <v>8095.102329334366</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-170.1493422194766</v>
+        <v>0</v>
       </c>
       <c r="BR42" t="n">
-        <v>-108.5539866380399</v>
+        <v>0</v>
       </c>
       <c r="BS42" t="n">
-        <v>-580.209256968415</v>
+        <v>0</v>
       </c>
       <c r="BT42" t="n">
-        <v>-370.169094435716</v>
+        <v>0</v>
       </c>
       <c r="BU42" t="n">
-        <v>7514.893072365951</v>
+        <v>8095.102329334366</v>
       </c>
       <c r="BV42" t="n">
-        <v>8207.660891219786</v>
+        <v>8125.199963307332</v>
       </c>
       <c r="BW42" t="n">
-        <v>9.622142218138221</v>
+        <v>10.36504779684298</v>
       </c>
       <c r="BX42" t="n">
-        <v>10.50916887480126</v>
+        <v>10.40358510026547</v>
       </c>
       <c r="BY42" t="n">
         <v>781.6</v>
       </c>
       <c r="BZ42" t="n">
-        <v>7705.99719699281</v>
+        <v>8207.501669852942</v>
       </c>
       <c r="CA42" t="n">
-        <v>9.85928441200689</v>
+        <v>10.50099706519679</v>
       </c>
       <c r="CB42" t="n">
-        <v>-501.5044728601337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -10991,16 +10995,16 @@
         <v>10.35851738746556</v>
       </c>
       <c r="BA43" t="n">
-        <v>-0.2165458001432867</v>
+        <v>0</v>
       </c>
       <c r="BB43" t="n">
-        <v>-0.1860432679220096</v>
+        <v>0</v>
       </c>
       <c r="BC43" t="n">
-        <v>0.1027301766901445</v>
+        <v>0.1337542322977969</v>
       </c>
       <c r="BD43" t="n">
-        <v>0.07222764446886742</v>
+        <v>0.04098594589015132</v>
       </c>
       <c r="BE43" t="n">
         <v>615</v>
@@ -11021,16 +11025,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK43" t="n">
-        <v>79.51649628403946</v>
+        <v>103.5301238462939</v>
       </c>
       <c r="BL43" t="n">
-        <v>55.90654477638612</v>
+        <v>31.72445447944723</v>
       </c>
       <c r="BM43" t="n">
-        <v>271.1512523285746</v>
+        <v>353.0377223158623</v>
       </c>
       <c r="BN43" t="n">
-        <v>190.6413176874767</v>
+        <v>108.1803897749151</v>
       </c>
       <c r="BO43" t="n">
         <v>2362.445394736843</v>
@@ -11039,40 +11043,40 @@
         <v>8055.938796052635</v>
       </c>
       <c r="BQ43" t="n">
-        <v>-107.6541919456204</v>
+        <v>0</v>
       </c>
       <c r="BR43" t="n">
-        <v>-92.49007674964794</v>
+        <v>0</v>
       </c>
       <c r="BS43" t="n">
-        <v>-367.1007945345657</v>
+        <v>0</v>
       </c>
       <c r="BT43" t="n">
-        <v>-315.3911617162995</v>
+        <v>0</v>
       </c>
       <c r="BU43" t="n">
-        <v>7688.838001518069</v>
+        <v>8055.938796052635</v>
       </c>
       <c r="BV43" t="n">
-        <v>8246.580113740112</v>
+        <v>8164.11918582755</v>
       </c>
       <c r="BW43" t="n">
-        <v>9.819716477034572</v>
+        <v>10.28855529508638</v>
       </c>
       <c r="BX43" t="n">
-        <v>10.53203079660295</v>
+        <v>10.42671671242343</v>
       </c>
       <c r="BY43" t="n">
         <v>782.2</v>
       </c>
       <c r="BZ43" t="n">
-        <v>7673.403028899974</v>
+        <v>8151.106181927246</v>
       </c>
       <c r="CA43" t="n">
-        <v>9.809943388956816</v>
+        <v>10.42078088429583</v>
       </c>
       <c r="CB43" t="n">
-        <v>-477.7031530272731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -11235,16 +11239,16 @@
         <v>10.35115251821947</v>
       </c>
       <c r="BA44" t="n">
-        <v>-0.1199820944478294</v>
+        <v>0</v>
       </c>
       <c r="BB44" t="n">
-        <v>-0.1653004312544706</v>
+        <v>0</v>
       </c>
       <c r="BC44" t="n">
-        <v>0.03427417690831014</v>
+        <v>0.06529823251596252</v>
       </c>
       <c r="BD44" t="n">
-        <v>0.07959251371495135</v>
+        <v>0.04835081513623525</v>
       </c>
       <c r="BE44" t="n">
         <v>615</v>
@@ -11265,16 +11269,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK44" t="n">
-        <v>26.52932710306157</v>
+        <v>50.54295466531603</v>
       </c>
       <c r="BL44" t="n">
-        <v>61.6071929881092</v>
+        <v>37.42510269117033</v>
       </c>
       <c r="BM44" t="n">
-        <v>90.46500542143997</v>
+        <v>172.3514754087277</v>
       </c>
       <c r="BN44" t="n">
-        <v>210.0805280894524</v>
+        <v>127.6196001768908</v>
       </c>
       <c r="BO44" t="n">
         <v>2310.763312693498</v>
@@ -11283,40 +11287,40 @@
         <v>7879.70289628483</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-59.64823800404986</v>
+        <v>0</v>
       </c>
       <c r="BR44" t="n">
-        <v>-82.17792422290159</v>
+        <v>0</v>
       </c>
       <c r="BS44" t="n">
-        <v>-203.40049159381</v>
+        <v>0</v>
       </c>
       <c r="BT44" t="n">
-        <v>-280.2267216000944</v>
+        <v>0</v>
       </c>
       <c r="BU44" t="n">
-        <v>7676.30240469102</v>
+        <v>7879.70289628483</v>
       </c>
       <c r="BV44" t="n">
-        <v>8089.783424374282</v>
+        <v>8007.322496461721</v>
       </c>
       <c r="BW44" t="n">
-        <v>9.766288046680687</v>
+        <v>10.0250672980723</v>
       </c>
       <c r="BX44" t="n">
-        <v>10.2923453236314</v>
+        <v>10.18743320160524</v>
       </c>
       <c r="BY44" t="n">
         <v>783.2</v>
       </c>
       <c r="BZ44" t="n">
-        <v>7672.519387231268</v>
+        <v>8079.436916021674</v>
       </c>
       <c r="CA44" t="n">
-        <v>9.796307115313553</v>
+        <v>10.31617866508502</v>
       </c>
       <c r="CB44" t="n">
-        <v>-406.9175287904072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -11479,16 +11483,16 @@
         <v>10.31404430266316</v>
       </c>
       <c r="BA45" t="n">
-        <v>-0.2609437243406614</v>
+        <v>0</v>
       </c>
       <c r="BB45" t="n">
-        <v>-0.3131395604092777</v>
+        <v>0</v>
       </c>
       <c r="BC45" t="n">
-        <v>0.06450489320264374</v>
+        <v>0.09552894881029612</v>
       </c>
       <c r="BD45" t="n">
-        <v>0.1167007292712601</v>
+        <v>0.08545903069254397</v>
       </c>
       <c r="BE45" t="n">
         <v>615</v>
@@ -11509,16 +11513,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK45" t="n">
-        <v>49.92888424713922</v>
+        <v>73.94251180939368</v>
       </c>
       <c r="BL45" t="n">
-        <v>90.33015813291303</v>
+        <v>66.14806783597415</v>
       </c>
       <c r="BM45" t="n">
-        <v>170.2574952827447</v>
+        <v>252.1439652700325</v>
       </c>
       <c r="BN45" t="n">
-        <v>308.0258392332335</v>
+        <v>225.5649113206719</v>
       </c>
       <c r="BO45" t="n">
         <v>2357.277186532508</v>
@@ -11527,40 +11531,40 @@
         <v>8038.315206075853</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-129.7263016349731</v>
+        <v>0</v>
       </c>
       <c r="BR45" t="n">
-        <v>-155.6750873014458</v>
+        <v>0</v>
       </c>
       <c r="BS45" t="n">
-        <v>-442.3666885752584</v>
+        <v>0</v>
       </c>
       <c r="BT45" t="n">
-        <v>-530.8520476979302</v>
+        <v>0</v>
       </c>
       <c r="BU45" t="n">
-        <v>7595.948517500595</v>
+        <v>8038.315206075853</v>
       </c>
       <c r="BV45" t="n">
-        <v>8346.341045309087</v>
+        <v>8263.880117396526</v>
       </c>
       <c r="BW45" t="n">
-        <v>9.676367538217319</v>
+        <v>10.23989198226223</v>
       </c>
       <c r="BX45" t="n">
-        <v>10.632281586381</v>
+        <v>10.52723581833952</v>
       </c>
       <c r="BY45" t="n">
         <v>783.6</v>
       </c>
       <c r="BZ45" t="n">
-        <v>7616.43621386641</v>
+        <v>8056.722066718268</v>
       </c>
       <c r="CA45" t="n">
-        <v>9.719737868340189</v>
+        <v>10.28193753341668</v>
       </c>
       <c r="CB45" t="n">
-        <v>-440.2858528518594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -11723,16 +11727,16 @@
         <v>10.32063185965668</v>
       </c>
       <c r="BA46" t="n">
-        <v>-0.2652300343157368</v>
+        <v>0</v>
       </c>
       <c r="BB46" t="n">
-        <v>-0.2117596700448914</v>
+        <v>0</v>
       </c>
       <c r="BC46" t="n">
-        <v>0.1635835365485878</v>
+        <v>0.1946075921562402</v>
       </c>
       <c r="BD46" t="n">
-        <v>0.1101131722777424</v>
+        <v>0.07887147369902632</v>
       </c>
       <c r="BE46" t="n">
         <v>615</v>
@@ -11753,16 +11757,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK46" t="n">
-        <v>126.6189750196712</v>
+        <v>150.6326025819257</v>
       </c>
       <c r="BL46" t="n">
-        <v>85.23117487334078</v>
+        <v>61.04908457640191</v>
       </c>
       <c r="BM46" t="n">
-        <v>431.7707048170789</v>
+        <v>513.6571748043666</v>
       </c>
       <c r="BN46" t="n">
-        <v>290.6383063180921</v>
+        <v>208.1773784055305</v>
       </c>
       <c r="BO46" t="n">
         <v>2388.286435758514</v>
@@ -11771,40 +11775,40 @@
         <v>8144.056745936535</v>
       </c>
       <c r="BQ46" t="n">
-        <v>-131.857209906987</v>
+        <v>0</v>
       </c>
       <c r="BR46" t="n">
-        <v>-105.2748016829211</v>
+        <v>0</v>
       </c>
       <c r="BS46" t="n">
-        <v>-449.6330857828257</v>
+        <v>0</v>
       </c>
       <c r="BT46" t="n">
-        <v>-358.9870737387611</v>
+        <v>0</v>
       </c>
       <c r="BU46" t="n">
-        <v>7694.423660153709</v>
+        <v>8144.056745936535</v>
       </c>
       <c r="BV46" t="n">
-        <v>8434.695052254627</v>
+        <v>8352.234124342065</v>
       </c>
       <c r="BW46" t="n">
-        <v>9.776904269572691</v>
+        <v>10.34822966446828</v>
       </c>
       <c r="BX46" t="n">
-        <v>10.71752865597792</v>
+        <v>10.61274984033299</v>
       </c>
       <c r="BY46" t="n">
         <v>784.4</v>
       </c>
       <c r="BZ46" t="n">
-        <v>7634.08113124587</v>
+        <v>8042.623194736845</v>
       </c>
       <c r="CA46" t="n">
-        <v>9.732283709928698</v>
+        <v>10.25335840734643</v>
       </c>
       <c r="CB46" t="n">
-        <v>-408.5420634909755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -11967,16 +11971,16 @@
         <v>10.31690324231728</v>
       </c>
       <c r="BA47" t="n">
-        <v>-0.313278076884032</v>
+        <v>0</v>
       </c>
       <c r="BB47" t="n">
-        <v>-0.2585787817396916</v>
+        <v>0</v>
       </c>
       <c r="BC47" t="n">
-        <v>0.1685410847614861</v>
+        <v>0.1995651403691385</v>
       </c>
       <c r="BD47" t="n">
-        <v>0.1138417896171457</v>
+        <v>0.08260009103842965</v>
       </c>
       <c r="BE47" t="n">
         <v>615</v>
@@ -11997,16 +12001,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK47" t="n">
-        <v>130.4562784951425</v>
+        <v>154.469906057397</v>
       </c>
       <c r="BL47" t="n">
-        <v>88.11724590296176</v>
+        <v>63.93515560602288</v>
       </c>
       <c r="BM47" t="n">
-        <v>444.855909668436</v>
+        <v>526.7423796557239</v>
       </c>
       <c r="BN47" t="n">
-        <v>300.4798085290996</v>
+        <v>218.018880616538</v>
       </c>
       <c r="BO47" t="n">
         <v>2380.247000773994</v>
@@ -12015,40 +12019,40 @@
         <v>8116.642272639321</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-155.7439497737309</v>
+        <v>0</v>
       </c>
       <c r="BR47" t="n">
-        <v>-128.550587377127</v>
+        <v>0</v>
       </c>
       <c r="BS47" t="n">
-        <v>-531.0868687284222</v>
+        <v>0</v>
       </c>
       <c r="BT47" t="n">
-        <v>-438.357502956003</v>
+        <v>0</v>
       </c>
       <c r="BU47" t="n">
-        <v>7585.555403910899</v>
+        <v>8116.642272639321</v>
       </c>
       <c r="BV47" t="n">
-        <v>8417.122081168422</v>
+        <v>8334.66115325586</v>
       </c>
       <c r="BW47" t="n">
-        <v>9.650833847214885</v>
+        <v>10.32651688630957</v>
       </c>
       <c r="BX47" t="n">
-        <v>10.70880671904379</v>
+        <v>10.60389459701763</v>
       </c>
       <c r="BY47" t="n">
         <v>785.4</v>
       </c>
       <c r="BZ47" t="n">
-        <v>7648.213597554861</v>
+        <v>8046.931183397835</v>
       </c>
       <c r="CA47" t="n">
-        <v>9.738022035744029</v>
+        <v>10.24565222523975</v>
       </c>
       <c r="CB47" t="n">
-        <v>-398.717585842977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -12211,16 +12215,16 @@
         <v>10.32942112448675</v>
       </c>
       <c r="BA48" t="n">
-        <v>-0.1581929969120122</v>
+        <v>0</v>
       </c>
       <c r="BB48" t="n">
-        <v>-0.2247224567523478</v>
+        <v>0</v>
       </c>
       <c r="BC48" t="n">
-        <v>0.03479444760734118</v>
+        <v>0.06581850321499357</v>
       </c>
       <c r="BD48" t="n">
-        <v>0.1013239074476768</v>
+        <v>0.07008220886896073</v>
       </c>
       <c r="BE48" t="n">
         <v>615</v>
@@ -12241,16 +12245,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK48" t="n">
-        <v>26.93203353693618</v>
+        <v>50.94566109919064</v>
       </c>
       <c r="BL48" t="n">
-        <v>78.42799817573467</v>
+        <v>54.2459078787958</v>
       </c>
       <c r="BM48" t="n">
-        <v>91.8382343609524</v>
+        <v>173.7247043482401</v>
       </c>
       <c r="BN48" t="n">
-        <v>267.4394737792553</v>
+        <v>184.9785458666937</v>
       </c>
       <c r="BO48" t="n">
         <v>2318.228502321982</v>
@@ -12259,40 +12263,40 @@
         <v>7905.159192917959</v>
       </c>
       <c r="BQ48" t="n">
-        <v>-78.64451419861288</v>
+        <v>0</v>
       </c>
       <c r="BR48" t="n">
-        <v>-111.7191581536135</v>
+        <v>0</v>
       </c>
       <c r="BS48" t="n">
-        <v>-268.1777934172699</v>
+        <v>0</v>
       </c>
       <c r="BT48" t="n">
-        <v>-380.9623293038221</v>
+        <v>0</v>
       </c>
       <c r="BU48" t="n">
-        <v>7636.981399500689</v>
+        <v>7905.159192917959</v>
       </c>
       <c r="BV48" t="n">
-        <v>8172.598666697214</v>
+        <v>8090.137738784652</v>
       </c>
       <c r="BW48" t="n">
-        <v>9.71626132251996</v>
+        <v>10.05745444391598</v>
       </c>
       <c r="BX48" t="n">
-        <v>10.39770822735015</v>
+        <v>10.29279610532399</v>
       </c>
       <c r="BY48" t="n">
         <v>786</v>
       </c>
       <c r="BZ48" t="n">
-        <v>7637.842277151384</v>
+        <v>8016.7752627709</v>
       </c>
       <c r="CA48" t="n">
-        <v>9.717331004841109</v>
+        <v>10.19943205500567</v>
       </c>
       <c r="CB48" t="n">
-        <v>-378.9329856195178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -12455,16 +12459,16 @@
         <v>10.32349248446645</v>
       </c>
       <c r="BA49" t="n">
-        <v>-0.3574469956792345</v>
+        <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>-0.2574168517290261</v>
+        <v>0</v>
       </c>
       <c r="BC49" t="n">
-        <v>0.207282691418186</v>
+        <v>0.2383067470258384</v>
       </c>
       <c r="BD49" t="n">
-        <v>0.1072525474679775</v>
+        <v>0.07601084888926142</v>
       </c>
       <c r="BE49" t="n">
         <v>615</v>
@@ -12485,16 +12489,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK49" t="n">
-        <v>160.4435414495023</v>
+        <v>184.4571690117567</v>
       </c>
       <c r="BL49" t="n">
-        <v>83.01695827813539</v>
+        <v>58.83486798119649</v>
       </c>
       <c r="BM49" t="n">
-        <v>547.1124763428028</v>
+        <v>628.9989463300905</v>
       </c>
       <c r="BN49" t="n">
-        <v>283.0878277284417</v>
+        <v>200.62689981588</v>
       </c>
       <c r="BO49" t="n">
         <v>2411.256249999999</v>
@@ -12503,40 +12507,40 @@
         <v>8222.383812499997</v>
       </c>
       <c r="BQ49" t="n">
-        <v>-177.7022110693225</v>
+        <v>0</v>
       </c>
       <c r="BR49" t="n">
-        <v>-127.9729422031601</v>
+        <v>0</v>
       </c>
       <c r="BS49" t="n">
-        <v>-605.9645397463898</v>
+        <v>0</v>
       </c>
       <c r="BT49" t="n">
-        <v>-436.3877329127758</v>
+        <v>0</v>
       </c>
       <c r="BU49" t="n">
-        <v>7616.419272753606</v>
+        <v>8222.383812499997</v>
       </c>
       <c r="BV49" t="n">
-        <v>8505.471640228438</v>
+        <v>8423.010712315876</v>
       </c>
       <c r="BW49" t="n">
-        <v>9.702444933444085</v>
+        <v>10.47437428343949</v>
       </c>
       <c r="BX49" t="n">
-        <v>10.83499572003623</v>
+        <v>10.72994995199475</v>
       </c>
       <c r="BY49" t="n">
         <v>785.8</v>
       </c>
       <c r="BZ49" t="n">
-        <v>7625.865650763901</v>
+        <v>8085.311446013933</v>
       </c>
       <c r="CA49" t="n">
-        <v>9.704562382193789</v>
+        <v>10.28929345207911</v>
       </c>
       <c r="CB49" t="n">
-        <v>-459.4457952500337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -12699,16 +12703,16 @@
         <v>10.33118469223549</v>
       </c>
       <c r="BA50" t="n">
-        <v>-0.3195588013267621</v>
+        <v>0</v>
       </c>
       <c r="BB50" t="n">
-        <v>-0.2686749169031657</v>
+        <v>0</v>
       </c>
       <c r="BC50" t="n">
-        <v>0.150444224122527</v>
+        <v>0.1814682797301794</v>
       </c>
       <c r="BD50" t="n">
-        <v>0.09956033969893063</v>
+        <v>0.06831864112021453</v>
       </c>
       <c r="BE50" t="n">
         <v>615</v>
@@ -12729,16 +12733,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK50" t="n">
-        <v>116.4487200725489</v>
+        <v>140.4623476348033</v>
       </c>
       <c r="BL50" t="n">
-        <v>77.06293940860338</v>
+        <v>52.8808491116645</v>
       </c>
       <c r="BM50" t="n">
-        <v>397.0901354473916</v>
+        <v>478.9766054346794</v>
       </c>
       <c r="BN50" t="n">
-        <v>262.7846233833375</v>
+        <v>180.3236954707759</v>
       </c>
       <c r="BO50" t="n">
         <v>2403.791060371517</v>
@@ -12747,40 +12751,40 @@
         <v>8196.927515866873</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-158.8663668987355</v>
+        <v>0</v>
       </c>
       <c r="BR50" t="n">
-        <v>-133.56980858612</v>
+        <v>0</v>
       </c>
       <c r="BS50" t="n">
-        <v>-541.7343111246879</v>
+        <v>0</v>
       </c>
       <c r="BT50" t="n">
-        <v>-455.4730472786694</v>
+        <v>0</v>
       </c>
       <c r="BU50" t="n">
-        <v>7655.193204742185</v>
+        <v>8196.927515866873</v>
       </c>
       <c r="BV50" t="n">
-        <v>8459.71213925021</v>
+        <v>8377.251211337649</v>
       </c>
       <c r="BW50" t="n">
-        <v>9.941809356808033</v>
+        <v>10.64536041021672</v>
       </c>
       <c r="BX50" t="n">
-        <v>10.98663914188339</v>
+        <v>10.87954702771123</v>
       </c>
       <c r="BY50" t="n">
         <v>782.8</v>
       </c>
       <c r="BZ50" t="n">
-        <v>7637.714588212219</v>
+        <v>8117.033907972138</v>
       </c>
       <c r="CA50" t="n">
-        <v>9.757650745911931</v>
+        <v>10.37038713767001</v>
       </c>
       <c r="CB50" t="n">
-        <v>-479.3193197599197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -12943,16 +12947,16 @@
         <v>10.33888202755207</v>
       </c>
       <c r="BA51" t="n">
-        <v>-0.3438218775420445</v>
+        <v>0</v>
       </c>
       <c r="BB51" t="n">
-        <v>-0.2195630708197864</v>
+        <v>0</v>
       </c>
       <c r="BC51" t="n">
-        <v>0.2161218111046086</v>
+        <v>0.247145866712261</v>
       </c>
       <c r="BD51" t="n">
-        <v>0.09186300438235051</v>
+        <v>0.06062130580363441</v>
       </c>
       <c r="BE51" t="n">
         <v>615</v>
@@ -12973,16 +12977,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK51" t="n">
-        <v>167.2853074265974</v>
+        <v>191.2989349888518</v>
       </c>
       <c r="BL51" t="n">
-        <v>71.10495165059569</v>
+        <v>46.92286135365679</v>
       </c>
       <c r="BM51" t="n">
-        <v>570.4428983246971</v>
+        <v>652.3293683119848</v>
       </c>
       <c r="BN51" t="n">
-        <v>242.4678851285313</v>
+        <v>160.0069572159697</v>
       </c>
       <c r="BO51" t="n">
         <v>2427.33511996904</v>
@@ -12991,40 +12995,40 @@
         <v>8277.212759094426</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-170.9285812771389</v>
+        <v>0</v>
       </c>
       <c r="BR51" t="n">
-        <v>-109.1542064291378</v>
+        <v>0</v>
       </c>
       <c r="BS51" t="n">
-        <v>-582.8664621550437</v>
+        <v>0</v>
       </c>
       <c r="BT51" t="n">
-        <v>-372.21584392336</v>
+        <v>0</v>
       </c>
       <c r="BU51" t="n">
-        <v>7694.346296939382</v>
+        <v>8277.212759094426</v>
       </c>
       <c r="BV51" t="n">
-        <v>8519.680644222957</v>
+        <v>8437.219716310396</v>
       </c>
       <c r="BW51" t="n">
-        <v>10.01868007413982</v>
+        <v>10.77762078007087</v>
       </c>
       <c r="BX51" t="n">
-        <v>11.09333417216531</v>
+        <v>10.98596317227916</v>
       </c>
       <c r="BY51" t="n">
         <v>779</v>
       </c>
       <c r="BZ51" t="n">
-        <v>7637.699115569354</v>
+        <v>8143.665110603715</v>
       </c>
       <c r="CA51" t="n">
-        <v>9.806005906825357</v>
+        <v>10.45626536079052</v>
       </c>
       <c r="CB51" t="n">
-        <v>-505.9659950343633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -13187,16 +13191,16 @@
         <v>10.41282327826011</v>
       </c>
       <c r="BA52" t="n">
-        <v>-0.460843890755859</v>
+        <v>0</v>
       </c>
       <c r="BB52" t="n">
-        <v>-0.2195630708197864</v>
+        <v>0</v>
       </c>
       <c r="BC52" t="n">
-        <v>0.2592025736103878</v>
+        <v>0.2902266292180402</v>
       </c>
       <c r="BD52" t="n">
-        <v>0.01792175367431526</v>
+        <v>0</v>
       </c>
       <c r="BE52" t="n">
         <v>615</v>
@@ -13217,16 +13221,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK52" t="n">
-        <v>200.6312180642944</v>
+        <v>224.6448456265488</v>
       </c>
       <c r="BL52" t="n">
-        <v>13.87201993962769</v>
+        <v>0</v>
       </c>
       <c r="BM52" t="n">
-        <v>684.1524535992438</v>
+        <v>766.0389235865315</v>
       </c>
       <c r="BN52" t="n">
-        <v>47.30358799413041</v>
+        <v>0</v>
       </c>
       <c r="BO52" t="n">
         <v>2434.800309597524</v>
@@ -13235,40 +13239,40 @@
         <v>8302.669055727558</v>
       </c>
       <c r="BQ52" t="n">
-        <v>-229.1052361189643</v>
+        <v>0</v>
       </c>
       <c r="BR52" t="n">
-        <v>-109.1542064291378</v>
+        <v>0</v>
       </c>
       <c r="BS52" t="n">
-        <v>-781.2488551656685</v>
+        <v>0</v>
       </c>
       <c r="BT52" t="n">
-        <v>-372.21584392336</v>
+        <v>0</v>
       </c>
       <c r="BU52" t="n">
-        <v>7521.420200561889</v>
+        <v>8302.669055727558</v>
       </c>
       <c r="BV52" t="n">
-        <v>8349.972643721689</v>
+        <v>8302.669055727558</v>
       </c>
       <c r="BW52" t="n">
-        <v>9.793515886148294</v>
+        <v>10.81076699964526</v>
       </c>
       <c r="BX52" t="n">
-        <v>10.87236021317928</v>
+        <v>10.81076699964526</v>
       </c>
       <c r="BY52" t="n">
         <v>775.4</v>
       </c>
       <c r="BZ52" t="n">
-        <v>7624.872074899552</v>
+        <v>8180.870467221363</v>
       </c>
       <c r="CA52" t="n">
-        <v>9.83454231461204</v>
+        <v>10.55311538345766</v>
       </c>
       <c r="CB52" t="n">
-        <v>-555.9983923218125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -13431,16 +13435,16 @@
         <v>10.40950131154987</v>
       </c>
       <c r="BA53" t="n">
-        <v>-0.3361508751185767</v>
+        <v>0</v>
       </c>
       <c r="BB53" t="n">
-        <v>-0.1912755625993778</v>
+        <v>0</v>
       </c>
       <c r="BC53" t="n">
-        <v>0.1661190329037492</v>
+        <v>0.1971430885114016</v>
       </c>
       <c r="BD53" t="n">
-        <v>0.02124372038455036</v>
+        <v>0</v>
       </c>
       <c r="BE53" t="n">
         <v>615</v>
@@ -13461,16 +13465,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK53" t="n">
-        <v>128.5815316218223</v>
+        <v>152.5951591840767</v>
       </c>
       <c r="BL53" t="n">
-        <v>16.44333016297955</v>
+        <v>0</v>
       </c>
       <c r="BM53" t="n">
-        <v>438.4630228304139</v>
+        <v>520.3494928177015</v>
       </c>
       <c r="BN53" t="n">
-        <v>56.07175585576028</v>
+        <v>0</v>
       </c>
       <c r="BO53" t="n">
         <v>2384.840963622291</v>
@@ -13479,40 +13483,40 @@
         <v>8132.307685952012</v>
       </c>
       <c r="BQ53" t="n">
-        <v>-167.1149974220612</v>
+        <v>0</v>
       </c>
       <c r="BR53" t="n">
-        <v>-95.09127453386138</v>
+        <v>0</v>
       </c>
       <c r="BS53" t="n">
-        <v>-569.8621412092286</v>
+        <v>0</v>
       </c>
       <c r="BT53" t="n">
-        <v>-324.2612461604673</v>
+        <v>0</v>
       </c>
       <c r="BU53" t="n">
-        <v>7562.445544742784</v>
+        <v>8132.307685952012</v>
       </c>
       <c r="BV53" t="n">
-        <v>8188.379441807772</v>
+        <v>8132.307685952012</v>
       </c>
       <c r="BW53" t="n">
-        <v>9.695443006080492</v>
+        <v>10.42603549481027</v>
       </c>
       <c r="BX53" t="n">
-        <v>10.49792236129202</v>
+        <v>10.42603549481027</v>
       </c>
       <c r="BY53" t="n">
         <v>774.2</v>
       </c>
       <c r="BZ53" t="n">
-        <v>7609.96490394797</v>
+        <v>8226.300165828176</v>
       </c>
       <c r="CA53" t="n">
-        <v>9.830378651324144</v>
+        <v>10.62683159363652</v>
       </c>
       <c r="CB53" t="n">
-        <v>-616.3352618802043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -13675,16 +13679,16 @@
         <v>10.42897318485196</v>
       </c>
       <c r="BA54" t="n">
-        <v>-0.4292532177270587</v>
+        <v>0</v>
       </c>
       <c r="BB54" t="n">
-        <v>-0.2355449027660885</v>
+        <v>0</v>
       </c>
       <c r="BC54" t="n">
-        <v>0.1954801620434381</v>
+        <v>0.2265042176510905</v>
       </c>
       <c r="BD54" t="n">
-        <v>0.001771847082467914</v>
+        <v>0</v>
       </c>
       <c r="BE54" t="n">
         <v>615</v>
@@ -13705,16 +13709,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK54" t="n">
-        <v>151.3080000398919</v>
+        <v>175.3216276021463</v>
       </c>
       <c r="BL54" t="n">
-        <v>1.371467240574332</v>
+        <v>0</v>
       </c>
       <c r="BM54" t="n">
-        <v>515.9602801360312</v>
+        <v>597.8467501233189</v>
       </c>
       <c r="BN54" t="n">
-        <v>4.676703290358474</v>
+        <v>0</v>
       </c>
       <c r="BO54" t="n">
         <v>2419.869930340556</v>
@@ -13723,40 +13727,40 @@
         <v>8251.756462461297</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-213.4001595223115</v>
+        <v>0</v>
       </c>
       <c r="BR54" t="n">
-        <v>-117.0994595942946</v>
+        <v>0</v>
       </c>
       <c r="BS54" t="n">
-        <v>-727.6945439710823</v>
+        <v>0</v>
       </c>
       <c r="BT54" t="n">
-        <v>-399.3091572165445</v>
+        <v>0</v>
       </c>
       <c r="BU54" t="n">
-        <v>7524.061918490214</v>
+        <v>8251.756462461297</v>
       </c>
       <c r="BV54" t="n">
-        <v>8256.433165751656</v>
+        <v>8251.756462461297</v>
       </c>
       <c r="BW54" t="n">
-        <v>9.524129010747107</v>
+        <v>10.44526134488772</v>
       </c>
       <c r="BX54" t="n">
-        <v>10.45118122247045</v>
+        <v>10.44526134488772</v>
       </c>
       <c r="BY54" t="n">
         <v>775.2</v>
       </c>
       <c r="BZ54" t="n">
-        <v>7591.493433095292</v>
+        <v>8232.174695820435</v>
       </c>
       <c r="CA54" t="n">
-        <v>9.79471546678475</v>
+        <v>10.62100900592617</v>
       </c>
       <c r="CB54" t="n">
-        <v>-640.6812627251427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -13910,7 +13914,7 @@
         <v>10.68369735849413</v>
       </c>
       <c r="AX55" t="n">
-        <v>10.22343227018545</v>
+        <v>10.22343227018549</v>
       </c>
       <c r="AY55" t="n">
         <v>79.36000000000001</v>
@@ -13919,16 +13923,16 @@
         <v>10.46191493205495</v>
       </c>
       <c r="BA55" t="n">
-        <v>-0.4602650883086739</v>
+        <v>0</v>
       </c>
       <c r="BB55" t="n">
-        <v>-0.2073127617489696</v>
+        <v>0</v>
       </c>
       <c r="BC55" t="n">
-        <v>0.2217824264391783</v>
+        <v>0.2528064820468307</v>
       </c>
       <c r="BD55" t="n">
-        <v>-0.0311699001205259</v>
+        <v>0</v>
       </c>
       <c r="BE55" t="n">
         <v>615</v>
@@ -13949,16 +13953,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK55" t="n">
-        <v>171.6668077093655</v>
+        <v>195.68043527162</v>
       </c>
       <c r="BL55" t="n">
-        <v>-24.12651595629406</v>
+        <v>0</v>
       </c>
       <c r="BM55" t="n">
-        <v>585.3838142889365</v>
+        <v>667.2702842762241</v>
       </c>
       <c r="BN55" t="n">
-        <v>-82.27141941096274</v>
+        <v>0</v>
       </c>
       <c r="BO55" t="n">
         <v>2430.780592105264</v>
@@ -13967,40 +13971,40 @@
         <v>8288.961819078952</v>
       </c>
       <c r="BQ55" t="n">
-        <v>-228.8174886322589</v>
+        <v>0</v>
       </c>
       <c r="BR55" t="n">
-        <v>-103.0640531071604</v>
+        <v>0</v>
       </c>
       <c r="BS55" t="n">
-        <v>-780.2676362360029</v>
+        <v>0</v>
       </c>
       <c r="BT55" t="n">
-        <v>-351.448421095417</v>
+        <v>0</v>
       </c>
       <c r="BU55" t="n">
-        <v>7508.694182842949</v>
+        <v>8288.961819078952</v>
       </c>
       <c r="BV55" t="n">
-        <v>8206.690399667988</v>
+        <v>8288.961819078952</v>
       </c>
       <c r="BW55" t="n">
-        <v>9.516722665200188</v>
+        <v>10.50565503051832</v>
       </c>
       <c r="BX55" t="n">
-        <v>10.40138200211405</v>
+        <v>10.50565503051832</v>
       </c>
       <c r="BY55" t="n">
         <v>779</v>
       </c>
       <c r="BZ55" t="n">
-        <v>7562.193628715444</v>
+        <v>8250.58155646285</v>
       </c>
       <c r="CA55" t="n">
-        <v>9.709698128463179</v>
+        <v>10.59306792998649</v>
       </c>
       <c r="CB55" t="n">
-        <v>-688.3879277474058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -14163,16 +14167,16 @@
         <v>10.47933189114634</v>
       </c>
       <c r="BA56" t="n">
-        <v>-0.5039899874535028</v>
+        <v>0</v>
       </c>
       <c r="BB56" t="n">
-        <v>-0.1418285946211757</v>
+        <v>0</v>
       </c>
       <c r="BC56" t="n">
-        <v>0.313574533620411</v>
+        <v>0.3445985892280634</v>
       </c>
       <c r="BD56" t="n">
-        <v>-0.04858685921191608</v>
+        <v>0</v>
       </c>
       <c r="BE56" t="n">
         <v>615</v>
@@ -14193,16 +14197,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK56" t="n">
-        <v>242.7168826215882</v>
+        <v>266.7305101838427</v>
       </c>
       <c r="BL56" t="n">
-        <v>-37.60780847900671</v>
+        <v>0</v>
       </c>
       <c r="BM56" t="n">
-        <v>827.6645697396158</v>
+        <v>909.5510397269036</v>
       </c>
       <c r="BN56" t="n">
-        <v>-128.2426269134129</v>
+        <v>0</v>
       </c>
       <c r="BO56" t="n">
         <v>2473.848993808049</v>
@@ -14211,40 +14215,40 @@
         <v>8435.825068885448</v>
       </c>
       <c r="BQ56" t="n">
-        <v>-250.5550087422107</v>
+        <v>0</v>
       </c>
       <c r="BR56" t="n">
-        <v>-70.50906892963347</v>
+        <v>0</v>
       </c>
       <c r="BS56" t="n">
-        <v>-854.3925798109385</v>
+        <v>0</v>
       </c>
       <c r="BT56" t="n">
-        <v>-240.4359250500501</v>
+        <v>0</v>
       </c>
       <c r="BU56" t="n">
-        <v>7581.432489074509</v>
+        <v>8435.825068885448</v>
       </c>
       <c r="BV56" t="n">
-        <v>8307.582441972036</v>
+        <v>8435.825068885448</v>
       </c>
       <c r="BW56" t="n">
-        <v>9.608913167394816</v>
+        <v>10.69179349668625</v>
       </c>
       <c r="BX56" t="n">
-        <v>10.52925531301906</v>
+        <v>10.69179349668625</v>
       </c>
       <c r="BY56" t="n">
         <v>783.2</v>
       </c>
       <c r="BZ56" t="n">
-        <v>7539.610867142471</v>
+        <v>8282.304018421053</v>
       </c>
       <c r="CA56" t="n">
-        <v>9.627744747114178</v>
+        <v>10.57590247330956</v>
       </c>
       <c r="CB56" t="n">
-        <v>-742.6931512785848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -14407,16 +14411,16 @@
         <v>10.45547118704959</v>
       </c>
       <c r="BA57" t="n">
-        <v>-0.3633628941064302</v>
+        <v>0</v>
       </c>
       <c r="BB57" t="n">
-        <v>-0.1361383289297144</v>
+        <v>0</v>
       </c>
       <c r="BC57" t="n">
-        <v>0.2024984100615459</v>
+        <v>0.2335224656691983</v>
       </c>
       <c r="BD57" t="n">
-        <v>-0.02472615511516985</v>
+        <v>0</v>
       </c>
       <c r="BE57" t="n">
         <v>615</v>
@@ -14437,16 +14441,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK57" t="n">
-        <v>156.7403521532887</v>
+        <v>180.7539797155432</v>
       </c>
       <c r="BL57" t="n">
-        <v>-19.13884785056161</v>
+        <v>0</v>
       </c>
       <c r="BM57" t="n">
-        <v>534.4846008427144</v>
+        <v>616.3710708300022</v>
       </c>
       <c r="BN57" t="n">
-        <v>-65.2634711704151</v>
+        <v>0</v>
       </c>
       <c r="BO57" t="n">
         <v>2396.90011609907</v>
@@ -14455,40 +14459,40 @@
         <v>8173.42939589783</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-180.643257556443</v>
+        <v>0</v>
       </c>
       <c r="BR57" t="n">
-        <v>-67.68019413933595</v>
+        <v>0</v>
       </c>
       <c r="BS57" t="n">
-        <v>-615.9935082674707</v>
+        <v>0</v>
       </c>
       <c r="BT57" t="n">
-        <v>-230.7894620151356</v>
+        <v>0</v>
       </c>
       <c r="BU57" t="n">
-        <v>7557.435887630359</v>
+        <v>8173.42939589783</v>
       </c>
       <c r="BV57" t="n">
-        <v>8108.165924727415</v>
+        <v>8173.42939589783</v>
       </c>
       <c r="BW57" t="n">
-        <v>9.578499223866107</v>
+        <v>10.35922610379953</v>
       </c>
       <c r="BX57" t="n">
-        <v>10.27650941030091</v>
+        <v>10.35922610379953</v>
       </c>
       <c r="BY57" t="n">
         <v>787.4</v>
       </c>
       <c r="BZ57" t="n">
-        <v>7546.814004556165</v>
+        <v>8256.456086455108</v>
       </c>
       <c r="CA57" t="n">
-        <v>9.584741414657742</v>
+        <v>10.48559429414042</v>
       </c>
       <c r="CB57" t="n">
-        <v>-709.6420818989452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -14651,16 +14655,16 @@
         <v>10.46325539580836</v>
       </c>
       <c r="BA58" t="n">
-        <v>-0.1124384066036406</v>
+        <v>0</v>
       </c>
       <c r="BB58" t="n">
-        <v>-0.1124332088629618</v>
+        <v>0</v>
       </c>
       <c r="BC58" t="n">
-        <v>-0.03250516613326226</v>
+        <v>0</v>
       </c>
       <c r="BD58" t="n">
-        <v>-0.03251036387394102</v>
+        <v>0</v>
       </c>
       <c r="BE58" t="n">
         <v>615</v>
@@ -14681,16 +14685,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK58" t="n">
-        <v>-25.1600552566323</v>
+        <v>0</v>
       </c>
       <c r="BL58" t="n">
-        <v>-25.16407847688445</v>
+        <v>0</v>
       </c>
       <c r="BM58" t="n">
-        <v>-85.79578842511614</v>
+        <v>0</v>
       </c>
       <c r="BN58" t="n">
-        <v>-85.80950760617597</v>
+        <v>0</v>
       </c>
       <c r="BO58" t="n">
         <v>2327.416428018576</v>
@@ -14699,40 +14703,40 @@
         <v>7936.490019543346</v>
       </c>
       <c r="BQ58" t="n">
-        <v>-55.89794767923739</v>
+        <v>0</v>
       </c>
       <c r="BR58" t="n">
-        <v>-55.89536365972585</v>
+        <v>0</v>
       </c>
       <c r="BS58" t="n">
-        <v>-190.6120015861995</v>
+        <v>0</v>
       </c>
       <c r="BT58" t="n">
-        <v>-190.6031900796652</v>
+        <v>0</v>
       </c>
       <c r="BU58" t="n">
-        <v>7745.878017957146</v>
+        <v>7936.490019543346</v>
       </c>
       <c r="BV58" t="n">
-        <v>7850.680511937169</v>
+        <v>7936.490019543346</v>
       </c>
       <c r="BW58" t="n">
-        <v>9.792513297038111</v>
+        <v>10.03348927881586</v>
       </c>
       <c r="BX58" t="n">
-        <v>9.925006968315005</v>
+        <v>10.03348927881586</v>
       </c>
       <c r="BY58" t="n">
         <v>789.6</v>
       </c>
       <c r="BZ58" t="n">
-        <v>7583.500499199037</v>
+        <v>8217.292553173374</v>
       </c>
       <c r="CA58" t="n">
-        <v>9.604155472849266</v>
+        <v>10.40708505094153</v>
       </c>
       <c r="CB58" t="n">
-        <v>-633.7920539743393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -14895,16 +14899,16 @@
         <v>10.43577702461438</v>
       </c>
       <c r="BA59" t="n">
-        <v>-0.2369153591321886</v>
+        <v>0</v>
       </c>
       <c r="BB59" t="n">
-        <v>-0.1515459451574959</v>
+        <v>0</v>
       </c>
       <c r="BC59" t="n">
-        <v>0.08033742129473431</v>
+        <v>0.1113614769023867</v>
       </c>
       <c r="BD59" t="n">
-        <v>-0.005031992679958464</v>
+        <v>0</v>
       </c>
       <c r="BE59" t="n">
         <v>615</v>
@@ -14925,16 +14929,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK59" t="n">
-        <v>62.1837756701231</v>
+        <v>86.19740323237755</v>
       </c>
       <c r="BL59" t="n">
-        <v>-3.89492591299726</v>
+        <v>0</v>
       </c>
       <c r="BM59" t="n">
-        <v>212.0466750351198</v>
+        <v>293.9331450224075</v>
       </c>
       <c r="BN59" t="n">
-        <v>-13.28169736332066</v>
+        <v>0</v>
       </c>
       <c r="BO59" t="n">
         <v>2385.989454334365</v>
@@ -14943,40 +14947,40 @@
         <v>8136.224039280186</v>
       </c>
       <c r="BQ59" t="n">
-        <v>-117.7807721507682</v>
+        <v>0</v>
       </c>
       <c r="BR59" t="n">
-        <v>-75.33998007705672</v>
+        <v>0</v>
       </c>
       <c r="BS59" t="n">
-        <v>-401.6324330341195</v>
+        <v>0</v>
       </c>
       <c r="BT59" t="n">
-        <v>-256.9093320627634</v>
+        <v>0</v>
       </c>
       <c r="BU59" t="n">
-        <v>7734.591606246066</v>
+        <v>8136.224039280186</v>
       </c>
       <c r="BV59" t="n">
-        <v>8122.942341916865</v>
+        <v>8136.224039280186</v>
       </c>
       <c r="BW59" t="n">
-        <v>9.790622286387427</v>
+        <v>10.29901777124074</v>
       </c>
       <c r="BX59" t="n">
-        <v>10.2822054960973</v>
+        <v>10.29901777124074</v>
       </c>
       <c r="BY59" t="n">
         <v>789.6</v>
       </c>
       <c r="BZ59" t="n">
-        <v>7625.606436750207</v>
+        <v>8194.186068537154</v>
       </c>
       <c r="CA59" t="n">
-        <v>9.657454127977328</v>
+        <v>10.37783633621214</v>
       </c>
       <c r="CB59" t="n">
-        <v>-568.5796317869468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -15139,16 +15143,16 @@
         <v>10.5037797451912</v>
       </c>
       <c r="BA60" t="n">
-        <v>-0.4217615473365495</v>
+        <v>0</v>
       </c>
       <c r="BB60" t="n">
-        <v>-0.1628955679122566</v>
+        <v>0</v>
       </c>
       <c r="BC60" t="n">
-        <v>0.1858312661675185</v>
+        <v>0.2168553217751709</v>
       </c>
       <c r="BD60" t="n">
-        <v>-0.07303471325677435</v>
+        <v>0</v>
       </c>
       <c r="BE60" t="n">
         <v>615</v>
@@ -15169,16 +15173,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK60" t="n">
-        <v>143.8394409681323</v>
+        <v>167.8530685303867</v>
       </c>
       <c r="BL60" t="n">
-        <v>-56.53124225420834</v>
+        <v>0</v>
       </c>
       <c r="BM60" t="n">
-        <v>490.4924937013312</v>
+        <v>572.3789636886188</v>
       </c>
       <c r="BN60" t="n">
-        <v>-192.7715360868505</v>
+        <v>0</v>
       </c>
       <c r="BO60" t="n">
         <v>2430.206346749225</v>
@@ -15187,40 +15191,40 @@
         <v>8287.003642414857</v>
       </c>
       <c r="BQ60" t="n">
-        <v>-209.6757293016397</v>
+        <v>0</v>
       </c>
       <c r="BR60" t="n">
-        <v>-80.98236365477057</v>
+        <v>0</v>
       </c>
       <c r="BS60" t="n">
-        <v>-714.9942369185915</v>
+        <v>0</v>
       </c>
       <c r="BT60" t="n">
-        <v>-276.1498600627676</v>
+        <v>0</v>
       </c>
       <c r="BU60" t="n">
-        <v>7572.009405496265</v>
+        <v>8287.003642414857</v>
       </c>
       <c r="BV60" t="n">
-        <v>8094.232106328006</v>
+        <v>8287.003642414857</v>
       </c>
       <c r="BW60" t="n">
-        <v>9.596970095686013</v>
+        <v>10.50317318430273</v>
       </c>
       <c r="BX60" t="n">
-        <v>10.25884931093537</v>
+        <v>10.50317318430273</v>
       </c>
       <c r="BY60" t="n">
         <v>789.6</v>
       </c>
       <c r="BZ60" t="n">
-        <v>7638.269481280871</v>
+        <v>8193.794433204333</v>
       </c>
       <c r="CA60" t="n">
-        <v>9.673503614074495</v>
+        <v>10.37733996696902</v>
       </c>
       <c r="CB60" t="n">
-        <v>-555.5249519234645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -15383,16 +15387,16 @@
         <v>10.5192378108954</v>
       </c>
       <c r="BA61" t="n">
-        <v>-0.4325381137627904</v>
+        <v>0</v>
       </c>
       <c r="BB61" t="n">
-        <v>-0.2286430851871248</v>
+        <v>0</v>
       </c>
       <c r="BC61" t="n">
-        <v>0.1154022496146876</v>
+        <v>0.14642630522234</v>
       </c>
       <c r="BD61" t="n">
-        <v>-0.08849277896097796</v>
+        <v>0</v>
       </c>
       <c r="BE61" t="n">
         <v>615</v>
@@ -15413,16 +15417,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK61" t="n">
-        <v>89.32509266808692</v>
+        <v>113.3387202303414</v>
       </c>
       <c r="BL61" t="n">
-        <v>-68.49628761604178</v>
+        <v>0</v>
       </c>
       <c r="BM61" t="n">
-        <v>304.5985659981764</v>
+        <v>386.4850359854642</v>
       </c>
       <c r="BN61" t="n">
-        <v>-233.5723407707025</v>
+        <v>0</v>
       </c>
       <c r="BO61" t="n">
         <v>2409.533513931889</v>
@@ -15431,40 +15435,40 @@
         <v>8216.509282507743</v>
       </c>
       <c r="BQ61" t="n">
-        <v>-215.0332220343439</v>
+        <v>0</v>
       </c>
       <c r="BR61" t="n">
-        <v>-113.6682704697409</v>
+        <v>0</v>
       </c>
       <c r="BS61" t="n">
-        <v>-733.2632871371128</v>
+        <v>0</v>
       </c>
       <c r="BT61" t="n">
-        <v>-387.6088023018166</v>
+        <v>0</v>
       </c>
       <c r="BU61" t="n">
-        <v>7483.24599537063</v>
+        <v>8216.509282507743</v>
       </c>
       <c r="BV61" t="n">
-        <v>7982.93694173704</v>
+        <v>8216.509282507743</v>
       </c>
       <c r="BW61" t="n">
-        <v>9.693323828200299</v>
+        <v>10.64314673899967</v>
       </c>
       <c r="BX61" t="n">
-        <v>10.34059189344176</v>
+        <v>10.64314673899967</v>
       </c>
       <c r="BY61" t="n">
         <v>786.2</v>
       </c>
       <c r="BZ61" t="n">
-        <v>7618.632182540096</v>
+        <v>8149.931275928793</v>
       </c>
       <c r="CA61" t="n">
-        <v>9.690385746235592</v>
+        <v>10.36761061543171</v>
       </c>
       <c r="CB61" t="n">
-        <v>-531.2990933886992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -15627,16 +15631,16 @@
         <v>10.50902628688688</v>
       </c>
       <c r="BA62" t="n">
-        <v>-0.2309173784742562</v>
+        <v>0</v>
       </c>
       <c r="BB62" t="n">
-        <v>-0.1311478857702646</v>
+        <v>0</v>
       </c>
       <c r="BC62" t="n">
-        <v>0.02148823775153019</v>
+        <v>0.05251229335918257</v>
       </c>
       <c r="BD62" t="n">
-        <v>-0.07828125495246141</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
         <v>615</v>
@@ -15657,16 +15661,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK62" t="n">
-        <v>16.63259455372892</v>
+        <v>40.64622211598338</v>
       </c>
       <c r="BL62" t="n">
-        <v>-60.59223607988314</v>
+        <v>0</v>
       </c>
       <c r="BM62" t="n">
-        <v>56.71714742821563</v>
+        <v>138.6036174155034</v>
       </c>
       <c r="BN62" t="n">
-        <v>-206.6195250324015</v>
+        <v>0</v>
       </c>
       <c r="BO62" t="n">
         <v>2345.218034055728</v>
@@ -15675,40 +15679,40 @@
         <v>7997.193496130032</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-114.7989190711521</v>
+        <v>0</v>
       </c>
       <c r="BR62" t="n">
-        <v>-65.19923110322242</v>
+        <v>0</v>
       </c>
       <c r="BS62" t="n">
-        <v>-391.4643140326287</v>
+        <v>0</v>
       </c>
       <c r="BT62" t="n">
-        <v>-222.3293780619885</v>
+        <v>0</v>
       </c>
       <c r="BU62" t="n">
-        <v>7605.729182097403</v>
+        <v>7997.193496130032</v>
       </c>
       <c r="BV62" t="n">
-        <v>7790.57397109763</v>
+        <v>7997.193496130032</v>
       </c>
       <c r="BW62" t="n">
-        <v>9.839235681885386</v>
+        <v>10.34565782164299</v>
       </c>
       <c r="BX62" t="n">
-        <v>10.07836218770715</v>
+        <v>10.34565782164299</v>
       </c>
       <c r="BY62" t="n">
         <v>783</v>
       </c>
       <c r="BZ62" t="n">
-        <v>7628.290841433503</v>
+        <v>8114.684095975233</v>
       </c>
       <c r="CA62" t="n">
-        <v>9.742533037839447</v>
+        <v>10.3648969590004</v>
       </c>
       <c r="CB62" t="n">
-        <v>-486.3932545417309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -15871,16 +15875,16 @@
         <v>10.53810460728466</v>
       </c>
       <c r="BA63" t="n">
-        <v>-0.2350253960240583</v>
+        <v>0</v>
       </c>
       <c r="BB63" t="n">
-        <v>-0.09695112257939797</v>
+        <v>0</v>
       </c>
       <c r="BC63" t="n">
-        <v>0.03071469809442462</v>
+        <v>0.061738753702077</v>
       </c>
       <c r="BD63" t="n">
-        <v>-0.1073595753502357</v>
+        <v>0</v>
       </c>
       <c r="BE63" t="n">
         <v>615</v>
@@ -15901,16 +15905,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK63" t="n">
-        <v>23.77417479050258</v>
+        <v>47.78780235275704</v>
       </c>
       <c r="BL63" t="n">
-        <v>-83.09980133823773</v>
+        <v>0</v>
       </c>
       <c r="BM63" t="n">
-        <v>81.06993603561381</v>
+        <v>162.9564060229015</v>
       </c>
       <c r="BN63" t="n">
-        <v>-283.3703225633906</v>
+        <v>0</v>
       </c>
       <c r="BO63" t="n">
         <v>2350.960487616098</v>
@@ -15919,40 +15923,40 @@
         <v>8016.775262770894</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-116.841190542267</v>
+        <v>0</v>
       </c>
       <c r="BR63" t="n">
-        <v>-48.19855546771016</v>
+        <v>0</v>
       </c>
       <c r="BS63" t="n">
-        <v>-398.4284597491304</v>
+        <v>0</v>
       </c>
       <c r="BT63" t="n">
-        <v>-164.3570741448916</v>
+        <v>0</v>
       </c>
       <c r="BU63" t="n">
-        <v>7618.346803021764</v>
+        <v>8016.775262770894</v>
       </c>
       <c r="BV63" t="n">
-        <v>7733.404940207503</v>
+        <v>8016.775262770894</v>
       </c>
       <c r="BW63" t="n">
-        <v>9.619124751290105</v>
+        <v>10.12219098834709</v>
       </c>
       <c r="BX63" t="n">
-        <v>9.764400177029676</v>
+        <v>10.12219098834709</v>
       </c>
       <c r="BY63" t="n">
         <v>783.2</v>
       </c>
       <c r="BZ63" t="n">
-        <v>7602.784598446427</v>
+        <v>8130.741144620743</v>
       </c>
       <c r="CA63" t="n">
-        <v>9.707855328689845</v>
+        <v>10.38263730090664</v>
       </c>
       <c r="CB63" t="n">
-        <v>-527.9565461743171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -16115,16 +16119,16 @@
         <v>10.49672680209128</v>
       </c>
       <c r="BA64" t="n">
-        <v>-0.3710663898464883</v>
+        <v>0</v>
       </c>
       <c r="BB64" t="n">
-        <v>-0.108361173061148</v>
+        <v>0</v>
       </c>
       <c r="BC64" t="n">
-        <v>0.1967234466284822</v>
+        <v>0.2277475022361346</v>
       </c>
       <c r="BD64" t="n">
-        <v>-0.06598177015685813</v>
+        <v>0</v>
       </c>
       <c r="BE64" t="n">
         <v>615</v>
@@ -16145,16 +16149,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK64" t="n">
-        <v>152.2703427250879</v>
+        <v>176.2839702873424</v>
       </c>
       <c r="BL64" t="n">
-        <v>-51.0720350196331</v>
+        <v>0</v>
       </c>
       <c r="BM64" t="n">
-        <v>519.2418686925498</v>
+        <v>601.1283386798376</v>
       </c>
       <c r="BN64" t="n">
-        <v>-174.1556394169489</v>
+        <v>0</v>
       </c>
       <c r="BO64" t="n">
         <v>2389.434926470589</v>
@@ -16163,40 +16167,40 @@
         <v>8147.973099264708</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-184.4729952308922</v>
+        <v>0</v>
       </c>
       <c r="BR64" t="n">
-        <v>-53.87098025664051</v>
+        <v>0</v>
       </c>
       <c r="BS64" t="n">
-        <v>-629.0529137373425</v>
+        <v>0</v>
       </c>
       <c r="BT64" t="n">
-        <v>-183.7000426751442</v>
+        <v>0</v>
       </c>
       <c r="BU64" t="n">
-        <v>7518.920185527366</v>
+        <v>8147.973099264708</v>
       </c>
       <c r="BV64" t="n">
-        <v>7973.817459847759</v>
+        <v>8147.973099264708</v>
       </c>
       <c r="BW64" t="n">
-        <v>9.481614357537662</v>
+        <v>10.27487149970329</v>
       </c>
       <c r="BX64" t="n">
-        <v>10.05525530876136</v>
+        <v>10.27487149970329</v>
       </c>
       <c r="BY64" t="n">
         <v>783.8</v>
       </c>
       <c r="BZ64" t="n">
-        <v>7559.650314302688</v>
+        <v>8133.090956617647</v>
       </c>
       <c r="CA64" t="n">
-        <v>9.646053742919893</v>
+        <v>10.37780804659915</v>
       </c>
       <c r="CB64" t="n">
-        <v>-573.4406423149617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -16359,16 +16363,16 @@
         <v>10.50141812516395</v>
       </c>
       <c r="BA65" t="n">
-        <v>-0.1647362882473562</v>
+        <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>-0.04137056663891236</v>
+        <v>0</v>
       </c>
       <c r="BC65" t="n">
-        <v>0.05269262837891731</v>
+        <v>0.08371668398656969</v>
       </c>
       <c r="BD65" t="n">
-        <v>-0.07067309322952653</v>
+        <v>0</v>
       </c>
       <c r="BE65" t="n">
         <v>615</v>
@@ -16389,16 +16393,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK65" t="n">
-        <v>40.78580728354199</v>
+        <v>64.79943484579645</v>
       </c>
       <c r="BL65" t="n">
-        <v>-54.70327158218885</v>
+        <v>0</v>
       </c>
       <c r="BM65" t="n">
-        <v>139.0796028368782</v>
+        <v>220.9660728241659</v>
       </c>
       <c r="BN65" t="n">
-        <v>-186.538156095264</v>
+        <v>0</v>
       </c>
       <c r="BO65" t="n">
         <v>2336.030108359133</v>
@@ -16407,40 +16411,40 @@
         <v>7965.862669504645</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-81.89746457172164</v>
+        <v>0</v>
       </c>
       <c r="BR65" t="n">
-        <v>-20.56708058478882</v>
+        <v>0</v>
       </c>
       <c r="BS65" t="n">
-        <v>-279.2703541895708</v>
+        <v>0</v>
       </c>
       <c r="BT65" t="n">
-        <v>-70.13374479412988</v>
+        <v>0</v>
       </c>
       <c r="BU65" t="n">
-        <v>7686.592315315074</v>
+        <v>7965.862669504645</v>
       </c>
       <c r="BV65" t="n">
-        <v>7779.324513409381</v>
+        <v>7965.862669504645</v>
       </c>
       <c r="BW65" t="n">
-        <v>9.680846744729312</v>
+        <v>10.03257263161794</v>
       </c>
       <c r="BX65" t="n">
-        <v>9.797637926208289</v>
+        <v>10.03257263161794</v>
       </c>
       <c r="BY65" t="n">
         <v>784.8</v>
       </c>
       <c r="BZ65" t="n">
-        <v>7582.566896266449</v>
+        <v>8068.862762035606</v>
       </c>
       <c r="CA65" t="n">
-        <v>9.662829072728552</v>
+        <v>10.2836879360622</v>
       </c>
       <c r="CB65" t="n">
-        <v>-486.2958657691576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -16603,16 +16607,16 @@
         <v>10.52709434639447</v>
       </c>
       <c r="BA66" t="n">
-        <v>-0.4501197689190413</v>
+        <v>0</v>
       </c>
       <c r="BB66" t="n">
-        <v>-0.1542155427745531</v>
+        <v>0</v>
       </c>
       <c r="BC66" t="n">
-        <v>0.1995549116844373</v>
+        <v>0.2305789672920897</v>
       </c>
       <c r="BD66" t="n">
-        <v>-0.09634931446005091</v>
+        <v>0</v>
       </c>
       <c r="BE66" t="n">
         <v>615</v>
@@ -16633,16 +16637,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK66" t="n">
-        <v>154.4619887229269</v>
+        <v>178.4756162851813</v>
       </c>
       <c r="BL66" t="n">
-        <v>-74.57750149053707</v>
+        <v>0</v>
       </c>
       <c r="BM66" t="n">
-        <v>526.7153815451807</v>
+        <v>608.6018515324683</v>
       </c>
       <c r="BN66" t="n">
-        <v>-254.3092800827314</v>
+        <v>0</v>
       </c>
       <c r="BO66" t="n">
         <v>2422.741157120743</v>
@@ -16651,40 +16655,40 @@
         <v>8261.547345781733</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-223.7738158378734</v>
+        <v>0</v>
       </c>
       <c r="BR66" t="n">
-        <v>-76.66715139182745</v>
+        <v>0</v>
       </c>
       <c r="BS66" t="n">
-        <v>-763.0687120071482</v>
+        <v>0</v>
       </c>
       <c r="BT66" t="n">
-        <v>-261.4349862461316</v>
+        <v>0</v>
       </c>
       <c r="BU66" t="n">
-        <v>7498.478633774585</v>
+        <v>8261.547345781733</v>
       </c>
       <c r="BV66" t="n">
-        <v>8007.238065699002</v>
+        <v>8261.547345781733</v>
       </c>
       <c r="BW66" t="n">
-        <v>9.443927750345825</v>
+        <v>10.40497146823896</v>
       </c>
       <c r="BX66" t="n">
-        <v>10.08468270239169</v>
+        <v>10.40497146823896</v>
       </c>
       <c r="BY66" t="n">
         <v>789.2</v>
       </c>
       <c r="BZ66" t="n">
-        <v>7585.61342394724</v>
+        <v>8077.870374690404</v>
       </c>
       <c r="CA66" t="n">
-        <v>9.612949857157657</v>
+        <v>10.23605288191005</v>
       </c>
       <c r="CB66" t="n">
-        <v>-492.2569507431646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -16847,16 +16851,16 @@
         <v>10.52306543388457</v>
       </c>
       <c r="BA67" t="n">
-        <v>-0.2841761307102537</v>
+        <v>0</v>
       </c>
       <c r="BB67" t="n">
-        <v>-0.0859329430814082</v>
+        <v>0</v>
       </c>
       <c r="BC67" t="n">
-        <v>0.1059227856786951</v>
+        <v>0.1369468412863475</v>
       </c>
       <c r="BD67" t="n">
-        <v>-0.09232040195015045</v>
+        <v>0</v>
       </c>
       <c r="BE67" t="n">
         <v>615</v>
@@ -16877,16 +16881,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK67" t="n">
-        <v>81.98767942568033</v>
+        <v>106.0013069879348</v>
       </c>
       <c r="BL67" t="n">
-        <v>-71.45899223703401</v>
+        <v>0</v>
       </c>
       <c r="BM67" t="n">
-        <v>279.57798684157</v>
+        <v>361.4644568288577</v>
       </c>
       <c r="BN67" t="n">
-        <v>-243.675163528286</v>
+        <v>0</v>
       </c>
       <c r="BO67" t="n">
         <v>2362.445394736843</v>
@@ -16895,40 +16899,40 @@
         <v>8055.938796052635</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-141.2761258893148</v>
+        <v>0</v>
       </c>
       <c r="BR67" t="n">
-        <v>-42.72094652870963</v>
+        <v>0</v>
       </c>
       <c r="BS67" t="n">
-        <v>-481.7515892825634</v>
+        <v>0</v>
       </c>
       <c r="BT67" t="n">
-        <v>-145.6784276628998</v>
+        <v>0</v>
       </c>
       <c r="BU67" t="n">
-        <v>7574.187206770071</v>
+        <v>8055.938796052635</v>
       </c>
       <c r="BV67" t="n">
-        <v>7812.263632524348</v>
+        <v>8055.938796052635</v>
       </c>
       <c r="BW67" t="n">
-        <v>9.539278597947193</v>
+        <v>10.146018634827</v>
       </c>
       <c r="BX67" t="n">
-        <v>9.839122962877013</v>
+        <v>10.146018634827</v>
       </c>
       <c r="BY67" t="n">
         <v>793.4</v>
       </c>
       <c r="BZ67" t="n">
-        <v>7579.305028881774</v>
+        <v>8089.619434674923</v>
       </c>
       <c r="CA67" t="n">
-        <v>9.55295844037002</v>
+        <v>10.19612504454685</v>
       </c>
       <c r="CB67" t="n">
-        <v>-510.3144057931516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -17091,16 +17095,16 @@
         <v>10.57560532518563</v>
       </c>
       <c r="BA68" t="n">
-        <v>-0.4286509237597222</v>
+        <v>0</v>
       </c>
       <c r="BB68" t="n">
-        <v>-0.1314990519600787</v>
+        <v>0</v>
       </c>
       <c r="BC68" t="n">
-        <v>0.1522915785484322</v>
+        <v>0.1833156341560846</v>
       </c>
       <c r="BD68" t="n">
-        <v>-0.1448602932512113</v>
+        <v>0</v>
       </c>
       <c r="BE68" t="n">
         <v>615</v>
@@ -17121,16 +17125,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK68" t="n">
-        <v>117.8786324515168</v>
+        <v>141.8922600137712</v>
       </c>
       <c r="BL68" t="n">
-        <v>-112.1265760571779</v>
+        <v>0</v>
       </c>
       <c r="BM68" t="n">
-        <v>401.9661366596721</v>
+        <v>483.8526066469599</v>
       </c>
       <c r="BN68" t="n">
-        <v>-382.3516243549767</v>
+        <v>0</v>
       </c>
       <c r="BO68" t="n">
         <v>2402.068324303405</v>
@@ -17139,40 +17143,40 @@
         <v>8191.052985874609</v>
       </c>
       <c r="BQ68" t="n">
-        <v>-213.1007333947929</v>
+        <v>0</v>
       </c>
       <c r="BR68" t="n">
-        <v>-65.37381085668819</v>
+        <v>0</v>
       </c>
       <c r="BS68" t="n">
-        <v>-726.6735008762437</v>
+        <v>0</v>
       </c>
       <c r="BT68" t="n">
-        <v>-222.9246950213067</v>
+        <v>0</v>
       </c>
       <c r="BU68" t="n">
-        <v>7464.379484998366</v>
+        <v>8191.052985874609</v>
       </c>
       <c r="BV68" t="n">
-        <v>7808.701361519633</v>
+        <v>8191.052985874609</v>
       </c>
       <c r="BW68" t="n">
-        <v>9.412836677173223</v>
+        <v>10.32919670349888</v>
       </c>
       <c r="BX68" t="n">
-        <v>9.847038286910003</v>
+        <v>10.32919670349888</v>
       </c>
       <c r="BY68" t="n">
         <v>793.6</v>
       </c>
       <c r="BZ68" t="n">
-        <v>7548.511565277094</v>
+        <v>8124.474979295667</v>
       </c>
       <c r="CA68" t="n">
-        <v>9.511700825546644</v>
+        <v>10.23752618757721</v>
       </c>
       <c r="CB68" t="n">
-        <v>-575.9634140185742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -17335,16 +17339,16 @@
         <v>10.56995784034371</v>
       </c>
       <c r="BA69" t="n">
-        <v>-0.4444280874337423</v>
+        <v>0</v>
       </c>
       <c r="BB69" t="n">
-        <v>-0.09734113495853336</v>
+        <v>0</v>
       </c>
       <c r="BC69" t="n">
-        <v>0.2078741440659222</v>
+        <v>0.2388981996735746</v>
       </c>
       <c r="BD69" t="n">
-        <v>-0.1392128084092867</v>
+        <v>0</v>
       </c>
       <c r="BE69" t="n">
         <v>615</v>
@@ -17365,16 +17369,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK69" t="n">
-        <v>160.9013450256389</v>
+        <v>184.9149725878933</v>
       </c>
       <c r="BL69" t="n">
-        <v>-107.7552392025597</v>
+        <v>0</v>
       </c>
       <c r="BM69" t="n">
-        <v>548.6735865374287</v>
+        <v>630.5600565247163</v>
       </c>
       <c r="BN69" t="n">
-        <v>-367.4453656807287</v>
+        <v>0</v>
       </c>
       <c r="BO69" t="n">
         <v>2401.494078947369</v>
@@ -17383,40 +17387,40 @@
         <v>8189.094809210528</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-220.9442371958204</v>
+        <v>0</v>
       </c>
       <c r="BR69" t="n">
-        <v>-48.39244732567659</v>
+        <v>0</v>
       </c>
       <c r="BS69" t="n">
-        <v>-753.4198488377476</v>
+        <v>0</v>
       </c>
       <c r="BT69" t="n">
-        <v>-165.0182453805572</v>
+        <v>0</v>
       </c>
       <c r="BU69" t="n">
-        <v>7435.67496037278</v>
+        <v>8189.094809210528</v>
       </c>
       <c r="BV69" t="n">
-        <v>7821.649443529799</v>
+        <v>8189.094809210528</v>
       </c>
       <c r="BW69" t="n">
-        <v>9.376639294291023</v>
+        <v>10.32672737605363</v>
       </c>
       <c r="BX69" t="n">
-        <v>9.863366259180074</v>
+        <v>10.32672737605363</v>
       </c>
       <c r="BY69" t="n">
         <v>793.6</v>
       </c>
       <c r="BZ69" t="n">
-        <v>7531.862520246177</v>
+        <v>8132.69932128483</v>
       </c>
       <c r="CA69" t="n">
-        <v>9.490705812897314</v>
+        <v>10.24789736284728</v>
       </c>
       <c r="CB69" t="n">
-        <v>-600.8368010386554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -17579,16 +17583,16 @@
         <v>10.54346555034631</v>
       </c>
       <c r="BA70" t="n">
-        <v>-0.2715886103895553</v>
+        <v>0</v>
       </c>
       <c r="BB70" t="n">
-        <v>-0.07451362557697294</v>
+        <v>0</v>
       </c>
       <c r="BC70" t="n">
-        <v>0.08435446640069699</v>
+        <v>0.1153785220083494</v>
       </c>
       <c r="BD70" t="n">
-        <v>-0.1127205184118854</v>
+        <v>0</v>
       </c>
       <c r="BE70" t="n">
         <v>615</v>
@@ -17609,16 +17613,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK70" t="n">
-        <v>65.29309916719583</v>
+        <v>89.3067267294503</v>
       </c>
       <c r="BL70" t="n">
-        <v>-87.24934554009747</v>
+        <v>0</v>
       </c>
       <c r="BM70" t="n">
-        <v>222.6494681601378</v>
+        <v>304.5359381474256</v>
       </c>
       <c r="BN70" t="n">
-        <v>-297.5202682917324</v>
+        <v>0</v>
       </c>
       <c r="BO70" t="n">
         <v>2342.346807275541</v>
@@ -17627,40 +17631,40 @@
         <v>7987.402612809597</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-135.0183304122046</v>
+        <v>0</v>
       </c>
       <c r="BR70" t="n">
-        <v>-37.04391470589425</v>
+        <v>0</v>
       </c>
       <c r="BS70" t="n">
-        <v>-460.4125067056176</v>
+        <v>0</v>
       </c>
       <c r="BT70" t="n">
-        <v>-126.3197491470994</v>
+        <v>0</v>
       </c>
       <c r="BU70" t="n">
-        <v>7526.990106103979</v>
+        <v>7987.402612809597</v>
       </c>
       <c r="BV70" t="n">
-        <v>7689.882344517864</v>
+        <v>7987.402612809597</v>
       </c>
       <c r="BW70" t="n">
-        <v>9.479836405672518</v>
+        <v>10.05970102368967</v>
       </c>
       <c r="BX70" t="n">
-        <v>9.684990358334842</v>
+        <v>10.05970102368967</v>
       </c>
       <c r="BY70" t="n">
         <v>793.6</v>
       </c>
       <c r="BZ70" t="n">
-        <v>7499.942078403958</v>
+        <v>8137.007309945821</v>
       </c>
       <c r="CA70" t="n">
-        <v>9.450503745085957</v>
+        <v>10.25332304126163</v>
       </c>
       <c r="CB70" t="n">
-        <v>-637.0652315418646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -17823,16 +17827,16 @@
         <v>10.59604094158523</v>
       </c>
       <c r="BA71" t="n">
-        <v>-0.299922847349066</v>
+        <v>0</v>
       </c>
       <c r="BB71" t="n">
-        <v>-0.04751310130268216</v>
+        <v>0</v>
       </c>
       <c r="BC71" t="n">
-        <v>0.08711383639557546</v>
+        <v>0.1181378920032278</v>
       </c>
       <c r="BD71" t="n">
-        <v>-0.1652959096508084</v>
+        <v>0</v>
       </c>
       <c r="BE71" t="n">
         <v>615</v>
@@ -17853,16 +17857,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK71" t="n">
-        <v>67.42894124411396</v>
+        <v>91.44256880636841</v>
       </c>
       <c r="BL71" t="n">
-        <v>-127.9444074661695</v>
+        <v>0</v>
       </c>
       <c r="BM71" t="n">
-        <v>229.9326896424286</v>
+        <v>311.8191596297163</v>
       </c>
       <c r="BN71" t="n">
-        <v>-436.2904294596379</v>
+        <v>0</v>
       </c>
       <c r="BO71" t="n">
         <v>2395.751625386997</v>
@@ -17871,40 +17875,40 @@
         <v>8169.513042569659</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-149.1044931650887</v>
+        <v>0</v>
       </c>
       <c r="BR71" t="n">
-        <v>-23.62079765197989</v>
+        <v>0</v>
       </c>
       <c r="BS71" t="n">
-        <v>-508.4463216929526</v>
+        <v>0</v>
       </c>
       <c r="BT71" t="n">
-        <v>-80.54691999325144</v>
+        <v>0</v>
       </c>
       <c r="BU71" t="n">
-        <v>7661.066720876706</v>
+        <v>8169.513042569659</v>
       </c>
       <c r="BV71" t="n">
-        <v>7733.222613110021</v>
+        <v>8169.513042569659</v>
       </c>
       <c r="BW71" t="n">
-        <v>9.872508660923591</v>
+        <v>10.52772299300214</v>
       </c>
       <c r="BX71" t="n">
-        <v>9.96549305813147</v>
+        <v>10.52772299300214</v>
       </c>
       <c r="BY71" t="n">
         <v>790</v>
       </c>
       <c r="BZ71" t="n">
-        <v>7532.459695824383</v>
+        <v>8118.600449303407</v>
       </c>
       <c r="CA71" t="n">
-        <v>9.536219927201509</v>
+        <v>10.27787334621426</v>
       </c>
       <c r="CB71" t="n">
-        <v>-586.1407534790255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -18071,16 +18075,16 @@
         <v>10.55125212136313</v>
       </c>
       <c r="BA72" t="n">
-        <v>-0.3550114404788669</v>
+        <v>0</v>
       </c>
       <c r="BB72" t="n">
-        <v>-0.1270761082967198</v>
+        <v>0</v>
       </c>
       <c r="BC72" t="n">
-        <v>0.1074282427534357</v>
+        <v>0.138452298361088</v>
       </c>
       <c r="BD72" t="n">
-        <v>-0.1205070894287115</v>
+        <v>0</v>
       </c>
       <c r="BE72" t="n">
         <v>615</v>
@@ -18101,16 +18105,16 @@
         <v>0.2199747036170052</v>
       </c>
       <c r="BK72" t="n">
-        <v>83.15295214053661</v>
+        <v>107.1665797027911</v>
       </c>
       <c r="BL72" t="n">
-        <v>-93.27640463094652</v>
+        <v>0</v>
       </c>
       <c r="BM72" t="n">
-        <v>283.5515667992299</v>
+        <v>365.4380367865176</v>
       </c>
       <c r="BN72" t="n">
-        <v>-318.0725397915276</v>
+        <v>0</v>
       </c>
       <c r="BO72" t="n">
         <v>2383.118227554179</v>
@@ -18119,40 +18123,40 @@
         <v>8126.433155959749</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-176.4913922639657</v>
+        <v>0</v>
       </c>
       <c r="BR72" t="n">
-        <v>-63.17497612618386</v>
+        <v>0</v>
       </c>
       <c r="BS72" t="n">
-        <v>-601.835647620123</v>
+        <v>0</v>
       </c>
       <c r="BT72" t="n">
-        <v>-215.426668590287</v>
+        <v>0</v>
       </c>
       <c r="BU72" t="n">
-        <v>7524.597508339626</v>
+        <v>8126.433155959749</v>
       </c>
       <c r="BV72" t="n">
-        <v>7808.360616168222</v>
+        <v>8126.433155959749</v>
       </c>
       <c r="BW72" t="n">
-        <v>9.696646273633538</v>
+        <v>10.47220767520586</v>
       </c>
       <c r="BX72" t="n">
-        <v>10.06232038166008</v>
+        <v>10.47220767520586</v>
       </c>
       <c r="BY72" t="n">
         <v>786.4</v>
       </c>
       <c r="BZ72" t="n">
-        <v>7522.541756138293</v>
+        <v>8132.699321284829</v>
       </c>
       <c r="CA72" t="n">
-        <v>9.567693462338777</v>
+        <v>10.34311115429004</v>
       </c>
       <c r="CB72" t="n">
-        <v>-610.1575651465374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
